--- a/output.xlsx
+++ b/output.xlsx
@@ -1119,7 +1119,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Power_BI_logo.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Кракозябры_PBI-локализации.png</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Windows1.0.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Windows_logo_and_wordmark_-_2021.svg</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr"/>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Office_logo_(2019–present).svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Office_Online.png</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Office_suite</t>
+          <t>http://dbpedia.org/resource/Productivity_software</t>
         </is>
       </c>
     </row>
@@ -1423,10 +1423,26 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1527,7 +1543,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Proj2007.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Makybe_Diva_-_trackwork_02.jpg</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1639,7 +1655,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Proj2007.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Makybe_Diva_-_trackwork_02.jpg</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1755,7 +1771,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Proj2007.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Makybe_Diva_-_trackwork_02.jpg</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1871,7 +1887,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Proj2007.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Makybe_Diva_-_trackwork_02.jpg</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2092,7 +2108,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Office_SharePoint_(2019–present).svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_SharePoint.png</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2184,10 +2200,26 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2714,10 +2746,26 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2814,7 +2862,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Photoshop_Elements.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Photoshop_Elements_(screenshot).png</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -2934,7 +2982,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/West_Bloomfield_School_District_Logo.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Redmine_logo.svg</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3242,10 +3290,26 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3330,10 +3394,26 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3414,10 +3494,26 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3754,7 +3850,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C2.5123_acland.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo-no-tagline-CMYK.jpg</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -3858,7 +3954,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_InDesign_CC_icon.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Salsa_Basic_Steps,_LA-style.png</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4195,7 +4291,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Mind_map</t>
+          <t>Mind mapping</t>
         </is>
       </c>
     </row>
@@ -4398,7 +4494,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/.vsd_icon.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Visio_screenshot.png</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4514,7 +4610,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C2.5123_acland.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo-no-tagline-CMYK.jpg</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4746,12 +4842,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Odoo_logo.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Odoo_12e_homepage.png</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Customer_Relationship_Management</t>
+          <t>http://dbpedia.org/resource/Content_management_system</t>
         </is>
       </c>
     </row>
@@ -5197,10 +5293,26 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5289,10 +5401,26 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5389,10 +5517,26 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5481,10 +5625,26 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5601,12 +5761,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Camtasia_screenshot.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Camtasia_computer_icon.png</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Screencasting and video editing software</t>
+          <t>http://dbpedia.org/resource/Video_editing_software</t>
         </is>
       </c>
     </row>
@@ -5921,10 +6081,26 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -6038,7 +6214,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Mobile_app_development</t>
+          <t>http://dbpedia.org/resource/Glue_code</t>
         </is>
       </c>
     </row>
@@ -6141,12 +6317,12 @@
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Zoom_Communications_Logo.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adawro_r.jpg</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Instant_messaging</t>
+          <t>Videoconferencing, VoIP, and Instant messaging</t>
         </is>
       </c>
     </row>
@@ -6465,10 +6641,26 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6557,10 +6749,26 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6677,7 +6885,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/DeathofaGentleLady_cover.gif</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Concur_logo.png</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr"/>
@@ -6901,7 +7109,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Identity-concept.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Yao_Jie.jpg</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7221,10 +7429,26 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7333,7 +7557,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Access_control_door_wiring_io_module.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/NewYorkCitySubwayEntranceInterior.jpg</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr"/>
@@ -8177,10 +8401,26 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -8289,7 +8529,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automatic_Data_Processing_(logo).svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/ADP_Headquarters.jpg</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr"/>
@@ -8801,7 +9041,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Export_And_Import.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Hamburg.CTA.Altenwerder.BungaRaya.wmt.jpg</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr"/>
@@ -9145,7 +9385,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/HK_Central_中環中心_The_Center_mall_shop_interior_service_counters_queue_line_barrier_visitors.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/FlexiblesFertigungssystem.jpg</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr"/>
@@ -9365,10 +9605,26 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -9469,10 +9725,26 @@
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -9577,7 +9849,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Supply_and_demand_network_(en).png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/DM_Freiwasserschwimmen_2009_Lindau.jpg</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -9693,7 +9965,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/US_Employment_Statistics_-_March_2015.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/User-activities.png</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -9801,7 +10073,7 @@
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automated_online_assistant.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Foodora_messenger.jpg</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -10033,7 +10305,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/HK_Central_中環中心_The_Center_mall_shop_interior_service_counters_queue_line_barrier_visitors.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/FlexiblesFertigungssystem.jpg</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr"/>
@@ -10141,7 +10413,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C2.5123_acland.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo-no-tagline-CMYK.jpg</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
@@ -10249,7 +10521,7 @@
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automated_online_assistant.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Foodora_messenger.jpg</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
@@ -10357,7 +10629,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/HK_Central_中環中心_The_Center_mall_shop_interior_service_counters_queue_line_barrier_visitors.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/FlexiblesFertigungssystem.jpg</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr"/>
@@ -10473,7 +10745,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/HK_Central_中環中心_The_Center_mall_shop_interior_service_counters_queue_line_barrier_visitors.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/FlexiblesFertigungssystem.jpg</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr"/>
@@ -10716,7 +10988,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Supply_and_demand_network_(en).png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/DM_Freiwasserschwimmen_2009_Lindau.jpg</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
@@ -10944,7 +11216,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Disc_with_dental_implants_made_with_WorkNC.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/CAD_model_and_CNC_machined_part.png</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
@@ -11048,10 +11320,26 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -11279,7 +11567,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Honeywellspeakerv33.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Wheelock_mt2.jpg</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr"/>
@@ -11791,7 +12079,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/USMC-110408-M-0151S-001.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Ka-gr-ho_ps4_cmyk_blu-gra.jpg</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr"/>
@@ -11883,10 +12171,26 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -11991,7 +12295,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C2.5123_acland.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo-no-tagline-CMYK.jpg</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
@@ -12103,7 +12407,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Tool-component-outline-FSJ-02.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Werkzeugdaten-Fuegebedingungen.png</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr"/>
@@ -12303,10 +12607,26 @@
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -12415,7 +12735,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Dynapac.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/BeaconMedaes_oxygen,_vacuum,_and_medical_air_medical_gas_supply_outlets_on_a_ceiling_at_Campbell_County_Memorial_Hospital_in_Gillette,_Wyoming.jpg</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr"/>
@@ -12523,7 +12843,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Export_And_Import.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Hamburg.CTA.Altenwerder.BungaRaya.wmt.jpg</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr"/>
@@ -12739,7 +13059,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Disc_with_dental_implants_made_with_WorkNC.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/CAD_model_and_CNC_machined_part.png</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
@@ -13071,7 +13391,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Disc_with_dental_implants_made_with_WorkNC.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/CAD_model_and_CNC_machined_part.png</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
@@ -13283,7 +13603,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Supply_and_demand_network_(en).png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/DM_Freiwasserschwimmen_2009_Lindau.jpg</t>
         </is>
       </c>
       <c r="Z119" t="inlineStr">
@@ -13603,10 +13923,26 @@
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -13723,7 +14059,7 @@
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Statistical_inference</t>
+          <t>http://dbpedia.org/resource/Statistical_analysis</t>
         </is>
       </c>
     </row>
@@ -13830,7 +14166,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Auxostat_schematic.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Functional_levels_of_a_Distributed_Control_System.svg</t>
         </is>
       </c>
       <c r="Z124" t="inlineStr"/>
@@ -13938,7 +14274,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Philosophical_Transactions_Volume_1_frontispiece.jpg</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr">
@@ -14610,10 +14946,26 @@
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y131" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z131" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -14702,10 +15054,26 @@
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y132" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -14790,10 +15158,26 @@
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -14902,7 +15286,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Philosophical_Transactions_Volume_1_frontispiece.jpg</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
@@ -15014,7 +15398,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Philosophical_Transactions_Volume_1_frontispiece.jpg</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
@@ -15338,7 +15722,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Matlab_Logo.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MATLAB_surf_sinc3D.svg</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
@@ -15754,10 +16138,26 @@
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -16182,12 +16582,12 @@
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Simcenter_Amesim.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Siemens_AG_logo.svg</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Computer_Simulation</t>
+          <t>http://dbpedia.org/resource/Mathematical_model</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16786,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/AutoCAD_2016_screenshot.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Detail_Autocad.jpg</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
@@ -16606,7 +17006,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Mathcad_252_screenshot.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Mathcad31.png</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
@@ -16827,7 +17227,7 @@
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
+          <t>Computer Aided Engineering (CAE) software</t>
         </is>
       </c>
     </row>
@@ -16926,7 +17326,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Prorunner_mk2_goederenlift.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Carton_Conveyor.jpg</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr"/>
@@ -17022,7 +17422,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automated_liquid_oral_dose.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Workmaster.jpg</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
@@ -17138,7 +17538,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/SketchUp_Logo_2020.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Herculesc130.jpg</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
@@ -17246,7 +17646,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Philosophical_Transactions_Volume_1_frontispiece.jpg</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
@@ -17354,12 +17754,12 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Fc_etzella.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Swstapler00.jpg</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
+          <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
       </c>
     </row>
@@ -17461,7 +17861,7 @@
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Systems_design</t>
+          <t>http://dbpedia.org/resource/Simulation</t>
         </is>
       </c>
     </row>
@@ -17572,7 +17972,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/AutoCAD_2016_screenshot.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Detail_Autocad.jpg</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
@@ -17652,10 +18052,26 @@
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
+      <c r="W160" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y160" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z160" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -17859,12 +18275,12 @@
       <c r="X162" t="inlineStr"/>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Simcenter_Amesim.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Siemens_AG_logo.svg</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Computer_Simulation</t>
+          <t>http://dbpedia.org/resource/Mathematical_model</t>
         </is>
       </c>
     </row>
@@ -18175,7 +18591,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Orange_logo.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Truss_Structure_Analysis,_Method_of_Joints2.png</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
@@ -18288,7 +18704,7 @@
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/3D_computer_graphics</t>
+          <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
       </c>
     </row>
@@ -18391,7 +18807,7 @@
       <c r="X167" t="inlineStr"/>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Calculatorwatch.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Gcalctool-basic.png</t>
         </is>
       </c>
       <c r="Z167" t="inlineStr">
@@ -18731,7 +19147,7 @@
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Computer-aided_design</t>
+          <t>http://dbpedia.org/resource/Building_information_modeling</t>
         </is>
       </c>
     </row>
@@ -18834,7 +19250,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/GlamCamp_NY_Kippelboy_nina_Paley_(2).jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Tom_Bell's_graph_showing_extension_of_U.S._copyright_term_over_time.svg</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
@@ -19055,10 +19471,26 @@
       <c r="T173" t="inlineStr"/>
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr"/>
-      <c r="W173" t="inlineStr"/>
-      <c r="X173" t="inlineStr"/>
-      <c r="Y173" t="inlineStr"/>
-      <c r="Z173" t="inlineStr"/>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -19507,7 +19939,7 @@
       <c r="X177" t="inlineStr"/>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cannonball_stack_with_FCC_unit_cell.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Experience_curiosity1.png</t>
         </is>
       </c>
       <c r="Z177" t="inlineStr">
@@ -19731,7 +20163,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/PLC_Control_Panel.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/BMA_Automation_Allen_Bradley_PLC_3.jpg</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr"/>
@@ -19947,7 +20379,7 @@
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Opera_Software_logo.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Dawn_of_the_Dead_2004_movie.jpg</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr"/>
@@ -20355,12 +20787,12 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Labview_code_example.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/LabVIEW_Logo.jpg</t>
         </is>
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Embedded_system</t>
+          <t>http://dbpedia.org/resource/Signal_processing</t>
         </is>
       </c>
     </row>
@@ -20539,10 +20971,26 @@
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
-      <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
-      <c r="Z187" t="inlineStr"/>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Z187" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -891,7 +891,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/AdminClient16.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/OpenText_logo.svg</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr"/>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Office_Online.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Office_logo_(2019–present).svg</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Productivity_software</t>
+          <t>http://dbpedia.org/resource/Office_suite</t>
         </is>
       </c>
     </row>
@@ -1421,26 +1421,30 @@
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Remote_desktop_software#RAT</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>In computing, the term remote desktop refers to a software or operating system feature that allows a personal computer's desktop environment to be run remotely on one system (usually a PC, but the concept applies equally to a server), while being displayed on a separate client device. Remote desktop applications have varying features. Some allow attaching to an existing user's session (i.e., a running desktop) and "remote controlling", either displaying the remote control session or blanking the screen. Taking over a desktop remotely is a form of remote administration.</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Remote-Desktop (vom Englischen für „entfernter Schreibtisch“ oder Fernsteuerung) bezeichnet den Fernzugriff auf den Desktop eines Computers. Dabei werden Anwendungsprogramme auf einem Computer (Server) ausgeführt und auf einem anderen Computer (Client) dargestellt und bedient. Im Gegensatz zum Screen-Sharing muss sich kein Benutzer am Server lokal anmelden. Eine Remote-Desktop-Sitzung läuft unabhängig von einer anderen eventuell laufenden Sitzung.</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Phoenix-international-raceway-2011.svg</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Remote_desktop_software</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1547,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Makybe_Diva_-_trackwork_02.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Project_screenshot.png</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1655,7 +1659,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Makybe_Diva_-_trackwork_02.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Project_screenshot.png</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1771,7 +1775,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Makybe_Diva_-_trackwork_02.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Project_screenshot.png</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1887,7 +1891,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Makybe_Diva_-_trackwork_02.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Project_screenshot.png</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2108,7 +2112,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_SharePoint.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Office_SharePoint_(2019–present).svg</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2198,26 +2202,30 @@
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Business_process_management</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Business process management (BPM) is the discipline in which people use various methods to discover, model, analyze, measure, improve, optimize, and automate business processes. Any combination of methods used to manage a company's business processes is BPM. Processes can be structured and repeatable or unstructured and variable. Though not required, enabling technologies are often used with BPM. It can be differentiated from program management in that program management is concerned with managing a group of inter-dependent projects. From another viewpoint, process management includes program management. In project management, process management is the use of a repeatable process to improve the outcome of the project. Key distinctions between process management and project management are repeatability and predictability. If the structure and sequence of work is unique, then it is a project. In business process management, a sequence of work can vary from instance to instance: there are gateways, conditions; business rules etc. The key is predictability: no matter how many forks in the road, we know all of them in advance, and we understand the conditions for the process to take one route or another. If this condition is met, we are dealing with a process. As an approach, BPM sees processes as important assets of an organization that must be understood, managed, and developed to announce and deliver value-added products and services to clients or customers. This approach closely resembles other total quality management or continual improvement process methodologies. ISO 9000 promotes the process approach to managing an organization. ...promotes the adoption of a process approach when developing, implementing andimproving the effectiveness of a quality management system, to enhance customer satisfaction by meeting customer requirements. BPM proponents also claim that this approach can be supported, or enabled, through technology. As such, many BPM articles and scholars frequently discuss BPM from one of two viewpoints: people and/or technology. BPM streamlines business processing by automating workflows; while RPA automates tasks by recording a set of repetitive activities implemented by human. Organizations maximize their business automation leveraging both technologies to achieve better results.</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Prozessmanagement [-ˈmænɪdʒmənt], auch Geschäftsprozessmanagement (GPM), beschäftigt sich mit der Identifikation, Gestaltung, Dokumentation, Implementierung, Steuerung und Optimierung von Geschäftsprozessen. Ganzheitliche Ansätze des Geschäftsprozessmanagements adressieren nicht nur technische Fragestellungen, sondern insbesondere auch organisatorische Aspekte, wie die strategische Ausrichtung, die Organisationskultur oder die Einbindung und Führung von Prozessbeteiligten. „Wer macht was, wann, wie und womit?“ ist eine zentrale Fragestellung. Zur Verbesserung und Steuerung werden entsprechende Kennzahlen verwendet. Diese Kennzahlen können zum Beispiel in einer Balanced Scorecard dargestellt werden.</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/BPM_Workflow_Service_Pattern.png</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Business_process_management</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2448,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_CreatePDF_icon.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_Acrobat_dot_com_(2012).png</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2651,7 +2659,9 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Als Gebäudeautomation (GA) oder Domotik wird im Bauwesen die Gesamtheit von Überwachungs-, Steuer-, Regel- und Optimierungseinrichtungen in Gebäuden bezeichnet. Als Teil der Versorgungstechnik ist die GA ein wichtiger Bestandteil des technischen Energiemanagements. Als Hauptziel wird häufig die gewerkeübergreifende, selbstständige (automatische) Durchführung von Funktionsabläufen, nach vorgegebenen Einstellwerten (Parametern) oder deren Bedienung bzw. Überwachung zu vereinfachen. Um dieses Ziel zu erreichen werden alle Sensoren, Aktoren, Bedienelemente, Verbraucher und andere technische Anlagen im Gebäude miteinander vernetzt. Abläufe können in Szenarien zusammengefasst werden. Kennzeichnendes Merkmal ist die dezentrale Anordnung der Automationsstationen (AS) sowie die durchgängige Vernetzung mittels eines Kommunikations-Netzwerks bzw. Bussystems.</t>
+          <t>Der Begriff Gebäudeleittechnik (GLT) wird in zweierlei Weise verwendet: 
+* Im weiteren Sinne zur Bezeichnung der gesamten automatisierungstechnischen Instrumentarisierung mit einem Bezug zur Technischen Gebäudeausrüstung:Die Gebäudeleittechnik ist ein Bestandteil der Gebäudeautomation, welche in drei Ebenen unterteilt wird. Die Feldebene, die Automationsebene und die Managementebene. Die GLT befindet sich auf der obersten Ebene, der Managementebene. 
+* Im engeren, gebräuchlicheren Sinne der genutzten Software:Als Gebäudeleittechnik (GLT) wird die Software bezeichnet, mit der Gebäude überwacht und gesteuert werden. Die Software läuft in der Regel auf einem Server und wird vom Hersteller der Gebäudeautomatisierungstechnik / Direct-Digital-Control-Gebäudeautomation (DDC-GA) geliefert. Es gibt einige wenige herstellerunabhängige GLT-Systeme. Diese kommunizieren mit den DDCs in den Gebäuden über geeignete Schnittstellen wie OLE for Process Control (OPC) oder Building Automation and Control Networks (BACnet) mit ihren jeweiligen Vor- und Nachteilen. Darüber hinaus beherrschen einige dieser neutralen Systeme auch proprietäre Protokolle.</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2862,7 +2872,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Photoshop_Elements_(screenshot).png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Twizel_Tasman_Road.jpg</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -2987,7 +2997,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Bug_tracking_system</t>
+          <t>http://dbpedia.org/resource/Project_management_software</t>
         </is>
       </c>
     </row>
@@ -3288,26 +3298,30 @@
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Digital_asset_management</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Operations on a collection of digital assets require the use of a computer application implementing Digital Asset Management (DAM) to ensure that the owner, and possibly their delegates, can perform operations on the data files.</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Digital-Asset-Management (DAM) bezeichnet Softwareanwendungen zur Speicherung und Verwaltung von beliebigen digitalen Inhalten, insbesondere von Mediendateien wie Grafiken, Videos, Musikdateien und Textbausteinen. Im medialen Bereich wird es teilweise auch als Media-Asset-Management (MAM) bzw. im Spezielleren als Video-Asset-Management (VAM) bezeichnet. Es gehört zum Bereich der Content-Management-Systeme.</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/I.R.S._Records_logo.svg</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Digital_asset_management</t>
         </is>
       </c>
     </row>
@@ -3392,26 +3406,34 @@
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Enterprise_resource_planning</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Enterprise resource planning (ERP) is the integrated management of main business processes, often in real time and mediated by software and technology. ERP is usually referred to as a category of business management software—typically a suite of integrated applications—that an organization can use to collect, store, manage, and interpret data from many business activities. ERP Systems can be local based or Cloud-based. Cloud based applications are growing in recent days due to information being readily available from any location with internet access. ERP provides an integrated and continuously updated view of core business processes using common databases maintained by a database management system. ERP systems track business resources—cash, raw materials, production capacity—and the status of business commitments: orders, purchase orders, and payroll. The applications that make up the system share data across various departments (manufacturing, purchasing, sales, accounting, etc.) that provide the data. ERP facilitates information flow between all business functions and manages connections to outside stakeholders. Enterprise system software is a multibillion-dollar industry that produces components supporting a variety of business functions. IT investments have, as of 2011, become one of the largest categories of capital expenditure in United States-based businesses. Though early ERP systems focused on large enterprises, smaller enterprises increasingly use ERP systems. In 2019, the global ERP software market grew by 9%, resulting in a worldwide value of approximately $39 billion in total software revenue. The ERP system integrates varied organizational systems and facilitates error-free transactions and production, thereby enhancing the organization's efficiency. However, developing an ERP system differs from traditional system development.ERP systems run on a variety of computer hardware and network configurations, typically using a database as an information repository.</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Enterprise-Resource-Planning (ERP) bezeichnet die unternehmerische Aufgabe, Ressourcen wie Kapital, Personal, Betriebsmittel, Material und Informations- und Kommunikationstechnik im Sinne des Unternehmenszwecks rechtzeitig und bedarfsgerecht zu planen, zu steuern und zu verwalten. Gewährleistet werden sollen ein effizienter betrieblicher Wertschöpfungsprozess und eine stetig optimierte Steuerung der unternehmerischen und betrieblichen Abläufe. Eine Kernfunktion von ERP ist in produzierenden Unternehmen die Materialbedarfsplanung (siehe auch Material Requirement Planning und Manufacturing Resources Planning), die sicherstellen muss, dass alle für die Herstellung der Erzeugnisse und Komponenten erforderlichen Materialien an der richtigen Stelle, zur richtigen Zeit und in der richtigen Menge zur Verfügung stehen.Insgesamt sollen dadurch die bisherigen Zielkonflikte ausgeräumt und als Leistungsmerkmale erreicht werden: 
+* Hohe Qualität und hohe Produktivität 
+* Hohe Versorgungssicherheit und niedrige Kapitalbindung 
+* Komplexitätsreduktion und Flexibilität 
+* Hohe Kontinuität und niedrige Durchlaufzeit Diese Aufgabe wird heutzutage hauptsächlich mit Hilfe von IT-Systemen auf Basis einer modernen Informations- und Kommunikationstechnik in der Cloud oder On Premises erledigt.</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/ERP_Modules.png</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Enterprise_resource_planning</t>
         </is>
       </c>
     </row>
@@ -3492,26 +3514,26 @@
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Survey_data_collection</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+          <t>With the application of probability sampling in the 1930s, surveys became a standard tool for empirical research in social sciences, marketing, and official statistics. The methods involved in survey data collection are any of a number of ways in which data can be collected for a statistical survey. These are methods that are used to collect information from a sample of individuals in a systematic way. First there was the change from traditional paper-and-pencil interviewing (PAPI) to computer-assisted interviewing (CAI). Now, face-to-face surveys (CAPI), telephone surveys (CATI), and mail surveys (CASI, CSAQ) are increasingly replaced by web surveys.</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/US_Navy_030618-N-2893B-001_Information_Technician_1st_Class_Annette_Leasure_takes_a_few_minutes_to_fill_out_the_BUPERS_Online_Uniform_Survey_Questionnaire.jpg</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Survey_data_collection</t>
         </is>
       </c>
     </row>
@@ -3954,7 +3976,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Salsa_Basic_Steps,_LA-style.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_InDesign_2020_on_macOS_Catalina.png</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4066,7 +4088,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Roundel_of_Bulgaria.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Windows_Azure_logo.png</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4286,7 +4308,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Manfred_Roeder.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MindManager_2016_Flowchart_tasks.png</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4494,7 +4516,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Visio_screenshot.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/.vss_icon.svg</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4842,12 +4864,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Odoo_12e_homepage.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Odoo_logo.svg</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Content_management_system</t>
+          <t>http://dbpedia.org/resource/Enterprise_resource_planning</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5211,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Wrike_logo.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Suzzy_Roche_-_sfaumhw.jpg</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5291,28 +5313,28 @@
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Enterprise_output_management</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Enterprise output management (EOM) is an information technology practice that deals with the organization, formatting, management and distribution of data that is created by enterprise applications like banking information systems, insurance information systems, ERP (enterprise resource planning systems), CRM (customer relationship management), retail systems and many others. In 2006, Gartner research estimated the market of EOM solutions at $441 million with 5% growth rate between 2006 and 2010. Gartner defined Distributed output management as middleware that drives the output process and supports the automated creation and delivery of business process and ad hoc documents. Middleware is software that is bridging between different software applications in terms of data formats, languages, communication protocols, etc.</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Output Management ist die Erstellung, Generierung, Steuerung und Verteilung von elektronischen oder physisch vorliegenden Dokumenten an alle vorgesehenen Empfänger im Unternehmen oder außerhalb eines Unternehmens.</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/George_VanFelson.jpg</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5399,28 +5421,30 @@
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Building_management_system</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>A building management system (BMS), otherwise known as a building automation system (BAS), is a computer-based control system installed in buildings that controls and monitors the building's mechanical and electrical equipment such as ventilation, lighting, power systems, fire systems, and security systems. A BMS consists of software and hardware; the software program, usually configured in a hierarchical manner, can be proprietary, using such protocols as C-Bus, Profibus, and so on. Vendors are also producing a BMS that integrates the use of Internet protocols and open standards such as DeviceNet, SOAP, XML, BACnet, LonWorks, Modbus or KNX.</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Der Begriff Gebäudeleittechnik (GLT) wird in zweierlei Weise verwendet: 
+* Im weiteren Sinne zur Bezeichnung der gesamten automatisierungstechnischen Instrumentarisierung mit einem Bezug zur Technischen Gebäudeausrüstung:Die Gebäudeleittechnik ist ein Bestandteil der Gebäudeautomation, welche in drei Ebenen unterteilt wird. Die Feldebene, die Automationsebene und die Managementebene. Die GLT befindet sich auf der obersten Ebene, der Managementebene. 
+* Im engeren, gebräuchlicheren Sinne der genutzten Software:Als Gebäudeleittechnik (GLT) wird die Software bezeichnet, mit der Gebäude überwacht und gesteuert werden. Die Software läuft in der Regel auf einem Server und wird vom Hersteller der Gebäudeautomatisierungstechnik / Direct-Digital-Control-Gebäudeautomation (DDC-GA) geliefert. Es gibt einige wenige herstellerunabhängige GLT-Systeme. Diese kommunizieren mit den DDCs in den Gebäuden über geeignete Schnittstellen wie OLE for Process Control (OPC) oder Building Automation and Control Networks (BACnet) mit ihren jeweiligen Vor- und Nachteilen. Darüber hinaus beherrschen einige dieser neutralen Systeme auch proprietäre Protokolle.</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Department_of_Finance_(DOF).svg</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5515,26 +5539,30 @@
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Digital_signage</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Digital signage is a sub-segment of electronic signage. Digital displays use technologies such as LCD, LED, projection and e-paper to display digital images, video, web pages, weather data, restaurant menus, or text. They can be found in public spaces, transportation systems, museums, stadiums, retail stores, hotels, restaurants and corporate buildings etc., to provide wayfinding, exhibitions, marketing and outdoor advertising. They are used as a network of electronic displays that are centrally managed and individually addressable for the display of text, animated or video messages for advertising, information, entertainment and merchandising to targeted audiences.</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Der Begriff Digital Signage (dt.: Digitale Beschilderung) umschreibt den Einsatz digitaler (gegebenenfalls interaktiver) Medieninhalte bei Werbe- und Informationssystemen wie elektronische Plakate, elektronische Verkehrsschilder, Werbung in Geschäften (Instore Marketing), digitale Türbeschilderung oder Großbildprojektionen im Innen- sowie Außenbereich.</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/FarmaDigital.jpg</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Digital_signage</t>
         </is>
       </c>
     </row>
@@ -5623,26 +5651,30 @@
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Computer-assisted_translation</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Computer-aided translation (CAT), also referred to as machine-assisted translation (MAT) or machine-aided human translation (MAHT), is the use of software to assist a human translator in the translation process. The translation is created by a human, and certain aspects of the process are facilitated by software; this is in contrast with machine translation (MT), in which the translation is created by a computer, optionally with some human intervention (e.g. pre-editing and post-editing). CAT tools are typically understood to mean programs that specifically facilitate the actual translation process. Most CAT tools have (a) the ability to translate a variety of source file formats in a single editing environment without needing to use the file format's associated software for most or all of the translation process, (b) translation memory, and (c) integration of various utilities or processes that increase productivity and consistency in translation.</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Eine computerunterstützte Übersetzung (englisch computer-aided translation, auch computer-assisted translation, abgekürzt CAT) ist die von Menschen durchgeführte Übersetzung von Sprache mit Hilfe von Computerprogrammen.</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Petr_Nedvěd_-_Show_Jana_Krause_(14._4._2021).png</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Computer-assisted_translation</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5793,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Camtasia_computer_icon.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Camtasia_screenshot.png</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -6079,28 +6111,30 @@
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Building_management_system</t>
+        </is>
+      </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>A building management system (BMS), otherwise known as a building automation system (BAS), is a computer-based control system installed in buildings that controls and monitors the building's mechanical and electrical equipment such as ventilation, lighting, power systems, fire systems, and security systems. A BMS consists of software and hardware; the software program, usually configured in a hierarchical manner, can be proprietary, using such protocols as C-Bus, Profibus, and so on. Vendors are also producing a BMS that integrates the use of Internet protocols and open standards such as DeviceNet, SOAP, XML, BACnet, LonWorks, Modbus or KNX.</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Der Begriff Gebäudeleittechnik (GLT) wird in zweierlei Weise verwendet: 
+* Im weiteren Sinne zur Bezeichnung der gesamten automatisierungstechnischen Instrumentarisierung mit einem Bezug zur Technischen Gebäudeausrüstung:Die Gebäudeleittechnik ist ein Bestandteil der Gebäudeautomation, welche in drei Ebenen unterteilt wird. Die Feldebene, die Automationsebene und die Managementebene. Die GLT befindet sich auf der obersten Ebene, der Managementebene. 
+* Im engeren, gebräuchlicheren Sinne der genutzten Software:Als Gebäudeleittechnik (GLT) wird die Software bezeichnet, mit der Gebäude überwacht und gesteuert werden. Die Software läuft in der Regel auf einem Server und wird vom Hersteller der Gebäudeautomatisierungstechnik / Direct-Digital-Control-Gebäudeautomation (DDC-GA) geliefert. Es gibt einige wenige herstellerunabhängige GLT-Systeme. Diese kommunizieren mit den DDCs in den Gebäuden über geeignete Schnittstellen wie OLE for Process Control (OPC) oder Building Automation and Control Networks (BACnet) mit ihren jeweiligen Vor- und Nachteilen. Darüber hinaus beherrschen einige dieser neutralen Systeme auch proprietäre Protokolle.</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Department_of_Finance_(DOF).svg</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -6214,7 +6248,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Glue_code</t>
+          <t>http://dbpedia.org/resource/Business_intelligence</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6356,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Videoconferencing, VoIP, and Instant messaging</t>
+          <t>http://dbpedia.org/resource/Voice_over_IP</t>
         </is>
       </c>
     </row>
@@ -6639,26 +6673,30 @@
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Accounting</t>
+        </is>
+      </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Accounting or accountancy is the measurement, processing, and communication of financial and non financial information about economic entities such as businesses and corporations. Accounting, which has been called the "language of business", measures the results of an organization's economic activities and conveys this information to a variety of users, including investors, creditors, management, and regulators. Practitioners of accounting are known as accountants. The terms "accounting" and "financial reporting" are often used as synonyms. Accounting can be divided into several fields including financial accounting, management accounting, external auditing, tax accounting and cost accounting. Accounting information systems are designed to support accounting functions and related activities. Financial accounting focuses on the reporting of an organization's financial information, including the preparation of financial statements, to the external users of the information, such as investors, regulators and suppliers; and management accounting focuses on the measurement, analysis and reporting of information for internal use by management. The recording of financial transactions, so that summaries of the financials may be presented in financial reports, is known as bookkeeping, of which double-entry bookkeeping is the most common system. Accounting has existed in various forms and levels of sophistication throughout human history. The double-entry accounting system in use today was developed in medieval Europe, particularly in Venice, and is usually attributed to the Italian mathematician and Franciscan friar Luca Pacioli. Today, accounting is facilitated by accounting organizations such as standard-setters, accounting firms and professional bodies. Financial statements are usually audited by accounting firms, and are prepared in accordance with generally accepted accounting principles (GAAP). GAAP is set by various standard-setting organizations such as the Financial Accounting Standards Board (FASB) in the United States and the Financial Reporting Council in the United Kingdom. As of 2012, "all major economies" have plans to converge towards or adopt the International Financial Reporting Standards (IFRS).</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Das Rechnungswesen (RW oder auch REWE) oder (seltener) Unternehmensrechnung ist ein Teilgebiet der Betriebswirtschaftslehre und dient der systematischen Erfassung, Überwachung und informatorischen Verdichtung der durch den betrieblichen Leistungsprozess entstehenden Geld- und Leistungsströme. Zum einen werden Geld- und Güterströme in einem Unternehmen dokumentiert, um gegenüber Außenstehenden Rechenschaft ablegen zu können (externes Rechnungswesen), zum Beispiel gegenüber dem Finanzamt, den Banken oder auch Kostenträgern im Gesundheitswesen. Zum anderen soll das Rechnungswesen dem Unternehmer aber auch die Daten liefern, die zur Steuerung und Planung des Unternehmens notwendig sind (internes Rechnungswesen). In der Schul- und Berufsausbildung mehrerer deutscher Bundesländer wird Rechnungswesen im Fach Kaufmännische Steuerung und Kontrolle (KSK) gelehrt.</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Hauptbuch_Hochstetter_vor_1828.jpg</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Accounting</t>
         </is>
       </c>
     </row>
@@ -6747,28 +6785,28 @@
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Consolidated_financial_statement</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Consolidated financial statements are the "financial statements of a group in which the assets, liabilities, equity, income, expenses and cash flows of the parent company and its subsidiaries are presented as those of a single economic entity", according to International Accounting Standard 27 "Consolidated and separate financial statements", and International Financial Reporting Standard 10 "Consolidated financial statements".</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Ein Konzernabschluss ist ein Jahresabschluss oder Zwischenabschluss eines Konzerns. Indem er die Vermögens-, Finanz- und Ertragslage eines Konzerns darstellt, soll er sowohl den Angehörigen des Konzerns als auch externen Adressaten zur Information und zur Entscheidungsfindung dienen. Zur Erstellung des Konzernabschlusses werden zunächst die Einzelabschlüsse der Konzernunternehmen vereinheitlicht und zu einem Summenabschluss summiert. Anschließend wird dieser durch Konsolidierungsmaßnahmen um die Verflechtungen und wirtschaftlichen Beziehungen zwischen den Konzernunternehmen bereinigt. Nach der Einheitsfiktion, die auch Einheitsgrundsatz genannt wird, ist ein Konzernabschluss so darzustellen, als ob der Konzern ein einheitliches Unternehmen wäre. In einem Konzern kann das Mutterunternehmen auf die zum Konzern gehörenden Tochterunternehmen einen beherrschenden Einfluss ausüben. Dadurch gibt es oft zwischen den Konzernunternehmen Geschäftsbeziehungen, die unabhängige Unternehmen normalerweise nicht eingehen würden. Ihre Geschäftstätigkeit ist in der Regel auf den Konzern ausgerichtet und kann besser im Konzernzusammenhang beurteilt werden. Deshalb haben die Einzelabschlüsse des Mutterunternehmens und der Tochterunternehmen oft eine geringere Aussagekraft als die Einzelabschlüsse von unabhängigen Unternehmen. Die Vermögens-, Finanz- und Ertragslage eines Konzerns kann durch einen Konzernabschluss besser dargestellt werden. Dieser kann auch helfen die Vermögens-, Finanz- und Ertragslage der einzelnen Konzernunternehmen besser zu verstehen. Ob ein Mutterunternehmen einen Konzernabschluss aufzustellen hat, bestimmen nationale Gesetze, Börsenordnungen, sonstige Rechnungslegungsvorschriften oder vertragliche Vereinbarungen. Welche Unternehmen in einen Konzernabschluss einzubeziehen sind (Konsolidierungskreis), wird von den anzuwendenden Rechnungslegungsvorschriften geregelt. Der Umfang des Konzernabschlusses ist je nach Rechnungslegungssystem unterschiedlich. Häufig schreiben die Rechnungslegungsvorschriften vor, dass der Konzernabschluss eine Konzernbilanz, eine Gewinn- und Verlustrechnung oder eine Gesamtergebnisrechnung, einen Konzernanhang, eine Eigenkapitalveränderungsrechnung, auch Eigenkapitalspiegel genannt, und eine Kapitalflussrechnung enthalten soll. Auch eine Segmentberichterstattung kann Teil eines Konzernabschlusses sein (Vgl. ). Ein Konzernabschluss ist in Deutschland und Österreich um einen Konzernlagebericht zu ergänzen. In Deutschland steht die Informationsfunktion des Konzernabschlusses im Vordergrund. Er dient de jure weder der Ausschüttungsbemessung noch als Grundlage für die Ertragsbesteuerung (eine Ausnahme von letzterem bildet die sog. Zinsschranke in § 4h EStG).</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/College_Street_-_Kolkata_7402.jpg</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6885,7 +6923,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Concur_logo.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/DeathofaGentleLady_cover.gif</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr"/>
@@ -7427,28 +7465,28 @@
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Time_and_attendance</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Time and attendance systems (TNA) are used to track and monitor when employees start and stop work. A time and attendance system enables an employer to monitor their employees working hours and late arrivals, early departures, time taken on breaks and absenteeism. It also helps to control labor costs by reducing over-payments, which are often caused by paying employees for time that are not working, and eliminates transcription error, interpretation error and intentional error. TNA systems can also be used to ensure compliance with labor regulations regarding proof of attendance.</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Die Personalzeiterfassung (PZE) ist die Datenerfassung von Arbeitszeiten des Arbeitnehmers durch Erfassungsgeräte und wird innerhalb der Betriebswirtschaft thematisch dem Personalwesen zugeordnet. In Deutschland sind nur Systeme zur Aufzeichnung der Anwesenheit üblich. Die entsprechenden gesetzlichen Bestimmungen sind zum Dienstvertrag im Bürgerlichen Gesetzbuch festgelegt. Weitergehende Vereinbarungen im Arbeitsvertrag sind möglich. Eine weitergehende rechnerische Arbeitszeitermittlung kombiniert mit einer Prüfung der Produktivität ist nicht ohne ausdrückliche Zustimmung der Arbeitnehmer zulässig. Nach EuGH-Urteil vom 14. Mai 2019 müssen alle Mitgliedstaaten der EU die Arbeitgeber verpflichten, die Arbeitszeit ihrer Mitarbeiter genau, objektiv und verlässlich zu erfassen. Bei der Ausgestaltung der Arbeitszeiterfassung haben die nationalen Gesetzgeber laut EuGH dabei einen weiten Entscheidungsspielraum. Einzelheiten hierzu wird die Bundesregierung im nächsten Schritt prüfen.</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Allanah_Starr_2.jpg</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7557,7 +7595,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/NewYorkCitySubwayEntranceInterior.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Access_control_topologies_main_controller_b.png</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr"/>
@@ -7764,7 +7802,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Zahlungsverkehr ist in der Wirtschaft die Gesamtheit aller Zahlungen, also Übertragungen von Zahlungsmitteln zwischen Wirtschaftssubjekten.</t>
+          <t>Als Zahlungsverfahren werden im Zahlungsverkehr alle Formen und Prozesse der Übertragung von Eigentumsrechten an Zahlungsmitteln bezeichnet.</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -8399,28 +8437,24 @@
         </is>
       </c>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Computer_access_control</t>
+        </is>
+      </c>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+          <t>In computer security, general access control includes identification, authorization, authentication, access approval, and audit. A more narrow definition of access control would cover only access approval, whereby the system makes a decision to grant or reject an access request from an already authenticated subject, based on what the subject is authorized to access. Authentication and access control are often combined into a single operation, so that access is approved based on successful authentication, or based on an anonymous access token. Authentication methods and tokens include passwords, biometric scans, physical keys, electronic keys and devices, hidden paths, social barriers, and monitoring by humans and automated systems.</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Meirelles-primeiramissa2.jpg</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -8529,7 +8563,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/ADP_Headquarters.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automatic_Data_Processing_(logo).svg</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr"/>
@@ -9385,7 +9419,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/FlexiblesFertigungssystem.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Xbar_chart_for_a_paired_xbar_and_R_chart.svg</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr"/>
@@ -9603,26 +9637,26 @@
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Software_calculator</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+          <t>A software calculator is a calculator that has been implemented as a computer program, rather than as a physical hardware device. They are among the simpler interactive software tools, and, as such, they provide operations for the user to select one at a time. They can be used to perform any process that consists of a sequence of steps each of which applies one of these operations, and have no purpose other than these processes, because the operations are the sole, or at least the primary, features of the calculator, rather than being secondary features that support other functionality that is not normally known simply as calculation. As a calculator, rather than a computer, they usually have a small set of relatively simple operations, perform short processes that are not compute intensive and do not accept large amounts of input data or produce many results.</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Calculatorwatch.jpg</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Software_calculator</t>
         </is>
       </c>
     </row>
@@ -9844,7 +9878,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Supply-Chain-Management (SCM) ist in Unternehmen der Anglizismus für „innerbetrieblich und entlang der Lieferkette auch zwischenbetrieblich die auf das Gesamtsystem ausgerichtete strategische Koordinierung zwischen den traditionellen Geschäftsfunktionen und den taktischen Entscheidungen zwischen diesen Geschäftsfunktionen mit dem Ziel der Verbesserung der langfristigen Leistungsfähigkeit der einzelnen Unternehmen und der Lieferkette als Ganzes“.</t>
+          <t>Mit Lieferkette (engl. supply chain [səˈplaɪ tʃeɪn]) wird das Netzwerk von Organisationen bezeichnet, die über vor- und nachgelagerte Verbindungen an den verschiedenen Prozessen und Tätigkeiten der Wertschöpfung in Form von Produkten und Dienstleistungen für den Endkunden beteiligt sind. Das Konzept der Lieferkette gehört zum Standardrepertoire der Wirtschaftswissenschaften. Insbesondere ist es Gegenstand des Supply-Chain-Managements (Lieferkettenmanagement). Abzugrenzen ist die Lieferkette von der Wertkette und der Transportkette. Häufig wird eine resiliente Lieferkette angestrebt.</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -9965,7 +9999,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/User-activities.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Relationship_of_data,_information_and_intelligence.png</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -10073,7 +10107,7 @@
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Foodora_messenger.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automated_online_assistant.png</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -10305,7 +10339,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/FlexiblesFertigungssystem.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Xbar_chart_for_a_paired_xbar_and_R_chart.svg</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr"/>
@@ -10521,7 +10555,7 @@
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Foodora_messenger.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automated_online_assistant.png</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
@@ -10629,7 +10663,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/FlexiblesFertigungssystem.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Xbar_chart_for_a_paired_xbar_and_R_chart.svg</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr"/>
@@ -10745,7 +10779,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/FlexiblesFertigungssystem.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Xbar_chart_for_a_paired_xbar_and_R_chart.svg</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr"/>
@@ -10983,7 +11017,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Supply-Chain-Management (SCM) ist in Unternehmen der Anglizismus für „innerbetrieblich und entlang der Lieferkette auch zwischenbetrieblich die auf das Gesamtsystem ausgerichtete strategische Koordinierung zwischen den traditionellen Geschäftsfunktionen und den taktischen Entscheidungen zwischen diesen Geschäftsfunktionen mit dem Ziel der Verbesserung der langfristigen Leistungsfähigkeit der einzelnen Unternehmen und der Lieferkette als Ganzes“.</t>
+          <t>Mit Lieferkette (engl. supply chain [səˈplaɪ tʃeɪn]) wird das Netzwerk von Organisationen bezeichnet, die über vor- und nachgelagerte Verbindungen an den verschiedenen Prozessen und Tätigkeiten der Wertschöpfung in Form von Produkten und Dienstleistungen für den Endkunden beteiligt sind. Das Konzept der Lieferkette gehört zum Standardrepertoire der Wirtschaftswissenschaften. Insbesondere ist es Gegenstand des Supply-Chain-Managements (Lieferkettenmanagement). Abzugrenzen ist die Lieferkette von der Wertkette und der Transportkette. Häufig wird eine resiliente Lieferkette angestrebt.</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -11318,26 +11352,30 @@
         </is>
       </c>
       <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Human_resource_management</t>
+        </is>
+      </c>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Human resource management (HRM or HR) is the strategic approach to the effective and efficient management of people in a company or organization such that they help their business gain a competitive advantage. It is designed to maximize employee performance in service of an employer's strategic objectives. Human resource management is primarily concerned with the management of people within organizations, focusing on policies and systems. HR departments are responsible for overseeing employee-benefits design, employee recruitment, training and development, performance appraisal, and reward management, such as managing pay and . HR also concerns itself with organizational change and industrial relations, or the balancing of organizational practices with requirements arising from collective bargaining and governmental laws. The overall purpose of human resources (HR) is to ensure that the organization is able to achieve success through people. HR professionals manage the human capital of an organization and focus on implementing policies and processes. They can specialize in finding, recruiting, selecting, training, and developing employees, as well as maintaining employee relations or benefits. Training and development professionals ensure that employees are trained and have continuous development. This is done through training programs, performance evaluations, and reward programs. Employee relations deals with the concerns of employees when policies are broken, such as cases involving harassment or discrimination. Managing employee benefits includes developing compensation structures, parental leave programs, discounts, and other benefits for employees. On the other side of the field are HR generalists or business partners. These HR professionals could work in all areas or be labour relations representatives working with unionized employees. HR is a product of the human relations movement of the early 20th Century, when researchers began documenting ways of creating business value through the strategic management of the workforce. It was initially dominated by transactional work, such as payroll and benefits administration, but due to globalization, company consolidation, technological advances, and further research, HR as of 2015 focuses on strategic initiatives like mergers and acquisitions, talent management, succession planning, industrial and labor relations, and diversity and inclusion. In the current global work environment, most companies focus on lowering employee turnover and on retaining the talent and knowledge held by their workforce. New hiring not only entails a high cost but also increases the risk of a new employee not being able to adequately replace the position of the previous employee. HR departments strive to offer benefits that will appeal to workers, thus reducing the risk of losing employee commitment and psychological ownership.</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Personalwesen (auch Personalwirtschaft, Personalmanagement, englisch Human Resource Management, Abkürzung HRM, oder Workforce Management) bezeichnet den Bereich der Betriebswirtschaft, der sich mit dem Produktionsfaktor Arbeit und mit dem Personal auseinandersetzt. Das Personalwesen ist eine in allen Organisationen vorhandene Funktion, deren Kernaufgaben die Bereitstellung und der zielorientierte Personaleinsatz sind. In der Personalpraxis beziehen viele Unternehmen außer den Führungsprozessen auch die Interaktion und Emotion des Personals ein. Modernes Personalmanagement zielt – unter Einbeziehung von Aspekten der Sozial- und Umweltverträglichkeit – auf nachhaltigen Erfolg ab. Dazu werden die Erkenntnisse, Methoden und Instrumente des Qualitätsmanagements (TQM, EFQM) und der Corporate Governance angewandt. Vom Personalmanagement wird heute ein Beitrag zur Werterhaltung und Wertschöpfung auf lange Sicht erwartet. Dafür müssen sowohl die Bedürfnisse aller Stakeholder berücksichtigt werden. Um Unternehmensziele zu erreichen, bedarf es zielorientierter Maßnahmen und Ressourcenplanung im Personalbereich und einer geeigneten Unternehmenskultur. Die konkrete Ausgestaltung der einzelnen Bereiche im individuellen Unternehmen wird auch Personalpolitik genannt. Im Rahmen der Unternehmenspolitik werden somit das Verhalten und die Handlungsweise zur Erreichung der betrieblichen Ziele bestimmt. Zum Teil werden derartige Bestimmungen in einem Unternehmensleitbild festgeschrieben oder mittels Arbeitsanweisungen vorgegeben. Während der englische Begriff des Workforce Management eine eher begrenzte und instrumentelle Sicht auf das Personalwesen darstellt, also den Mitarbeiter als Instrument der Realisierung der Unternehmensziele betrachtet, impliziert der Begriff des Human Resource Management eine breitere Sichtweise, die auch Aspekte der Personalentwicklung einschließt, also die Mitarbeiter als Ressourcen oder wichtige Assets des Unternehmens begreift.</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Carillon_of_PeterAndPaulCathedral_1.jpg</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Human_resource_management</t>
         </is>
       </c>
     </row>
@@ -11567,7 +11605,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Wheelock_mt2.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Fire_alarm001.jpg</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr"/>
@@ -11963,7 +12001,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/RoboLogix_Work_Envelope.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/FANUC_6-axis_welding_robots.jpg</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
@@ -12079,7 +12117,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Ka-gr-ho_ps4_cmyk_blu-gra.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/USMC-110408-M-0151S-001.jpg</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr"/>
@@ -12169,28 +12207,28 @@
         </is>
       </c>
       <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Warehouse_management_system</t>
+        </is>
+      </c>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>A warehouse management system (WMS) is a software application designed to support and optimize warehouse functionality and distribution center management. These systems facilitate management in using simplified automatic technologies useful in daily activities like planning, organizing, staffing, directing, warehousekeeping and controlling the utilization of available resources, to move and store materials inside, around and outside of a warehouse, while supporting staff in the performance of material movement and storage in and around a warehouse, without causing any large scale disruption to business resources.</t>
         </is>
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Lagerverwaltungssysteme (LVS; englisch Warehouse management systems, WMS) sind softwarebasierte Systeme für die unternehmerische Verwaltung von Warenlagern und Distributionszentren. Mit Lagerverwaltungssoftware, Logistiksoftware, Intralogistiksoftware oder auch Warehouse-Management-Systemen kann der komplette innerbetriebliche Materialfluss abgebildet werden. Als innerbetrieblicher Materialfluss werden alle in einem Unternehmen durchgeführten Warenbewegungen bezeichnet. Dazu zählen Prozesse des Wareneingangs, Einlagerung, Umlagerungen, Auslagerungen und Versand. Dabei wird zwischen dem Materialfluss und dem Informationsfluss unterschieden. Bei dem Materialfluss geht es um die physische Vereinnahmung des Materials im Lager. Die Lagerprozesse werden vom Informationsfluss begleitet. Dieser sorgt während des Transports für Datensicherheit und Bestandstransparenz.</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="Z106" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/X-Acto-knife.jpg</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -12407,7 +12445,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Werkzeugdaten-Fuegebedingungen.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Tool-Components-(inserts).jpg</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr"/>
@@ -12605,26 +12643,30 @@
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Adobe_Audition</t>
+        </is>
+      </c>
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adobe Audition is a digital audio workstation developed by Adobe Inc. featuring both a multitrack, non-destructive mix/edit environment and a destructive-approach waveform editing view.</t>
         </is>
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Adobe Audition [əˌdoʊbi ɔːˈdɪʃn] (früher Cool Edit Pro) ist eine professionelle Audioeditor-Software des Unternehmens Adobe Inc. zum Bearbeiten von digitalen Audiodateien. Es beherrscht sowohl die direkte als auch die indirekte Bearbeitung von Tonmaterial (destruktive und nicht-destruktive Bearbeitung). Dateien können aus vielen unterschiedlichen Quellen geöffnet bzw. aufgenommen werden und in allen allgemeinen Formaten abgespeichert werden. Bis zur Version 3.0 bietet Adobe Audition einen MIDI-Sequenzer und ReWire Technologie (Propellerhead Software) zur Einbindung von Drittsoftware. Seit der Version CS5.5 (Version 4.0) war Adobe Audition Bestandteil des Programmpakets der Adobe Creative Suite und ist erstmals auch für OS X erschienen. Mit Version 6.0 wird das Programm als Adobe Audition CC im monatlichen Einzelabonnement sowie im Abonnement der Adobe Creative Cloud angeboten.</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_Audition_CC_Screenshot.png</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Digital_audio_workstation</t>
         </is>
       </c>
     </row>
@@ -12735,7 +12777,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/BeaconMedaes_oxygen,_vacuum,_and_medical_air_medical_gas_supply_outlets_on_a_ceiling_at_Campbell_County_Memorial_Hospital_in_Gillette,_Wyoming.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Atlas-Copco-Logo.svg</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr"/>
@@ -13491,7 +13533,7 @@
       <c r="X118" t="inlineStr"/>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/CGTech_Logo.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Vericut_Screenshot_Software.png</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr"/>
@@ -13598,7 +13640,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>Supply-Chain-Management (SCM) ist in Unternehmen der Anglizismus für „innerbetrieblich und entlang der Lieferkette auch zwischenbetrieblich die auf das Gesamtsystem ausgerichtete strategische Koordinierung zwischen den traditionellen Geschäftsfunktionen und den taktischen Entscheidungen zwischen diesen Geschäftsfunktionen mit dem Ziel der Verbesserung der langfristigen Leistungsfähigkeit der einzelnen Unternehmen und der Lieferkette als Ganzes“.</t>
+          <t>Mit Lieferkette (engl. supply chain [səˈplaɪ tʃeɪn]) wird das Netzwerk von Organisationen bezeichnet, die über vor- und nachgelagerte Verbindungen an den verschiedenen Prozessen und Tätigkeiten der Wertschöpfung in Form von Produkten und Dienstleistungen für den Endkunden beteiligt sind. Das Konzept der Lieferkette gehört zum Standardrepertoire der Wirtschaftswissenschaften. Insbesondere ist es Gegenstand des Supply-Chain-Managements (Lieferkettenmanagement). Abzugrenzen ist die Lieferkette von der Wertkette und der Transportkette. Häufig wird eine resiliente Lieferkette angestrebt.</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -13921,26 +13963,30 @@
         </is>
       </c>
       <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Computer-aided_manufacturing</t>
+        </is>
+      </c>
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Computer-aided manufacturing (CAM) also known as Computer-aided Modeling or Computer-aided Machining is the use of software to control machine tools and related ones in the manufacturing of work pieces. This is not the only definition for CAM, but it is the most common; CAM may also refer to the use of a computer to assist in all operations of a manufacturing plant, including planning, management, transportation and storage. Its primary purpose is to create a faster production process and components and tooling with more precise dimensions and material consistency, which in some cases, uses only the required amount of raw material (thus minimizing waste), while simultaneously reducing energy consumption.CAM is now a system used in schools and lower educational purposes.CAM is a subsequent computer-aided process after computer-aided design (CAD) and sometimes computer-aided engineering (CAE), as the model generated in CAD and verified in CAE can be input into CAM software, which then controls the machine tool. CAM is used in many schools alongside Computer-Aided Design (CAD) to create objects.</t>
         </is>
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Computer-aided manufacturing (CAM, dt. rechnerunterstützte Fertigung) bezeichnet die Verwendung einer von der CNC-Maschine unabhängigen Software zur Erstellung des NC-Codes und ist ein Teilaspekt der Fertigungstechnik bzw. Arbeitsvorbereitung (in Unternehmen). Mittels des NC-Codes werden beispielsweise spanabhebende Maschinen oder 3D-Drucker angesteuert. Im Unterschied zur Erstellung des NC-Codes in der Werkstatt (WOP), wird mit dem CAM-System das NC-Programm bereits in der Arbeitsvorbereitung erstellt. CAM ist ein wesentlicher Bestandteil der computerintegrierten Produktion CIM (Computer-integrated manufacturing).</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/CAD_model_and_CNC_machined_part.png</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Computer-aided_manufacturing</t>
         </is>
       </c>
     </row>
@@ -14059,7 +14105,7 @@
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Statistical_analysis</t>
+          <t>http://dbpedia.org/resource/Statistical_inference</t>
         </is>
       </c>
     </row>
@@ -14274,7 +14320,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Philosophical_Transactions_Volume_1_frontispiece.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr">
@@ -14944,26 +14990,30 @@
       </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Computer-aided_design</t>
+        </is>
+      </c>
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Computer-aided design (CAD) is the use of computers (or workstations) to aid in the creation, modification, analysis, or optimization of a design. CAD software is used to increase the productivity of the designer, improve the quality of design, improve communications through documentation, and to create a database for manufacturing. Designs made through CAD software are helpful in protecting products and inventions when used in patent applications. CAD output is often in the form of electronic files for print, machining, or other manufacturing operations. The term CADD (for computer aided design and drafting) is also used. Its use in designing electronic systems is known as electronic design automation (EDA). In mechanical design it is known as mechanical design automation (MDA) or computer-aided drafting (CAD), which includes the process of creating a technical drawing with the use of computer software. CAD software for mechanical design uses either vector-based graphics to depict the objects of traditional drafting, or may also produce raster graphics showing the overall appearance of designed objects. However, it involves more than just shapes. As in the manual drafting of technical and engineering drawings, the output of CAD must convey information, such as materials, processes, dimensions, and tolerances, according to application-specific conventions. CAD may be used to design curves and figures in two-dimensional (2D) space; or curves, surfaces, and solids in three-dimensional (3D) space. CAD is an important industrial art extensively used in many applications, including automotive, shipbuilding, and aerospace industries, industrial and architectural design, prosthetics, and many more. CAD is also widely used to produce computer animation for special effects in movies, advertising and technical manuals, often called DCC digital content creation. The modern ubiquity and power of computers means that even perfume bottles and shampoo dispensers are designed using techniques unheard of by engineers of the 1960s. Because of its enormous economic importance, CAD has been a major driving force for research in computational geometry, computer graphics (both hardware and software), and discrete differential geometry. The design of geometric models for object shapes, in particular, is occasionally called computer-aided geometric design (CAGD).</t>
         </is>
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>CAD (von engl. computer-aided design [kɔmˈpjuːtɐ ˈeɪdɪd dɪˈzaɪn], zu Deutsch rechnerunterstütztes Konstruieren) bezeichnet die Unterstützung von konstruktiven Aufgaben mittels EDV zur Herstellung eines Produkts (Beispielsweise Auto, Flugzeug, Bauwerk, Kleidung). Welche Tätigkeiten unter den Begriff CAD fallen, wird in der Literatur verschieden behandelt. In einem engeren Sinn versteht man unter CAD das rechnerunterstützte Erzeugen und Ändern des geometrischen Modells. In einem weiteren Sinn versteht man darunter sämtliche rechnerunterstützten Tätigkeiten in einem Konstruktionsprozess, einschließlich der geometrischen Modellierung, des Berechnens, des Simulierens und sonstiger Informationsgewinnung und Informationsbereitstellung, von der Konzeptentwicklung bis zur Übergabe an die Herstellung bzw. Fertigung (Arbeitsvorbereitung). Verwendete man anfangs CAD-Anwendungen primär für die Herstellung von Fertigungs- bzw. Herstellungsunterlagen (Marketingbezeichnung: CAD als computer aided drafting/draughting), wurden mit zunehmender Rechnerleistung CAD-Systeme mit komplexen Expertensystemen und integrierten FEM-Lösungen für den Entwurf und die Konstruktion technischer Lösungen verfügbar, wobei die Objekte von vornherein als dreidimensionale Körper behandelt werden (dreidimensionales CAD). Allenfalls erforderliche Technische Zeichnungen lassen sich aus den virtuellen Modellen dreidimensionaler Objekte automatisch herstellen. Ein besonderer Vorteil des 3D-CAD ist die Möglichkeit, von den Objekten eine Abbildung aus beliebiger Richtung zu erzeugen. Der 3D-Drucker ermöglicht den auch im Hobbybereich angewendeten Übergang vom virtuellen Modell zum realen Objekt. Zusammen mit den erfassbaren Materialeigenschaften werden erweiterte CAD-Modelle zur Beschreibung der physikalischen Eigenschaften (zum Beispiel Festigkeit, Elastizität) der Objekte erstellt. CAD ist ein Teil der sogenannten CAx-Technologien, zu denen auch die computerunterstützte Fertigung zählt (Computer-aided manufacturing, CAM) oder die computerunterstützte Qualitätssicherung (Computer-aided quality, CAQ). Genutzt wird CAD in fast allen Zweigen der Technik: Architektur, Bauingenieurwesen, Maschinenbau, Elektrotechnik und all deren Fachrichtungen und gegenseitige Kombinationen bis hin zur Zahntechnik.</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
       </c>
     </row>
@@ -15052,26 +15102,30 @@
       </c>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Computer-aided_design</t>
+        </is>
+      </c>
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Computer-aided design (CAD) is the use of computers (or workstations) to aid in the creation, modification, analysis, or optimization of a design. CAD software is used to increase the productivity of the designer, improve the quality of design, improve communications through documentation, and to create a database for manufacturing. Designs made through CAD software are helpful in protecting products and inventions when used in patent applications. CAD output is often in the form of electronic files for print, machining, or other manufacturing operations. The term CADD (for computer aided design and drafting) is also used. Its use in designing electronic systems is known as electronic design automation (EDA). In mechanical design it is known as mechanical design automation (MDA) or computer-aided drafting (CAD), which includes the process of creating a technical drawing with the use of computer software. CAD software for mechanical design uses either vector-based graphics to depict the objects of traditional drafting, or may also produce raster graphics showing the overall appearance of designed objects. However, it involves more than just shapes. As in the manual drafting of technical and engineering drawings, the output of CAD must convey information, such as materials, processes, dimensions, and tolerances, according to application-specific conventions. CAD may be used to design curves and figures in two-dimensional (2D) space; or curves, surfaces, and solids in three-dimensional (3D) space. CAD is an important industrial art extensively used in many applications, including automotive, shipbuilding, and aerospace industries, industrial and architectural design, prosthetics, and many more. CAD is also widely used to produce computer animation for special effects in movies, advertising and technical manuals, often called DCC digital content creation. The modern ubiquity and power of computers means that even perfume bottles and shampoo dispensers are designed using techniques unheard of by engineers of the 1960s. Because of its enormous economic importance, CAD has been a major driving force for research in computational geometry, computer graphics (both hardware and software), and discrete differential geometry. The design of geometric models for object shapes, in particular, is occasionally called computer-aided geometric design (CAGD).</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>CAD (von engl. computer-aided design [kɔmˈpjuːtɐ ˈeɪdɪd dɪˈzaɪn], zu Deutsch rechnerunterstütztes Konstruieren) bezeichnet die Unterstützung von konstruktiven Aufgaben mittels EDV zur Herstellung eines Produkts (Beispielsweise Auto, Flugzeug, Bauwerk, Kleidung). Welche Tätigkeiten unter den Begriff CAD fallen, wird in der Literatur verschieden behandelt. In einem engeren Sinn versteht man unter CAD das rechnerunterstützte Erzeugen und Ändern des geometrischen Modells. In einem weiteren Sinn versteht man darunter sämtliche rechnerunterstützten Tätigkeiten in einem Konstruktionsprozess, einschließlich der geometrischen Modellierung, des Berechnens, des Simulierens und sonstiger Informationsgewinnung und Informationsbereitstellung, von der Konzeptentwicklung bis zur Übergabe an die Herstellung bzw. Fertigung (Arbeitsvorbereitung). Verwendete man anfangs CAD-Anwendungen primär für die Herstellung von Fertigungs- bzw. Herstellungsunterlagen (Marketingbezeichnung: CAD als computer aided drafting/draughting), wurden mit zunehmender Rechnerleistung CAD-Systeme mit komplexen Expertensystemen und integrierten FEM-Lösungen für den Entwurf und die Konstruktion technischer Lösungen verfügbar, wobei die Objekte von vornherein als dreidimensionale Körper behandelt werden (dreidimensionales CAD). Allenfalls erforderliche Technische Zeichnungen lassen sich aus den virtuellen Modellen dreidimensionaler Objekte automatisch herstellen. Ein besonderer Vorteil des 3D-CAD ist die Möglichkeit, von den Objekten eine Abbildung aus beliebiger Richtung zu erzeugen. Der 3D-Drucker ermöglicht den auch im Hobbybereich angewendeten Übergang vom virtuellen Modell zum realen Objekt. Zusammen mit den erfassbaren Materialeigenschaften werden erweiterte CAD-Modelle zur Beschreibung der physikalischen Eigenschaften (zum Beispiel Festigkeit, Elastizität) der Objekte erstellt. CAD ist ein Teil der sogenannten CAx-Technologien, zu denen auch die computerunterstützte Fertigung zählt (Computer-aided manufacturing, CAM) oder die computerunterstützte Qualitätssicherung (Computer-aided quality, CAQ). Genutzt wird CAD in fast allen Zweigen der Technik: Architektur, Bauingenieurwesen, Maschinenbau, Elektrotechnik und all deren Fachrichtungen und gegenseitige Kombinationen bis hin zur Zahntechnik.</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
       </c>
     </row>
@@ -15156,26 +15210,30 @@
         </is>
       </c>
       <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Computer-aided_design</t>
+        </is>
+      </c>
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Computer-aided design (CAD) is the use of computers (or workstations) to aid in the creation, modification, analysis, or optimization of a design. CAD software is used to increase the productivity of the designer, improve the quality of design, improve communications through documentation, and to create a database for manufacturing. Designs made through CAD software are helpful in protecting products and inventions when used in patent applications. CAD output is often in the form of electronic files for print, machining, or other manufacturing operations. The term CADD (for computer aided design and drafting) is also used. Its use in designing electronic systems is known as electronic design automation (EDA). In mechanical design it is known as mechanical design automation (MDA) or computer-aided drafting (CAD), which includes the process of creating a technical drawing with the use of computer software. CAD software for mechanical design uses either vector-based graphics to depict the objects of traditional drafting, or may also produce raster graphics showing the overall appearance of designed objects. However, it involves more than just shapes. As in the manual drafting of technical and engineering drawings, the output of CAD must convey information, such as materials, processes, dimensions, and tolerances, according to application-specific conventions. CAD may be used to design curves and figures in two-dimensional (2D) space; or curves, surfaces, and solids in three-dimensional (3D) space. CAD is an important industrial art extensively used in many applications, including automotive, shipbuilding, and aerospace industries, industrial and architectural design, prosthetics, and many more. CAD is also widely used to produce computer animation for special effects in movies, advertising and technical manuals, often called DCC digital content creation. The modern ubiquity and power of computers means that even perfume bottles and shampoo dispensers are designed using techniques unheard of by engineers of the 1960s. Because of its enormous economic importance, CAD has been a major driving force for research in computational geometry, computer graphics (both hardware and software), and discrete differential geometry. The design of geometric models for object shapes, in particular, is occasionally called computer-aided geometric design (CAGD).</t>
         </is>
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>CAD (von engl. computer-aided design [kɔmˈpjuːtɐ ˈeɪdɪd dɪˈzaɪn], zu Deutsch rechnerunterstütztes Konstruieren) bezeichnet die Unterstützung von konstruktiven Aufgaben mittels EDV zur Herstellung eines Produkts (Beispielsweise Auto, Flugzeug, Bauwerk, Kleidung). Welche Tätigkeiten unter den Begriff CAD fallen, wird in der Literatur verschieden behandelt. In einem engeren Sinn versteht man unter CAD das rechnerunterstützte Erzeugen und Ändern des geometrischen Modells. In einem weiteren Sinn versteht man darunter sämtliche rechnerunterstützten Tätigkeiten in einem Konstruktionsprozess, einschließlich der geometrischen Modellierung, des Berechnens, des Simulierens und sonstiger Informationsgewinnung und Informationsbereitstellung, von der Konzeptentwicklung bis zur Übergabe an die Herstellung bzw. Fertigung (Arbeitsvorbereitung). Verwendete man anfangs CAD-Anwendungen primär für die Herstellung von Fertigungs- bzw. Herstellungsunterlagen (Marketingbezeichnung: CAD als computer aided drafting/draughting), wurden mit zunehmender Rechnerleistung CAD-Systeme mit komplexen Expertensystemen und integrierten FEM-Lösungen für den Entwurf und die Konstruktion technischer Lösungen verfügbar, wobei die Objekte von vornherein als dreidimensionale Körper behandelt werden (dreidimensionales CAD). Allenfalls erforderliche Technische Zeichnungen lassen sich aus den virtuellen Modellen dreidimensionaler Objekte automatisch herstellen. Ein besonderer Vorteil des 3D-CAD ist die Möglichkeit, von den Objekten eine Abbildung aus beliebiger Richtung zu erzeugen. Der 3D-Drucker ermöglicht den auch im Hobbybereich angewendeten Übergang vom virtuellen Modell zum realen Objekt. Zusammen mit den erfassbaren Materialeigenschaften werden erweiterte CAD-Modelle zur Beschreibung der physikalischen Eigenschaften (zum Beispiel Festigkeit, Elastizität) der Objekte erstellt. CAD ist ein Teil der sogenannten CAx-Technologien, zu denen auch die computerunterstützte Fertigung zählt (Computer-aided manufacturing, CAM) oder die computerunterstützte Qualitätssicherung (Computer-aided quality, CAQ). Genutzt wird CAD in fast allen Zweigen der Technik: Architektur, Bauingenieurwesen, Maschinenbau, Elektrotechnik und all deren Fachrichtungen und gegenseitige Kombinationen bis hin zur Zahntechnik.</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
       </c>
     </row>
@@ -15286,7 +15344,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Philosophical_Transactions_Volume_1_frontispiece.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
@@ -15398,7 +15456,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Philosophical_Transactions_Volume_1_frontispiece.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
@@ -15954,7 +16012,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Four-Level-Pyramid-model.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/IS-Relationships-Chart.jpg</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr"/>
@@ -16136,26 +16194,30 @@
       </c>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Computer-aided_engineering</t>
+        </is>
+      </c>
       <c r="V142" t="inlineStr"/>
       <c r="W142" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Computer-aided engineering (CAE) is the broad usage of computer software to aid in engineering analysis tasks. It includes finite element analysis (FEA), computational fluid dynamics (CFD), multibody dynamics (MBD), durability and optimization. It is included with computer-aided design (CAD) and computer-aided manufacturing (CAM) in the collective abbreviation "CAx".</t>
         </is>
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Die rechnergestützte Entwicklung (englisch computer-aided engineering und kurz CAE genannt) umfasst alle Varianten der Rechner-Unterstützung von Arbeitsprozessen in der Technik.</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Plasticity.jpg</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
         </is>
       </c>
     </row>
@@ -16587,7 +16649,7 @@
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Mathematical_model</t>
+          <t>http://dbpedia.org/resource/Computer_simulation</t>
         </is>
       </c>
     </row>
@@ -16786,7 +16848,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Detail_Autocad.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Man_using_AutoCAD_(1987).jpg</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
@@ -16898,12 +16960,12 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C4dwindow.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C4D_Logo.png</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Benchmark_(computing)</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17068,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Mathcad31.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/historical_MC15.jpg</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
@@ -17227,7 +17289,7 @@
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>Computer Aided Engineering (CAE) software</t>
+          <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
         </is>
       </c>
     </row>
@@ -17326,7 +17388,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Carton_Conveyor.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Prorunner_mk2_goederenlift.jpg</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr"/>
@@ -17422,7 +17484,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Workmaster.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/016_Coca-Cola_vending_machine_at_Kyoto_Station,_Japan_-_コカコーラ_自動販売機.jpg</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
@@ -17538,12 +17600,12 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Herculesc130.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/SketchUp_Logo_2020.svg</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>http://dbpedia.org/resource/3D_computer_graphics</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17708,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Philosophical_Transactions_Volume_1_frontispiece.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
@@ -17754,12 +17816,12 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Swstapler00.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Fc_etzella.png</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Computer-aided_design</t>
+          <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
         </is>
       </c>
     </row>
@@ -17861,7 +17923,7 @@
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Simulation</t>
+          <t>http://dbpedia.org/resource/Systems_design</t>
         </is>
       </c>
     </row>
@@ -17972,7 +18034,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Detail_Autocad.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Man_using_AutoCAD_(1987).jpg</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
@@ -18050,26 +18112,30 @@
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr"/>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Computer-aided_design</t>
+        </is>
+      </c>
       <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Computer-aided design (CAD) is the use of computers (or workstations) to aid in the creation, modification, analysis, or optimization of a design. CAD software is used to increase the productivity of the designer, improve the quality of design, improve communications through documentation, and to create a database for manufacturing. Designs made through CAD software are helpful in protecting products and inventions when used in patent applications. CAD output is often in the form of electronic files for print, machining, or other manufacturing operations. The term CADD (for computer aided design and drafting) is also used. Its use in designing electronic systems is known as electronic design automation (EDA). In mechanical design it is known as mechanical design automation (MDA) or computer-aided drafting (CAD), which includes the process of creating a technical drawing with the use of computer software. CAD software for mechanical design uses either vector-based graphics to depict the objects of traditional drafting, or may also produce raster graphics showing the overall appearance of designed objects. However, it involves more than just shapes. As in the manual drafting of technical and engineering drawings, the output of CAD must convey information, such as materials, processes, dimensions, and tolerances, according to application-specific conventions. CAD may be used to design curves and figures in two-dimensional (2D) space; or curves, surfaces, and solids in three-dimensional (3D) space. CAD is an important industrial art extensively used in many applications, including automotive, shipbuilding, and aerospace industries, industrial and architectural design, prosthetics, and many more. CAD is also widely used to produce computer animation for special effects in movies, advertising and technical manuals, often called DCC digital content creation. The modern ubiquity and power of computers means that even perfume bottles and shampoo dispensers are designed using techniques unheard of by engineers of the 1960s. Because of its enormous economic importance, CAD has been a major driving force for research in computational geometry, computer graphics (both hardware and software), and discrete differential geometry. The design of geometric models for object shapes, in particular, is occasionally called computer-aided geometric design (CAGD).</t>
         </is>
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>CAD (von engl. computer-aided design [kɔmˈpjuːtɐ ˈeɪdɪd dɪˈzaɪn], zu Deutsch rechnerunterstütztes Konstruieren) bezeichnet die Unterstützung von konstruktiven Aufgaben mittels EDV zur Herstellung eines Produkts (Beispielsweise Auto, Flugzeug, Bauwerk, Kleidung). Welche Tätigkeiten unter den Begriff CAD fallen, wird in der Literatur verschieden behandelt. In einem engeren Sinn versteht man unter CAD das rechnerunterstützte Erzeugen und Ändern des geometrischen Modells. In einem weiteren Sinn versteht man darunter sämtliche rechnerunterstützten Tätigkeiten in einem Konstruktionsprozess, einschließlich der geometrischen Modellierung, des Berechnens, des Simulierens und sonstiger Informationsgewinnung und Informationsbereitstellung, von der Konzeptentwicklung bis zur Übergabe an die Herstellung bzw. Fertigung (Arbeitsvorbereitung). Verwendete man anfangs CAD-Anwendungen primär für die Herstellung von Fertigungs- bzw. Herstellungsunterlagen (Marketingbezeichnung: CAD als computer aided drafting/draughting), wurden mit zunehmender Rechnerleistung CAD-Systeme mit komplexen Expertensystemen und integrierten FEM-Lösungen für den Entwurf und die Konstruktion technischer Lösungen verfügbar, wobei die Objekte von vornherein als dreidimensionale Körper behandelt werden (dreidimensionales CAD). Allenfalls erforderliche Technische Zeichnungen lassen sich aus den virtuellen Modellen dreidimensionaler Objekte automatisch herstellen. Ein besonderer Vorteil des 3D-CAD ist die Möglichkeit, von den Objekten eine Abbildung aus beliebiger Richtung zu erzeugen. Der 3D-Drucker ermöglicht den auch im Hobbybereich angewendeten Übergang vom virtuellen Modell zum realen Objekt. Zusammen mit den erfassbaren Materialeigenschaften werden erweiterte CAD-Modelle zur Beschreibung der physikalischen Eigenschaften (zum Beispiel Festigkeit, Elastizität) der Objekte erstellt. CAD ist ein Teil der sogenannten CAx-Technologien, zu denen auch die computerunterstützte Fertigung zählt (Computer-aided manufacturing, CAM) oder die computerunterstützte Qualitätssicherung (Computer-aided quality, CAQ). Genutzt wird CAD in fast allen Zweigen der Technik: Architektur, Bauingenieurwesen, Maschinenbau, Elektrotechnik und all deren Fachrichtungen und gegenseitige Kombinationen bis hin zur Zahntechnik.</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
       </c>
     </row>
@@ -18280,7 +18346,7 @@
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Mathematical_model</t>
+          <t>http://dbpedia.org/resource/Computer_simulation</t>
         </is>
       </c>
     </row>
@@ -18487,7 +18553,7 @@
       <c r="X164" t="inlineStr"/>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Ahmed_Ibrahim_Lawan_(cropped).jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Autodesk_Simulation_Mechanical_2014.png</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
@@ -18591,7 +18657,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Truss_Structure_Analysis,_Method_of_Joints2.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Truss_Structure_Analysis,_Full_Figure2.jpg</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
@@ -18699,12 +18765,12 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Rhinoceros3d-logo.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Robot_image_created_in_Rhinoceros_3D_and_rendered_in_Flamingo.jpg</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Computer-aided_design</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -18807,7 +18873,7 @@
       <c r="X167" t="inlineStr"/>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Gcalctool-basic.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Calculatorwatch.jpg</t>
         </is>
       </c>
       <c r="Z167" t="inlineStr">
@@ -19142,12 +19208,12 @@
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/arcadia_word.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Revit_2014_branding.png</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Building_information_modeling</t>
+          <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
       </c>
     </row>
@@ -19250,7 +19316,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Tom_Bell's_graph_showing_extension_of_U.S._copyright_term_over_time.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/GlamCamp_NY_Kippelboy_nina_Paley_(2).jpg</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
@@ -19469,28 +19535,28 @@
         </is>
       </c>
       <c r="T173" t="inlineStr"/>
-      <c r="U173" t="inlineStr"/>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>https://dbpedia.org/data/Measurement</t>
+        </is>
+      </c>
       <c r="V173" t="inlineStr"/>
       <c r="W173" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Measurement is the quantification of attributes of an object or event, which can be used to compare with other objects or events. The scope and application of measurement are dependent on the context and discipline. In natural sciences and engineering, measurements do not apply to nominal properties of objects or events, which is consistent with the guidelines of the International vocabulary of metrology published by the International Bureau of Weights and Measures. However, in other fields such as statistics as well as the social and behavioural sciences, measurements can have multiple levels, which would include nominal, ordinal, interval and ratio scales. Measurement is a cornerstone of trade, science, technology and quantitative research in many disciplines. Historically, many measurement systems existed for the varied fields of human existence to facilitate comparisons in these fields. Often these were achieved by local agreements between trading partners or collaborators. Since the 18th century, developments progressed towards unifying, widely accepted standards that resulted in the modern International System of Units (SI). This system reduces all physical measurements to a mathematical combination of seven base units. The science of measurement is pursued in the field of metrology.</t>
         </is>
       </c>
       <c r="X173" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Eine Messung ist der experimentelle Vorgang, durch den ein spezieller Wert einer physikalischen Größe als Vielfaches einer Einheit oder eines Bezugswertes ermittelt wird. Die Messung ergibt zunächst einen Messwert. Dieser stimmt aber mit dem wahren Wert der Messgröße nicht überein, sondern weist eine gewisse Messabweichung auf. Zum vollständigen Messergebnis wird der Messwert, wenn er mit quantitativen Aussagen zur Genauigkeit ergänzt wird. Dies wird in der Messtechnik als Teil der Messaufgabe und damit der Messung verstanden. Die meisten physikalischen Größen können nicht direkt gemessen werden. Stattdessen werden mit dafür geeigneten Messgeräten eine oder mehrere andere Größen gemessen, die dann einen Rückschluss auf die eigentliche Messgröße zulassen. So messen beispielsweise die meisten Waagen nicht tatsächlich die Masse eines Körpers, sondern dessen Gewichtskraft im Schwerefeld der Erde. Trotzdem wird eine Masse in der entsprechenden Einheit (z. B. in Kilogramm) angezeigt. Mit den theoretischen Grundlagen und der praktischen Umsetzung von Messungen befassen sich die Metrologie und die Messtechnik. Der dort geprägte Begriff „Messung“ wird auch auf andere Gebiete übertragen, wobei er allerdings mit einem anderen Sinn belegt wird. Beispielsweise scheitert eine Übertragung dieser Messvorstellung auf die Sozialwissenschaften daran, dass Maßeinheiten in diesem Sinne in den Sozialwissenschaften bislang fehlen.</t>
         </is>
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="Z173" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MetricImperialUSCustomaryUnits.jpg</t>
+        </is>
+      </c>
+      <c r="Z173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -19720,7 +19786,7 @@
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Discrete_event_simulation</t>
+          <t>http://dbpedia.org/resource/Discrete-event_simulation</t>
         </is>
       </c>
     </row>
@@ -19939,7 +20005,7 @@
       <c r="X177" t="inlineStr"/>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Experience_curiosity1.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Dunkerque_3d.jpeg</t>
         </is>
       </c>
       <c r="Z177" t="inlineStr">
@@ -20163,7 +20229,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/BMA_Automation_Allen_Bradley_PLC_3.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Control-panel.jpg</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr"/>
@@ -20379,7 +20445,7 @@
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Dawn_of_the_Dead_2004_movie.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Håkon_Wium_Lie.jpg</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr"/>
@@ -20792,7 +20858,7 @@
       </c>
       <c r="Z185" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Signal_processing</t>
+          <t>http://dbpedia.org/resource/Test_automation</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z187"/>
+  <dimension ref="A1:AB187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,10 +551,20 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>Abstract_it</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Abstract_fr</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>Picture</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Genre</t>
         </is>
@@ -663,10 +673,25 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>L'applicazione SAP ERP è un sistema Enterprise Resource Planning (ERP prodotto dalla SAP AG.</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>SAP (en anglais : Systems, Applications and Products for data processing et en allemand : Systeme, Anwendungen und Produkte in der Datenverarbeitung) est par abus de langage le nom utilisé pour désigner un progiciel de gestion intégré développé et commercialisé par l'éditeur de ce produit (SAP AG). Le nom exact du progiciel a été plusieurs fois modifié au fur et à mesure de l'évolution des versions et des plateformes technologiques : 
+* R/1 puis R/2 (architecture mainframe) ; 
+* R/3 (apparition de l'architecture client-serveur, versions 2.1 à 4.6C) ; 
+* R/3 Entreprise (dit aussi version 4.70) ; 
+* ECC ou ERP Central Component (versions 5.0 puis 6.0) ; 
+* S/4 HANA (à partir de 2015). Cette version se décline en une version en mode SaaS : . En parallèle de l'évolution du produit, la société SAP a utilisé plusieurs terminologies commerciales pour désigner son offre telles que mySAP.com, mySAP ERP ou mySAP Business Suite. Les logiciels SAP reposent aujourd'hui sur une architecture technique commune appelée SAP NetWeaver dont le principal composant est le (Web Application Server). Un progiciel de gestion intégré (ERP) peut être défini comme un système dans lequel les différentes fonctions de l'entreprise (comptabilité, finances, production, approvisionnement, marketing, ressources humaines, qualité, maintenance, etc.) sont reliées entre elles par l'utilisation d'un système d'information centralisé sur la base d'une configuration client/serveur. La mise en œuvre d'un système complètement intégré permet de répondre de manière précise et en temps réel aux questions du type : « Que se passe-t-il si je décide de faire ceci ? ». Par exemple, si une entreprise reçoit une commande de marchandises, il est possible de savoir presque instantanément les conséquences de cette demande sur les capacités de production, sur les besoins d'approvisionnement, sur le personnel nécessaire pour accomplir cette tâche, sur les délais requis pour satisfaire cette demande, sur les besoins de financement, sur la profitabilité de cette opération, etc. Les modules sont les composants fonctionnels du système SAP ERP. On peut distinguer trois familles de modules fonctionnels : logistique, gestion comptable et ressources humaines. En parallèle, SAP a développé une offre sur la mise en conformité réglementaire par rapport aux exigences de développement durable. La société SAP a également étendu les fonctionnalités de son logiciel pour couvrir les processus propres à chaque secteur d'activité et l'a décliné en 23 solutions qui sont : Aérospatiale et défense, Automobile, Banque, Produits chimiques, Biens de consommation, Bâtiment et Travaux Publics, Services financiers, Santé (établissements de soin), Enseignement supérieur et recherche, Haute technologie, Équipement industriel, Assurances, Industrie des médias, Industrie textile, Industrie minière, Pétrole et gaz naturel, Industrie pharmaceutique, Services professionnels, Administration et secteur public, Commerce de détail et distribution, Prestations de services, Télécommunications, Production, transport et distribution d’énergie.</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Portrait_Werner_Sobek.jpg</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Enterprise_resource_planning</t>
         </is>
@@ -773,12 +798,18 @@
           <t>Output Management ist die Erstellung, Generierung, Steuerung und Verteilung von elektronischen oder physisch vorliegenden Dokumenten an alle vorgesehenen Empfänger im Unternehmen oder außerhalb eines Unternehmens.</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>La gestion des flux de documents ou gestion des flux documentaires, ou encore output management désigne la gestion de dossiers envoyés par une entreprise ou un organisme à partir des logiciels de gestion (ERP, PGI, applicatifs métier, etc.). Le plus grand nombre des documents sortants sont liés à la gestion commerciale ; ce sont principalement des factures ou des extraits de compte pour les banques. Les médias sont divers : imprimé, courriel, fax. Cela peut également être une archive électronique consultable avec un accès sécurisé sur le portail de l'entreprise. Il désigne l'ensemble des dispositifs et logiciels qui permettent d'automatiser la mise en forme, la personnalisation et le choix du canal de diffusion des documents.</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/George_VanFelson.jpg</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -891,10 +922,20 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/OpenText_logo.svg</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr"/>
+          <t>OpenText Corporation è una società canadese che sviluppa e commercializza software per la gestione dell'informazione aziendale. OpenText, con sede principale a Waterloo nello stato di Ontario, nel 2014 è risultata la più importante società per lo sviluppo di software del Canada e, secondo Mediacorp Canada Inc., nel 2016 rientrava tra le cento maggiori imprese canadesi per numero di occupati. I prodotti di OpenText gestiscono contenuti informativi o dati non strutturati e sono utilizzati da grandi imprese, agenzie governative ed aziende che erogano servizi professionali. Le soluzioni di OpenText consentono di affrontare la gestione dei requisiti per l'information management, la gestione di grandi volumi di dati, l'aderenza a requisiti normativi e la gestione dell'esperienza mobile e online degli utenti. OpenText impiega oltre 10.000 lavoratori in tutto il mondo ed è una società per azioni quotata sul listino NASDAQ (OTEX e presso la Borsa Valori di Toronto (OTEX.</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>OpenText est une entreprise canadienne spécialisée de gestion de documents numériques et d'échanges de données. Elle est fondée en 1991 et est le leader dans le domaine.</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/OpenTextRHOfficeBuilding9.jpg</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -999,10 +1040,20 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>In informatica e telecomunicazioni l'intranet è una rete aziendale privata completamente isolata dalla rete esterna (Internet a livello di servizi offerti (es. tramite LAN, rimanendo dunque a solo uso interno, comunicando eventualmente con la rete esterna e altre reti attraverso opportuni sistemi di comunicazione (protocollo TCP/IP, estendendosi anche con collegamenti WAN e VPN e relativa protezione (es. firewall. A volte il termine è riferito, a livello logico, solo alla rete di servizi più visibile, il sistema di siti che formano uno spazio web interno (ad esempio a un'azienda o ad una organizzazione. In altre eccezioni il termine può essere inteso come il sistema di informazioni e servizi di utilità generale accessibili dalla rete interna. Quando una parte della intranet viene resa accessibile a clienti, partner o altre persone esterne all'organizzazione, tale parte diventa una extranet. Se a livello tecnologico l'intranet può essere definita come la rete informatica interna basata sul protocollo TCP/IP, negli ultimi anni il concetto ha assunto una forma diversa, oltrepassando gli aspetti tecnologici per impattare fortemente sull'organizzazione dell'impresa.</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Un intranet est un réseau informatique privé utilisé par les employés d'une entreprise ou de toute autre entité organisationnelle et qui utilise les mêmes protocoles qu'Internet (TCP, IP, HTTP, SMTP, IMAP, etc.). Cette utilisation n'est pas nécessairement locale, un intranet pouvant s'étendre à travers le WAN. Par opposition, un réseau extranet ne se limite pas au réseau interne à l'organisation et peut s'interconnecter avec ses partenaires commerciaux ou ses parties prenantes. Parfois, le terme se réfère uniquement au site web interne de l'organisation, mais c'est souvent une partie bien plus importante de l'infrastructure informatique d'une organisation.</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Intranet.png</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Intranet</t>
         </is>
@@ -1119,12 +1170,22 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>Power BI è un servizio d'analisi aziendale prodotto da Microsoft. Fornisce visualizzazioni interattive e funzionalità di business intelligence con un'interfaccia semplice e intuitiva, per consentire agli utenti di creare report e dashboard.</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Power BI est une solution d'analyse de données de Microsoft. Il permet de créer des visualisations de données personnalisées et interactives avec une interface suffisamment simple pour que les utilisateurs finaux créent leurs propres rapports et tableaux de bord . Power BI est un ensemble de services logiciels, d'applications et de connecteurs qui fonctionnent ensemble pour transformer différentes sources de données en informations visuelles, immersives et interactives. Plusieurs sources de données peuvent être utilisées telles que des fichiers Excel, des sources SQL, ou des entrepôts de données hybrides locaux ou sur le cloud. Les données sont personnalisées et interactives avec une interface suffisamment simple pour que les utilisateurs finaux créent leurs propres rapports et tableaux de bord.L'objectif est de faciliter la création des tableaux de bord afin d'améliorer les moyens de communications et de collaboration proposés par Microsoft. Il permet donc de collecter, construire et exposer les données au travers d'indicateurs. Son ergonomie permet par la suite d'animer des présentations interactives qui aideront à la prise de décision.</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Кракозябры_PBI-локализации.png</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Data_mining</t>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Business_intelligence</t>
         </is>
       </c>
     </row>
@@ -1227,10 +1288,20 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Windows_logo_and_wordmark_-_2021.svg</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr"/>
+          <t>Microsoft Windows, comunemente indicato come Windows, è una famiglia di ambienti operativi e sistemi operativi prodotta da Microsoft Corporation dal 1985, orientato a personal computer, workstation, server e smartphone; prende il nome dall'interfaccia di programmazione di un'applicazione a finestre (che si chiamano "windows" in lingua inglese, detta File Explorer.</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Windows [ˈwɪndoʊz] (littéralement « Fenêtres » en anglais) est au départ une interface graphique unifiée produite par Microsoft, qui est devenue ensuite une gamme de systèmes d’exploitation à part entière, principalement destinés aux ordinateurs compatibles PC.</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Windows_3.0_workspace.png</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1331,12 +1402,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Office_logo_(2019–present).svg</t>
+          <t>Microsoft Office è una suite di applicazioni desktop, server e servizi di tipo office automation per i sistemi operativi Microsoft Windows e macOS, annunciata da Bill Gates il 1º agosto 1988 durante il COMDEX a Las Vegas. La prima versione di Office conteneva Microsoft Word, Microsoft Excel e Microsoft PowerPoint.</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Office_suite</t>
+          <t>Microsoft Office est une suite bureautique propriété de la société Microsoft fonctionnant avec les plates-formes fixes et mobiles. Elle s'installe sur ordinateur et fournit une suite de logiciels comme : Word, Excel, PowerPoint, OneNote, Outlook, Access et/ou Publisher selon les suites choisies. Microsoft Office propose une version web qui s'utilise directement en ligne depuis un navigateur web. Office existe également pour les appareils mobiles : Windows Phone, iPhone, iPad, téléphones ou tablettes Android ; on l'appelle alors selon l'appareil utilisé : Office Mobile, Office pour iPad, Office pour iPhone ou Office pour Android. En 2015, Microsoft annonce que Office est utilisé par plus de 1,2 milliard de personnes.</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Office_Online.png</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Productivity_software</t>
         </is>
       </c>
     </row>
@@ -1439,10 +1520,20 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>In informatica il desktop remoto è un'implementazione del servizio di accesso remoto tramite interfaccia grafica anziché shell testuale, ovvero indica la capacità di un certo sistema di elaborazione di aprire una sessione utente di tipo grafico o comunque interattivo su un computer remoto, collegato in Rete, attraverso una connessione remota, utilizzando le risorse di input/output del computer locale.</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Un bureau à distance (en anglais Remote Desktop) est une application informatique de contrôle à distance permettant d'accéder à l'interface graphique d'un ordinateur physiquement éloigné via un autre ordinateur local.</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Phoenix-international-raceway-2011.svg</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Remote_desktop_software</t>
         </is>
@@ -1547,10 +1638,20 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Project_screenshot.png</t>
+          <t>Microsoft Project (o MSP è un software di pianificazione (utilizzato anche nel project management sviluppato e venduto da Microsoft. È uno strumento per assistere i project manager nella pianificazione, nell'assegnazione delle risorse, nella verifica del rispetto dei tempi, nella gestione dei budget e nell'analisi dei carichi di lavoro.</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
+        <is>
+          <t>Microsoft Project (ou MS Project ou MSP) est un logiciel de gestion de projets édité par Microsoft. Il permet aux chefs de projet et aux planificateurs de planifier et piloter les projets, de gérer les ressources et le budget, ainsi que d'analyser et communiquer les données des projets. Utilisé aujourd'hui (2011) par plus de 20 millions de chefs de projet, Microsoft Project est le logiciel de gestion de projet le plus utilisé au monde. Plus de 10 000 entreprises ont aussi déployé la version serveur de Microsoft Project, nommée Microsoft Project Server. La version la plus récente est Project 2019. Elle ne fait pas partie de la suite Office 2019 ni du service Microsoft 365.</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Proj2007.jpg</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Project_management_software</t>
         </is>
@@ -1659,10 +1760,20 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Project_screenshot.png</t>
+          <t>Microsoft Project (o MSP è un software di pianificazione (utilizzato anche nel project management sviluppato e venduto da Microsoft. È uno strumento per assistere i project manager nella pianificazione, nell'assegnazione delle risorse, nella verifica del rispetto dei tempi, nella gestione dei budget e nell'analisi dei carichi di lavoro.</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
+        <is>
+          <t>Microsoft Project (ou MS Project ou MSP) est un logiciel de gestion de projets édité par Microsoft. Il permet aux chefs de projet et aux planificateurs de planifier et piloter les projets, de gérer les ressources et le budget, ainsi que d'analyser et communiquer les données des projets. Utilisé aujourd'hui (2011) par plus de 20 millions de chefs de projet, Microsoft Project est le logiciel de gestion de projet le plus utilisé au monde. Plus de 10 000 entreprises ont aussi déployé la version serveur de Microsoft Project, nommée Microsoft Project Server. La version la plus récente est Project 2019. Elle ne fait pas partie de la suite Office 2019 ni du service Microsoft 365.</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Proj2007.jpg</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Project_management_software</t>
         </is>
@@ -1775,10 +1886,20 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Project_screenshot.png</t>
+          <t>Microsoft Project (o MSP è un software di pianificazione (utilizzato anche nel project management sviluppato e venduto da Microsoft. È uno strumento per assistere i project manager nella pianificazione, nell'assegnazione delle risorse, nella verifica del rispetto dei tempi, nella gestione dei budget e nell'analisi dei carichi di lavoro.</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
+        <is>
+          <t>Microsoft Project (ou MS Project ou MSP) est un logiciel de gestion de projets édité par Microsoft. Il permet aux chefs de projet et aux planificateurs de planifier et piloter les projets, de gérer les ressources et le budget, ainsi que d'analyser et communiquer les données des projets. Utilisé aujourd'hui (2011) par plus de 20 millions de chefs de projet, Microsoft Project est le logiciel de gestion de projet le plus utilisé au monde. Plus de 10 000 entreprises ont aussi déployé la version serveur de Microsoft Project, nommée Microsoft Project Server. La version la plus récente est Project 2019. Elle ne fait pas partie de la suite Office 2019 ni du service Microsoft 365.</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Proj2007.jpg</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Project_management_software</t>
         </is>
@@ -1891,10 +2012,20 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Project_screenshot.png</t>
+          <t>Microsoft Project (o MSP è un software di pianificazione (utilizzato anche nel project management sviluppato e venduto da Microsoft. È uno strumento per assistere i project manager nella pianificazione, nell'assegnazione delle risorse, nella verifica del rispetto dei tempi, nella gestione dei budget e nell'analisi dei carichi di lavoro.</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
+        <is>
+          <t>Microsoft Project (ou MS Project ou MSP) est un logiciel de gestion de projets édité par Microsoft. Il permet aux chefs de projet et aux planificateurs de planifier et piloter les projets, de gérer les ressources et le budget, ainsi que d'analyser et communiquer les données des projets. Utilisé aujourd'hui (2011) par plus de 20 millions de chefs de projet, Microsoft Project est le logiciel de gestion de projet le plus utilisé au monde. Plus de 10 000 entreprises ont aussi déployé la version serveur de Microsoft Project, nommée Microsoft Project Server. La version la plus récente est Project 2019. Elle ne fait pas partie de la suite Office 2019 ni du service Microsoft 365.</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Proj2007.jpg</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Project_management_software</t>
         </is>
@@ -1993,12 +2124,14 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr">
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Sheri_S._Tepper.jpg</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2112,10 +2245,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
+          <t>Microsoft SharePoint è una piattaforma software di Content Management System (CMS sviluppata da Microsoft, ovvero un programma che girando lato server permette la creazione e distribuzione di particolari siti web principalmente ad uso aziendale (Intranet, ma che possono anche essere distribuiti in Rete e quindi essere utilizzati come normali siti web.</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>SharePoint est une série de logiciels pour applications Web et portails développée par Microsoft. Les fonctionnalités des produits SharePoint sont la gestion de contenu, les moteurs de recherche, la gestion électronique de documents, les forums, la possibilité de créer des formulaires et des statistiques décisionnelles. En particulier, SharePoint fait référence à deux produits complémentaires du même éditeur, et qui ont été rebaptisés plusieurs fois entre 2001 et 2007. 
+* Windows SharePoint Services (abrégé WSS), auparavant appelé Sharepoint Team Services. C'est un logiciel moteur de groupware et de sites web dynamiques qui permet aux utilisateurs de partager des documents et des messages électroniques. Il est inclus dans le système d'exploitation Windows Server 2003. 
+* Microsoft Office SharePoint Server (abrégé MOSS), auparavant appelé Microsoft Office Sharepoint Portal Server. Ce logiciel, payant, permet de réaliser des portails web d'entreprise. Les fonctionnalités sont la gestion de contenu, le moteur de recherche, la possibilité de créer des formulaires et des statistiques décisionnelles. Les produits SharePoint utilisent le moteur d'exécution ASP.NET, le serveur web Internet Information Services (IIS) , et le système de gestion de base de données SQL Server, de Microsoft. Tout type de document peut y être stocké. La série SharePoint a connu la croissance la plus rapide de tous les produits de Microsoft et les ventes ont dépassé les 30 millions en 2005.</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Office_SharePoint_(2019–present).svg</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Content_management_system</t>
         </is>
@@ -2220,10 +2365,20 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/BPM_Workflow_Service_Pattern.png</t>
+          <t>Il Business process management è l'insieme delle attività necessarie a definire, ottimizzare, monitorare ed integrare i processi aziendali al fine di rendere efficace il business dell'azienda.</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
+        <is>
+          <t>Le Business Process Management (BPM), ou Gestion des Processus Métiers, permet d’avoir une vue d’ensemble de processus métiers de l’organisation et de leurs interactions pour les optimiser et les automatiser autant que possible. Pour ce faire, il faut analyser le fonctionnement réel de l'entreprise afin de le modéliser informatiquement, par exemple avec le formalisme BPMN et les outils associés. Dans une deuxième étape, les processus automatisés, même partiellement, font l'objet d'un monitoring (Cf. Business Activity Monitoring) qui permet d'identifier les restructurations à entreprendre. Les objectifs du BPM sont d‘apporter à l’organisation une valeur supplémentaire en améliorant sa performance, sa productivité et une qualité du service au client. De ce fait, le BPM rend les organisations plus efficientes selon les promoteurs de ses outils.</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Business_Process_Management_Life-Cycle.svg</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Business_process_management</t>
         </is>
@@ -2336,10 +2491,20 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
+          <t>TeamViewer AG è un'azienda che si occupa della creazione di software per la condivisione dei desktop a distanza.</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>TeamViewer est un logiciel propriétaire de télémaintenance disposant de fonctions de bureau à distance, de téléadministration, de conférence en ligne et de transfert de fichiers. TeamViewer GmbH est une société fondée en 2005 à Uhingen en Allemagne. TeamViewer est un partenaire unique de (en).</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/TeamViewer_logo.svg</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Web_conferencing</t>
         </is>
@@ -2448,10 +2613,27 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_Acrobat_dot_com_(2012).png</t>
+          <t>Adobe Acrobat è un'applicazione di desktop publishing realizzata da Adobe per creare e modificare file in formato PDF. Adobe Acrobat, in quanto prodotto dalla stessa società che ha sviluppato il PDF, è stato il primo programma in grado di lavorare su questo formato.</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
+        <is>
+          <t>Adobe Acrobat est une famille de logiciels mis au point par Adobe Systems, pour manipuler des documents électroniques au format PDF. Le programme Adobe Acrobat Reader DC (auparavant appelé Adobe Acrobat Reader, puis Adobe Reader) est disponible gratuitement sur le site Web d'Adobe et permet l'affichage et l'impression des fichiers PDF. Les nombreux programmes commerciaux de la gamme Acrobat permettent d'effectuer quelques modifications minimales et d'ajouter des fonctionnalités aux documents PDF (formulaire PDF par exemple). En outre, ils sont fournis avec d'autres modules comprenant notamment un pilote d'imprimante pour créer des fichiers PDF à partir d'applications Macintosh, Microsoft Windows et GNU/Linux. Au début des années 1990, Adobe Acrobat Reader DC avait de nombreux concurrents, qui utilisaient chacun leur propre format de documents, par exemple : 
+* AnyView de Binar Graphics ; 
+* Common Ground de No Hands Software ; 
+* Envoy de WordPerfect Corporation ; 
+* Folio de NextPage ; 
+* Microsoft Reader de Microsoft ; 
+* Replica de Farallon Computing ; 
+* WorldView de Interleaf. À la fin des années 1990, le format PDF est devenu un standard de fait. En retour, cette ouverture a conduit à une plus grande concurrence pour Adobe Acrobat, avec l'apparition de logiciels commerciaux mais aussi de logiciels libres. En 2010, il existe quantité de programmes de tiers qui peuvent créer et manipuler des PDF, par exemple Ghostscript, OpenOffice.org ou LibreOffice. Adobe autorise également le développement d'extensions ajoutant des fonctions supplémentaires au programme Acrobat, comme Enfocus Pitstop. Les spécifications du format sont publiques et des ressources sont disponibles librement et gratuitement.</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_SendNow_icon.png</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Desktop_publishing</t>
         </is>
@@ -2550,12 +2732,14 @@
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr">
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Nitro_Pro_Icon.png</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Desktop_publishing_software</t>
         </is>
@@ -2664,12 +2848,18 @@
 * Im engeren, gebräuchlicheren Sinne der genutzten Software:Als Gebäudeleittechnik (GLT) wird die Software bezeichnet, mit der Gebäude überwacht und gesteuert werden. Die Software läuft in der Regel auf einem Server und wird vom Hersteller der Gebäudeautomatisierungstechnik / Direct-Digital-Control-Gebäudeautomation (DDC-GA) geliefert. Es gibt einige wenige herstellerunabhängige GLT-Systeme. Diese kommunizieren mit den DDCs in den Gebäuden über geeignete Schnittstellen wie OLE for Process Control (OPC) oder Building Automation and Control Networks (BACnet) mit ihren jeweiligen Vor- und Nachteilen. Darüber hinaus beherrschen einige dieser neutralen Systeme auch proprietäre Protokolle.</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>La gestion technique de bâtiment (GTB) est un système informatique généralement installé dans des grands bâtiments ou dans des installations industrielles afin de superviser l’ensemble des équipements qui y sont installés. Le terme « Gestion technique de bâtiment » est une traduction littérale de l'anglo-américain « Building management system » (BMS). Le français de France bénéficie d'un terme beaucoup plus court, la domotique : « DOMOTIQUE n.f. […] est une traduction littérale de l'anglo-américain "Home Automation" Cette technique récente, jusque-là composée d’éléments disparates et indépendants, est appelée à des développements importants, qui impliquent l’installation de réseaux en basse et très basse tension, par câblage ou pré-câblage des constructions. GB: Building management system (BMS), intelligent building, smart building. »[pas clair]. La GTB évolue vers la gestion active du bâtiment, via l'immotique.</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Department_of_Finance_(DOF).svg</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2766,12 +2956,14 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr">
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr">
         <is>
           <t>NaN</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>NaN</t>
         </is>
@@ -2872,10 +3064,20 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
+          <t>Adobe Photoshop Elements è un software sviluppato dalla Adobe, giunto alla versione 2020 per Windows e macOS, che consente agli utenti amatoriali di utilizzare una selezione ristretta di strumenti avanzati di fotoritocco — solitamente appannaggio di utenti esperti come editor e artisti professionali a causa della complessità e del prezzo. Si tratta di una versione ridotta di Adobe Photoshop, software di ritocco fotografico e disegno digitale ormai divenuto lo standard de facto delle rispettive industrie.</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Adobe Photoshop Elements est un logiciel de retouche photo. C'est une version limitée du logiciel professionnel Adobe Photoshop. Ses principaux concurrents sont GIMP, Paint.net et Krita. Adobe Photoshop Elements est disponible pour MacOS X (ultérieur ou antérieur), ainsi que sur Windows 7 (ultérieur ou antérieur). Ce logiciel fait partie de la gamme « Elements » d'Adobe avec Adobe Premiere Elements.</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Twizel_Tasman_Road.jpg</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Raster_graphics_editor</t>
         </is>
@@ -2992,12 +3194,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Redmine_logo.svg</t>
+          <t>Redmine è un software gratuito e open source, per la pianificazione di progetti e per il tracciamento delle segnalazioni di bug tramite interfaccia web. Consente agli utilizzatori di gestire molteplici progetti e sotto-progetti tramite una singola installazione. Le funzionalità a corredo per ogni progetto includono: wiki, forum, time tracking e un flessibile controllo degli accessi basato su ruoli. Include, inoltre, le funzionalità di calendario e di diagrammi di Gantt per aiutare la rappresentazione visiva dei progetti e le loro scadenze. Si integra con i più comuni sistemi di controllo versione distribuito. L'applicazione è strutturata da un sistema a raggruppamento e tracciamento di problemi, ovvero accorpa tutti i processi associati ad un progetto che sono visti come ticket (o segnalazioni da risolvere; aggregandoli per categoria, urgenza e stato di avanzamento. Redmine è sviluppato usando il framework Ruby on Rails. È un sistema cross-platform e cross-database, supporta 33 lingue.</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Project_management_software</t>
+          <t>Redmine est une application web libre de gestion de projets, développée en Ruby sur la base du framework Ruby on Rails.</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/West_Bloomfield_School_District_Logo.png</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Bug_tracking_system</t>
         </is>
       </c>
     </row>
@@ -3090,12 +3302,19 @@
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr">
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Adobe Illustrator Artwork est un format de fichier propriétaire développé par Adobe Systems pour une représentation vectorielle par page aussi bien en format eps que pdf. L'extension « .ai » est utilisée par Adobe Illustrator. Les premières versions des fichiers AI sont de véritables fichiers eps avec certaines restrictions, une syntaxe compacte et des champs sémantiques propres à Adobe Illustrator. Certaines procédures étaient externalisées, sous la forme de « include ». Les versions récentes du format AI sont basés sur pdf ou eps ou encore un format natif particulier. Une inclusion de peut être intégrée à un pdf. 
+* Portail de l’imagerie numérique</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_Illustrator_.AI_File_Icon.png</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Vector_image_format</t>
         </is>
@@ -3196,10 +3415,20 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
+          <t>Adobe Creative Cloud è una raccolta di software e servizi cloud per la fotografia, il disegno grafico, il montaggio video, la creazione di contenuti per il web e altre applicazioni creative sviluppata e distribuita da Adobe. Creative Cloud si differenzia dalle precedenti raccolte di prodotti Adobe (come Creative Suite e per la sua licenza software as a service: l'utente finale, quindi, sottoscrive un abbonamento mensile o annuale che gli consente di scaricare e usufruire delle ultime versioni dei software della raccolta. Adobe annunciò inizialmente Creative Cloud nell'ottobre 2011 ma l'anno seguente venne rilasciata comunque una nuova versione di Creative Suite. Il 6 maggio 2013 Adobe ha comunicato che non sarebbero state rilasciate nuove versioni di Creative Suite e che gli aggiornamenti dei propri software sarebbero stati distribuiti attraverso Creative Cloud. Le prime versioni delle applicazioni create esclusivamente per Creative Cloud sono state rilasciate il 17 giugno 2013. L'ultima versione, la CC 2021, è stata annunciata e distribuita il 20 ottobre 2020.</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Adobe Creative Cloud est un ensemble d'applications et de services proposés par Adobe Systems, qui permet aux abonnés d'accéder à une collection de logiciels utilisés pour la conception graphique, le montage vidéo, le développement web, la photographie, un ensemble d'applications mobiles, et des services cloud. L'accès à Creative Cloud nécessite un abonnement mensuel ou annuel. Les logiciels, téléchargeables sur Internet, sont accessibles sur un ordinateur local durant toute la durée de l'abonnement. Des mises à jour en ligne et plusieurs langues sont incluses dans l'abonnement. Creative Cloud a d'abord été hébergé sur Amazon Web Services, et est depuis la version 2017 hébergé sur Microsoft Azure. Auparavant, Adobe proposait une licence perpétuelle de logiciel pour l'obtention de produits seuls ainsi que des suites de logiciels contenant plusieurs produits (tels que Adobe Creative Suite ou Adobe eLearning Suite). Adobe a annoncé Creative Cloud en octobre 2011. Une autre version de Adobe Creative Suite a été libérée l'année suivante. Le 6 mai 2013, Adobe a annoncé qu'il ne publierait plus de nouvelles versions de Creative Suite et que les futures versions de son logiciel seront uniquement disponibles via Creative Cloud. Les premières versions réservées uniquement à Creative Cloud ont été publiées le 17 juin 2013.</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_Creative_Cloud_rainbow_icon.svg</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Software_suite</t>
         </is>
@@ -3316,10 +3545,20 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
+          <t>Il digital asset management (DAM è il sistema integrato per la . È il software che consente di creare, organizzare e distribuire i contenuti su differenti canali come ad esempio siti web e applicazioni, e aumenta l’efficacia della comunicazione.</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>La gestion des actifs numériques (GAN, traduit de l'anglais digital asset management, DAM) couvre l'alimentation, l'annotation, le classement, le stockage et la recherche d'actifs numériques, comme les images numériques fixes (illustrations, photos numériques, etc.) et images animées (animations, vidéos, etc.), les enregistrements sonores (musique, discours, etc.) et autres documents multimédias ou bureautiques. Les solutions DAM ont évolué de simples bases de stockage pour actifs numériques à de véritables plateformes collaboratives, tant pour des entreprises B2B que B2C, qui ont un impact sur différents départements : marketing, équipes créatives, gestion de la marque, ventes, et informatique.</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/I.R.S._Records_logo.svg</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Digital_asset_management</t>
         </is>
@@ -3428,10 +3667,20 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
+          <t>Enterprise resource planning (letteralmente "pianificazione delle risorse d'impresa", spesso abbreviato in ERP è un software di gestione che integra tutti i processi di business rilevanti di un'azienda e tutte le funzioni aziendali, ad esempio vendite, acquisti, gestione magazzino, finanza, contabilità, ecc. Integra quindi tutte le attività aziendali in un unico sistema, il quale risulta essere indispensabile per supportare il Management. I dati vengono raccolti in maniera centralizzata nonostante provengano da molteplici parti dell'azienda. Con l'aumento della popolarità dell'ERP e la riduzione dei costi per le TIC (Tecnologie dell'informazione e della comunicazione, si sono sviluppate applicazioni che aiutano i business manager ad implementare questa metodologia nelle attività di business, quali il controllo di inventari, il tracciamento degli ordini, i servizi per i clienti, la finanza e le risorse umane.</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Un progiciel de gestion intégré ou PGI (en anglais : Enterprise Resource Planning ou ERP) est un progiciel qui permet « de gérer l'ensemble des processus d'une entreprise en intégrant l'ensemble de ses fonctions, dont la gestion des ressources humaines, la gestion comptable et financière, l'aide à la décision, mais aussi la vente, la distribution, l'approvisionnement et le commerce électronique ».</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/ERP_Modules.png</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Enterprise_resource_planning</t>
         </is>
@@ -3526,12 +3775,14 @@
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr">
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/US_Navy_030618-N-2893B-001_Information_Technician_1st_Class_Annette_Leasure_takes_a_few_minutes_to_fill_out_the_BUPERS_Online_Uniform_Survey_Questionnaire.jpg</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Survey_data_collection</t>
         </is>
@@ -3631,7 +3882,13 @@
       </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>L’Imprimerie nationale est une institution de l'État français chargée de la confection des documents officiels. Héritée d'une imprimerie créée en 1538 avec un privilège royal, elle évolue au gré des changements politiques et technologiques pour devenir aujourd'hui une société anonyme à capitaux d'État. Connue sous la marque IN Groupe afin « d’être plus visibles sur le marché international et plus attractifs pour les nouveaux talents », elle est une entreprise de premier plan dans la fabrication de documents sécurisés, tels que carte d'identité et passeports, mais aussi fournisseur d'applications d'identification d'utilité publique.</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3760,10 +4017,26 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
+          <t>CMMS (sigla dell'espressione inglese Computerized Maintenance Management System - "Sistema computerizzato della gestione della manutenzione" è il termine con il quale si identifica un'applicazione software che supporta il sistema informativo per la gestione della manutenzione spesso integrata con l'Enterprise Resources Planning (ERP aziendale. Poiché si tratta di un errore molto diffuso, è importante non confondere il Sistema Informativo di Manutenzione, con l'applicazione sottostante che lo supporta. L'applicazione si può acquistare, il sistema informativo è il frutto del lavoro quotidiano dei tecnici, senza il quale nessun risultato atteso di miglioramento è raggiungibile. La norma UNI 10584 recita infatti che il Sistema Informativo di Manutenzione ... "è un insieme di norme e procedure" ... "e può essere supportato in diverse forme" ... a partire da quella cartacea che fino a trent'anni fa era la più diffusa, per passare ai prodotti Office e per finire con le applicazioni dedicate dette CMMS (in inglese o GMAO (in francese, che oggi rappresentano lo strumento più diffuso per supportare il Sistema Informativo di Manutenzione. Il sistema informativo nasce con lo scopo di progettare, organizzare e gestire la manutenzione interna di aziende che non si occupano primariamente di manutenzione, o la manutenzione offerta da aziende specializzate, che fanno della manutenzione il loro Core business. L'applicazione software diventa quindi il principale strumento a supporto dei servizi di manutenzione, i quali se realizzeranno all'interno di essa un sistema informativo coerente con i fabbisogni espressi dai sistemi mantenuti e con l'organizzazione del servizio di manutenzione, potranno realizzare i seguenti obiettivi: 
+* miglioramenti nella prestazione impiantistica 
+* riduzione dei costi propri di manutenzione 
+* miglioramenti nella progettazione del sistema di manutenzione 
+* miglioramenti di efficienza/efficacia delle azioni manutentive 
+* miglioramenti nella definizione e nella gestione dei piani di manutenzione, delle politiche di manutenzione preventiva delle attività diagnostiche 
+* miglioramenti nella gestione dei ricambi e nella definizione dei corretti livelli di scorta</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>La gestion de maintenance assistée par ordinateur (souvent abrégée en GMAO) est une méthode de gestion assistée d'un logiciel destiné aux services de maintenance d'une entreprise afin de l'aider dans ses activités.</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/CMMS_Plan_Steps.jpg</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3872,12 +4145,22 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
+          <t>OTRS, originariamente sigla di Open-source Ticket Request System (sistema open source per la richiesta di ticket, è un pacchetto software che consente ad aziende, enti o istituzioni di assegnare dei ticket di segnalazione a ciascuna delle domande ricevute, rendendo molto più semplice la gestione delle richieste di assistenza (via e-mail o telefono e gli altri scambi di informazioni con i propri clienti o utenti.Iniziato nel 2001 come progetto open source, dal dicembre 2020 il supporto alla community edition è cessato ed è disponibile solo con licenza proprietaria dal fornitore OTRS AG.</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Open-source Ticket Request System (OTRS, littéralement « système open source de requêtes par tickets ») est un logiciel open source de gestion de la relation client ou de gestion des services d'assistance. Une entreprise, une organisation ou une institution peut l'utiliser pour assigner des « tickets » aux requêtes qui lui sont faites via le centre d'assistance ou le service de dépannage. Ce système permet de faciliter le traitement des demandes d'assistance ou de dépannage et toute demande faite par téléphone ou courrier électronique. OTRS est distribué sous licence AGPL.</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo-no-tagline-CMYK.jpg</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Service_management</t>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Help_desk</t>
         </is>
       </c>
     </row>
@@ -3976,10 +4259,20 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_InDesign_2020_on_macOS_Catalina.png</t>
+          <t>Adobe InDesign è un programma di produzione editoriale prodotto da Adobe e rivolto all'editoria professionale. Sviluppato come concorrente di QuarkXPress e distribuito nella sua prima versione nell'agosto del 1999, l'ultima versione, InDesign CC, è inclusa nella Adobe Creative Cloud, comprendente molti dei più noti software professionali di produzione video e grafica digitale quali Photoshop, Lightroom, Illustrator, Acrobat, Bridge, Premiere Pro, After Effects e, fin dall'acquisizione della concorrente Macromedia nel 2005, anche Dreamweaver. InDesign si colloca come successore ed alternativa ad alto profilo di PageMaker. Tra le sue caratteristiche principali: il supporto multilingua, la gestione avanzata di caratteri OpenType, la possibilità di gestire effetti di trasparenza, e la forte integrazione con gli altri prodotti di casa Adobe. In combinazione con database relazionali e InCopy, costituisce il sistema di pubblicazione per riviste, giornali e prodotti editoriali di varia natura. L'estensione dei file di InDesign è .indd anche se il programma permette un interscambio di dati tramite una rappresentazione di XML indicata con estensione .inx (fino alla versione 5.0 e InDesign Markup Language (.idml dalla versione 6.0. Adobe InDesign permette di importare anche i file nativi di Photoshop, gestendone i livelli e le trasparenze. L'esportazione in PDF è integrata nel programma e personalizzabile. Nell'ottobre del 2005 è stata distribuita una versione chiamata InDesign CS2 Server, che permette l'impaginazione in remoto tramite interfaccia web.</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
+        <is>
+          <t>Adobe InDesign est un logiciel de PAO produit par Adobe Systems. Initialement conçu pour créer des œuvres telles que des affiches, dépliants, brochures, magazines, journaux ou livres, il permet également de publier plusieurs types de contenus adaptés aux tablettes lorsque utilisé avec Adobe DPS. Les principaux utilisateurs de ce logiciel sont les graphistes et les artistes professionnels qui créent et font la mise en page de périodiques, d'affiches et d'autres produits destinés à l'impression. Il prend également en charge l'exportation des formats de livres numériques EPUB et SWF ainsi d'autres formats numériques tels que des magazines et divers produits adaptés à la consultation sur tablette tactile. En outre, InDesign prend en charge le format XML, les feuilles de style et d'autres langages de programmation, ce qui permet de l'utiliser pour exporter du texte balisé pour l'utilisation d'autres formats numériques. Le logiciel de traitement de texte Adobe InCopy utilise le même système de mise en forme qu'InDesign.</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Salsa_Basic_Steps,_LA-style.png</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Desktop_publishing</t>
         </is>
@@ -4086,12 +4379,18 @@
           <t>Der Azure DevOps Server, vormals Team Foundation Server (TFS), von Microsoft ist eine Plattform für kollaborative Softwareprojekte. Über ihn können Projekte geplant, erstellt und verwaltet werden. Er kann dabei bis zu 2000 Entwickler und 500 Projekte verwalten. Für kleine Projekte gibt es die Express-Edition, welche für maximal fünf Benutzer kostenlos erhältlich ist. TFS läuft auf Servern unter Windows und stellt sich in der Geschichte der Quelltext-Verwaltungssysteme von Microsoft als der Nachfolger von Microsoft Visual SourceSafe dar. Mit Version 2019 wurde das Produkt in Azure DevOps Server umbenannt.</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Windows_Azure_logo.png</t>
-        </is>
-      </c>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
+        <is>
+          <t>Team Foundation Server (TFS), aujourd'hui appelé Azure Devops Server, est une forge logicielle éditée par Microsoft permettant la gestion des sources, la gestion des builds, le suivi des éléments de travail, la planification, la gestion de projet et l'analyse des performances. Il a pour but d'augmenter la productivité des développeurs, lesquels doivent utiliser la suite Visual Studio Team System (VSTS).</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Roundel_of_Bulgaria.svg</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Application_lifecycle_management</t>
         </is>
@@ -4198,12 +4497,14 @@
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr">
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Medal_ceremony_2015_WCh_EFS-IN_t204717.jpg</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4306,14 +4607,20 @@
           <t>MindManager ist eine kommerzielle Anwendungssoftware zur Erstellung von Mindmaps.</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MindManager_2016_Flowchart_tasks.png</t>
-        </is>
-      </c>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Mind mapping</t>
+          <t>MindManager est un logiciel propriétaire de création de cartes heuristiques. Il est développé par Mindjet Corporation. Mindjet est spécialisé dans le Business Mapping. MindManager permet aux individus et aux équipes de gérer, organiser et planifier des projets, des informations ou des idées. Les cartes heuristiques (maps) créées avec MindManager peuvent être exportées vers Microsoft Word, PowerPoint, Visio ou Project. MindManager peut également créer des pages web (HTML) ou des documents PDF. Les maps peuvent être enrichis de différents symboles et icônes.</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MindManager_Formulas.png</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Mind_map</t>
         </is>
       </c>
     </row>
@@ -4410,12 +4717,14 @@
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/akademija,kst.jpg</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4516,10 +4825,20 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/.vss_icon.svg</t>
+          <t>Microsoft Visio è un software proprietario per la creazione di grafici e diagrammi, sviluppato da Microsoft per i sistemi operativi Microsoft Windows ed è rilasciato per diverse edizioni (principalmente standard e professional di Microsoft Office.</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
+        <is>
+          <t>Microsoft Visio (officiellement Microsoft Office Visio) est un logiciel de diagrammes et de synoptiques pour Windows qui fait partie de la suite bureautique Microsoft Office mais se vend séparément. Il permet de créer des diagrammes et organigrammes, des plans d'architectes (2D) ou techniques (circuits), des réseaux de PERT ou encore des diagrammes IDEF0. Dans Visio, les graphiques utilisés pour créer des diagrammes sont vectoriels. Les versions Standard et Professionnel de l'édition 2007 partagent la même interface, mais la seconde permet de faire des diagrammes plus avancés, grâce à des modèles supplémentaires. Cette version (Pro, y compris les versions ultérieures) offre également une fonctionnalité qui permet aux utilisateurs de relier facilement leurs diagrammes à un grand nombre de sources de données et d'afficher les informations recueillies graphiquement. Visio 5 est devenu le produit « Microsoft Visio 2000 » quand Microsoft a acquis la société Visio Corporation le 7 janvier 2000 pour 1,3 milliard de dollars. Un plugin Visio, sous la forme d'un contrôle ActiveX, permet de lire les documents depuis Internet Explorer[Lequel ?].</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Office_Visio.svg</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
         <is>
           <t>Diagramming software</t>
         </is>
@@ -4632,12 +4951,22 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
+          <t>OTRS, originariamente sigla di Open-source Ticket Request System (sistema open source per la richiesta di ticket, è un pacchetto software che consente ad aziende, enti o istituzioni di assegnare dei ticket di segnalazione a ciascuna delle domande ricevute, rendendo molto più semplice la gestione delle richieste di assistenza (via e-mail o telefono e gli altri scambi di informazioni con i propri clienti o utenti.Iniziato nel 2001 come progetto open source, dal dicembre 2020 il supporto alla community edition è cessato ed è disponibile solo con licenza proprietaria dal fornitore OTRS AG.</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Open-source Ticket Request System (OTRS, littéralement « système open source de requêtes par tickets ») est un logiciel open source de gestion de la relation client ou de gestion des services d'assistance. Une entreprise, une organisation ou une institution peut l'utiliser pour assigner des « tickets » aux requêtes qui lui sont faites via le centre d'assistance ou le service de dépannage. Ce système permet de faciliter le traitement des demandes d'assistance ou de dépannage et toute demande faite par téléphone ou courrier électronique. OTRS est distribué sous licence AGPL.</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo-no-tagline-CMYK.jpg</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Service_management</t>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Help_desk</t>
         </is>
       </c>
     </row>
@@ -4742,12 +5071,14 @@
           <t>Snagit ist primär eine Software des Herstellers zur Erstellung und Verbesserung von Screenshots (Bildschirmfotos), kann aber auch zur Videoaufnahme des Bildschirms verwendet werden. Die erste Version kam 1990 auf den Markt als Windows-Version. Sie erweitert die Bildschirmfoto-Funktionalität des Betriebssystems (Taste „Druck“, engl. Print Screen) um weitere Möglichkeiten wie direkter Bildschirmausschnitt-Auswahl (so dass ein Nachbearbeitungsschritt nach dem Erzeugen des Bildschirmfotos entfällt) oder der direkten anschließenden Kommentierung des Bildschirmfotos mit Pfeilen und Texten oder des vereinfachten Ausschneidens und Überlegens von nicht erwünschten Bildschirmbereichen. Im Unterschied zum Vista Snipping Tool von Windows ist das „Fotografieren“ einer ganzen Internetseite möglich, inklusive des Bereichs, der nur über Scrollen erreichbar ist, so dass man nicht mehrere Bildschirmfotos zusammenfügen muss. Neuere Versionen (aktuell Version 12) legen den Schwerpunkt darauf, die vielen Funktionen über eine bessere Benutzeroberfläche dennoch so einfach bedienbar zu machen, als wenn sie nur Grundfunktionen böten. Seit Dezember 2009 gibt es auch eine Version Snagit for Mac. Die GUI der Mac-Version ist für eine Mac-Version typisch aufgeräumter als eine Win-Version. Innovativ ist, dass die in vielen Wettbewerberprodukten mit getrennt aufrufbaren unterschiedlichen Bildschirmfoto-Aufnahmemodi alle mit dem gleichen Aufruf erreichbar sind und je nachdem, wo sich der Mauszeiger befindet, es mal ein Bereichsfoto, ganzer Bildschirm, oder wenn man auf einen eingeblendeten Pfeil klickt, ein Scrollen stattfindet.</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr">
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Snagit_12_icon.png</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AB39" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Screenshot</t>
         </is>
@@ -4864,12 +5195,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Odoo_logo.svg</t>
+          <t>Odoo, fino al 2014 chiamato OpenERP, è un software gestionale open source nato nel 2005 ad opera di Fabien Pinckaers con il nome TinyERP e con il proposito di rivoluzionare il mondo del software per le imprese. Odoo è ormai diventata una suite di prodotti software attivamente supportata da una community internazionale e da una italiana ai fini della localizzazione. Il software è open source ed è rilasciato secondo i termini della GNU Lesser General Public License. Riguardo Odoo sono stati scritti diversi libri, alcuni dedicati ad aree funzionali specifiche come la contabilità, altri all'ambiente di sviluppo.</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Enterprise_resource_planning</t>
+          <t>Odoo, anciennement OpenERP et Tiny ERP, est initialement un progiciel open-source de gestion intégré comprenant de très nombreux modules permettant de répondre à de nombreux besoins de gestion des entreprises (ERP), ou de gestion de la relation client (CRM). Le logiciel est utilisé par plus de cinq millions d’utilisateurs pour gérer leurs entreprises à travers le monde. Odoo est le système ERP open-source le plus populaire. Il existe une version community gratuite sous licence LGPLv3, et une entreprise sous licence propriétaire Odoo Enterprise Edition License v1.0. À l’origine un progiciel de gestion intégré (ERP), le logiciel s’est vu étendre ses fonctionnalités à des applications de front office (CMS, e-commerce, blogs, forums, news, événements, live chat, job offers…).</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/OTCetenliMitArarat.jpg</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Accounting_software</t>
         </is>
       </c>
     </row>
@@ -4976,12 +5317,14 @@
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr">
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Honda_500_CBF.jpg</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -5093,12 +5436,14 @@
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr">
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Spion_Kop.jpg</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5211,12 +5556,22 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
+          <t>Wrike — Wrike Inc. è uno sviluppatore americano di software per il project management con sede a San Jose, California. L'azienda fu fondata nel 2006 e lanciò la prima versione beta del suo prodotto nel 2007.Il prodotto principale di Wrike è uno strumento online per la collaborazione e il project management. Permette ai suoi utenti di modificare progetti, classificare le attività per importanza, tenere traccia dei programmi e collaborare online con altri utenti dello stesso gruppo.</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Wrike, Inc. est un fournisseur privé d'accès internet de gestion de projet basé à Mountain View, en Californie. Le produit primaire de Wrike (qui a pour nom Wrike, également) est un outil sur internet - de logiciel en tant que service ou software as a service (SaaS) - pour la gestion de projet et la collaboration de travail. Il permet à ses utilisateurs de gérer et suivre les projets, les délais, les horaires, et d'autres processus nécessaires au flux de travail. Il leur permet aussi de collaborer l'un avec l'autre. Le logiciel est disponible en Anglais, Français, Espagnol, Allemand, Portugais, Italien, Japonais et Russe. L'objectif primaire du logiciel est d'aider à profiler le flux de travail et de permettre aux entreprises de se focaliser sur les tâches essentielles.</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Suzzy_Roche_-_sfaumhw.jpg</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>Project Management, collaboration and productivity software</t>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Project_management</t>
         </is>
       </c>
     </row>
@@ -5329,12 +5684,18 @@
           <t>Output Management ist die Erstellung, Generierung, Steuerung und Verteilung von elektronischen oder physisch vorliegenden Dokumenten an alle vorgesehenen Empfänger im Unternehmen oder außerhalb eines Unternehmens.</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr">
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>La gestion des flux de documents ou gestion des flux documentaires, ou encore output management désigne la gestion de dossiers envoyés par une entreprise ou un organisme à partir des logiciels de gestion (ERP, PGI, applicatifs métier, etc.). Le plus grand nombre des documents sortants sont liés à la gestion commerciale ; ce sont principalement des factures ou des extraits de compte pour les banques. Les médias sont divers : imprimé, courriel, fax. Cela peut également être une archive électronique consultable avec un accès sécurisé sur le portail de l'entreprise. Il désigne l'ensemble des dispositifs et logiciels qui permettent d'automatiser la mise en forme, la personnalisation et le choix du canal de diffusion des documents.</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/George_VanFelson.jpg</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5439,12 +5800,18 @@
 * Im engeren, gebräuchlicheren Sinne der genutzten Software:Als Gebäudeleittechnik (GLT) wird die Software bezeichnet, mit der Gebäude überwacht und gesteuert werden. Die Software läuft in der Regel auf einem Server und wird vom Hersteller der Gebäudeautomatisierungstechnik / Direct-Digital-Control-Gebäudeautomation (DDC-GA) geliefert. Es gibt einige wenige herstellerunabhängige GLT-Systeme. Diese kommunizieren mit den DDCs in den Gebäuden über geeignete Schnittstellen wie OLE for Process Control (OPC) oder Building Automation and Control Networks (BACnet) mit ihren jeweiligen Vor- und Nachteilen. Darüber hinaus beherrschen einige dieser neutralen Systeme auch proprietäre Protokolle.</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr">
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>La gestion technique de bâtiment (GTB) est un système informatique généralement installé dans des grands bâtiments ou dans des installations industrielles afin de superviser l’ensemble des équipements qui y sont installés. Le terme « Gestion technique de bâtiment » est une traduction littérale de l'anglo-américain « Building management system » (BMS). Le français de France bénéficie d'un terme beaucoup plus court, la domotique : « DOMOTIQUE n.f. […] est une traduction littérale de l'anglo-américain "Home Automation" Cette technique récente, jusque-là composée d’éléments disparates et indépendants, est appelée à des développements importants, qui impliquent l’installation de réseaux en basse et très basse tension, par câblage ou pré-câblage des constructions. GB: Building management system (BMS), intelligent building, smart building. »[pas clair]. La GTB évolue vers la gestion active du bâtiment, via l'immotique.</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Department_of_Finance_(DOF).svg</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5557,10 +5924,20 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/FarmaDigital.jpg</t>
+          <t>Il digital signage è una forma di comunicazione di prossimità sul punto vendita o in spazi pubblici aperti o all'interno di edifici, anche nota in Italia come segnaletica digitale, videoposter o cartellonistica digitale, i cui contenuti vengono mostrati ai destinatari attraverso schermi elettronici o videoproiettori appositamente sistemati in luoghi pubblici.</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
+        <is>
+          <t>L’affichage dynamique en (anglais : digital signage), est un outil de communication et de marketing qui permet de diffuser des informations, sous forme de contenus multimédias, dans les lieux publics sur un écran, un mur d'écrans ou par vidéo-projection. Les écrans permettent aux consommateurs d'obtenir des informations supplémentaires au moment de l'achat d'un produit ou d'un service. Ce type de diffusion est particulièrement adapté pour la publicité sur le lieu de vente (PLV) et pour l’information du public dans des lieux où celui-ci est en attente ou de passage. Cette signalétique assistée par ordinateur peut ainsi être utilisée dans les boulangeries, cafés, bars, restaurants ; mais également dans les hôtels, halls d'accueil, boutiques, centre commerciaux, cinémas, stations services. L'affichage dynamique est également employé pour la communication interne d'une entreprise, piloté par l'équipe de communication du siège social dans le cadre d'entreprises nationales ou internationales. Les écrans peuvent être installés dans des salles de réunions voire dans des lieux de détente. Enfin, l’affichage dynamique est utilisé par les régies publicitaires qui disposent des écrans dans les villes et revendent des slots de publicité à des annonceurs pour la promotion de leur marque. Cette pratique a été rendue possible et a été développée ces dernières années avec l’émergence de la programmatique. Par sa souplesse d'usage et les possibilités audiovisuelles offertes, les systèmes d'affichage dynamique sont utilisés à la place des systèmes traditionnels hors média comme les affiches, panneaux d'information et de signalétique. L’affichage dynamique est parfois désigné sous les noms de affichage numérique, affichage digital, affichage interactif, signalétique assistée par ordinateur. Et en anglais : digital signage, digital media, public display ou encore digital out of home ou out of home TV.</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Dow_Jones_Ticker.jpeg</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Digital_signage</t>
         </is>
@@ -5669,10 +6046,20 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
+          <t>Con la locuzione Computer Assisted Translation (nota anche come Computer Aided Translation, Machine Assisted Translation, Machine Aided Translation, Machine Assisted Human Translation o Machine Aided Human Translation, o semplicemente con l'acronimo CAT, si indica «una strategia di traduzione in base alla quale i traduttori utilizzano programmi per computer per compiere parte del processo traduttivo». In italiano, si parla di traduzione assistita. La Computer Assisted Translation viene talvolta confusa con la Machine Translation, ma si tratta di due concetti diversi. Se per Machine Translation si intende un sistema di traduzione completamente automatico, che prevede un intervento umano molto limitato, nella Computer Assisted Translation il software aiuta semplicemente il traduttore a velocizzare il processo traduttivo. Risulta comunque difficile separare in modo netto queste due forme di traduzione, dal momento che spesso si sovrappongono.</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>La traduction assistée par ordinateur ou TAO (en anglais, computer-aided translation ou CAT) est un domaine qui est à cheval entre la traduction et l’informatique. Elle est un sous-domaine de la traductique, qui regroupe l'ensemble des outils informatiques utilisées par un traducteur (traitement de textes, outils terminologiques, traduction automatique...). Elle ne doit pas être confondue avec la traduction automatique par ordinateur : dans la traduction assistée par ordinateur, c’est bien un humain qui traduit, mais avec un soutien informatique pour lui faciliter la tâche.</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Petr_Nedvěd_-_Show_Jana_Krause_(14._4._2021).png</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
+      <c r="AB47" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-assisted_translation</t>
         </is>
@@ -5791,12 +6178,14 @@
           <t>Camtasia Studio ist eine kommerzielle Software zur Aufnahme von Screencasts als Video. Entwickler ist das Unternehmen . Der Inhalt des Bildschirms kann ganz oder teilweise aufgenommen und weiterverarbeitet werden. Das Programm wird in den Sprachen Englisch, Deutsch, Französisch, Japanisch und Koreanisch angeboten.</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Camtasia_screenshot.png</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AB48" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Video_editing_software</t>
         </is>
@@ -5911,12 +6300,14 @@
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr">
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Airplane_silhouette.svg</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -6025,10 +6416,16 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
+          <t>Nell'ordinamento italiano la firma elettronica è definita come "un insieme dei dati in forma elettronica, allegati oppure connessi tramite associazione logica ad altri dati elettronici, utilizzati come metodo di identificazione informatica": è quindi la forma più debole di firma in ambito informatico, in quanto non prevede di per sé meccanismi di autenticazione del firmatario o di integrità del dato firmato.</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Digital_Signature_diagram.svg</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -6129,12 +6526,18 @@
 * Im engeren, gebräuchlicheren Sinne der genutzten Software:Als Gebäudeleittechnik (GLT) wird die Software bezeichnet, mit der Gebäude überwacht und gesteuert werden. Die Software läuft in der Regel auf einem Server und wird vom Hersteller der Gebäudeautomatisierungstechnik / Direct-Digital-Control-Gebäudeautomation (DDC-GA) geliefert. Es gibt einige wenige herstellerunabhängige GLT-Systeme. Diese kommunizieren mit den DDCs in den Gebäuden über geeignete Schnittstellen wie OLE for Process Control (OPC) oder Building Automation and Control Networks (BACnet) mit ihren jeweiligen Vor- und Nachteilen. Darüber hinaus beherrschen einige dieser neutralen Systeme auch proprietäre Protokolle.</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr">
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>La gestion technique de bâtiment (GTB) est un système informatique généralement installé dans des grands bâtiments ou dans des installations industrielles afin de superviser l’ensemble des équipements qui y sont installés. Le terme « Gestion technique de bâtiment » est une traduction littérale de l'anglo-américain « Building management system » (BMS). Le français de France bénéficie d'un terme beaucoup plus court, la domotique : « DOMOTIQUE n.f. […] est une traduction littérale de l'anglo-américain "Home Automation" Cette technique récente, jusque-là composée d’éléments disparates et indépendants, est appelée à des développements importants, qui impliquent l’installation de réseaux en basse et très basse tension, par câblage ou pré-câblage des constructions. GB: Building management system (BMS), intelligent building, smart building. »[pas clair]. La GTB évolue vers la gestion active du bâtiment, via l'immotique.</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Department_of_Finance_(DOF).svg</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -6241,14 +6644,16 @@
           <t>Die Microsoft Power Platform ist ein Zusammenschluss der vier Dienste Power Apps, Power Automate, Power BI und der US-amerikanischen Hardware- und Software-Firma Microsoft. Diese Services sollen es Anwendern ermöglichen, mittels Apps, automatisierten Workflows, visualisierten Daten und virtuellen Agenten eigene, systemübergreifende IT-Anwendungen erstellen zu können. Im März 2021 hat Microsoft die Programmiersprache Power Fx offiziell lanciert, welche sich heute noch auf den Bereich Power Apps beschränkt, in Zukunft auf der ganzen Power Platform Anwendung finden soll. Die Power Platform ist einer von insgesamt fünf Technologie-Schwerpunkten von Microsoft, die zusammen den Microsoft Tech Stack bilden. Die anderen Schwerpunkte sind Microsoft 365, Dynamics 365, GitHub und Azure.</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr">
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/1853-1860,_Blasón_de_España,_libro_de_oro_de_su_nobleza,_parte_primera,_casa_real_y_Grandeza_de_España,_Manuel_Álvarez_de_Toledo_(cropped).jpg</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Business_intelligence</t>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Robotic_process_automation</t>
         </is>
       </c>
     </row>
@@ -6349,14 +6754,16 @@
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adawro_r.jpg</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Voice_over_IP</t>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Zoom_Alma_Mater_Europaea.jpg</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Videotelephony</t>
         </is>
       </c>
     </row>
@@ -6469,12 +6876,14 @@
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr">
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Koncevoy_otvod.jpg</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
+      <c r="AB54" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Business_performance_management</t>
         </is>
@@ -6589,12 +6998,14 @@
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr">
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/S-Bahn-Station_Offenbach-Kaiserlei.jpg</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6691,10 +7102,20 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
+          <t>La contabilità è il sistema di rilevazione continua di qualunque evento di rilevanza economica (nelle famiglie, nelle aziende e nello Stato: l'ambito tipico di utilizzo della contabilità è dunque qualsiasi ente o struttura operativa, sia pubblica che privata, ma il significato non cambia anche nel ristretto ambito personale (contabilità individuale. Altra definizione, tipica della ragioneria, vuole che la contabilità sia l'insieme degli spostamenti di capitale aziendale raccolti e organizzati secondo un criterio che permetta un rapido accesso ed elaborazione dei dati. Ancora un'altra definizione: "la contabilità è la storia economica di un'azienda nel senso che conserva una traccia di tutte le operazioni commerciali".</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>La comptabilité est un ensemble de conventions et de règles qui consistent à recueillir et compiler des données liées aux événements et aux opérations financières, afin de présenter dans une unité monétaire, la situation financière et les activités économiques d'une entité permettant aux utilisateurs de ce système d'information de comparer et analyser ces informations comptables et de prendre des décisions. Dans le domaine commercial et administratif cette discipline est mise en œuvre par le comptable ou l'agent-comptable, éventuellement assistés d'experts comptables et de logiciels, bureaux ou agences spécialisés. Dans le domaine de l'évaluation (ex. : services écosystémiques), on parle aussi de comptabilité environnementale, voire de</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Hauptbuch_Hochstetter_vor_1828.jpg</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
+      <c r="AB56" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Accounting</t>
         </is>
@@ -6803,10 +7224,20 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
+          <t>Il bilancio consolidato è un che vuol rappresentare la situazione economica, patrimoniale e finanziaria di un gruppo di imprese, elaborato dalla società posta al vertice (capogruppo. È un documento pubblico, ma non avente ; infatti, sebbene questo strumento riesca a stabilire i risultati economici del gruppo, non è ancora possibile utilizzare questo mezzo per poter attribuire gli utili complessivi del gruppo, permettendo dunque di distribuire i dividendi anche a quei soci delle società del gruppo in perdita.</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>La consolidation comptable consiste à établir les états financiers d'un groupe de sociétés, pour publication mais aussi pour ses besoins internes. Elle agrège pour cela les comptabilités de chacune des sociétés qui composent ce groupe et opère des retraitements afin de faire comme s'il ne s'agissait que d'une entité unique. Le mot « consolidation » est ici un anglicisme dérivé de to consolidate, qui signifie « grouper ». Les états financiers consolidés (ou « comptes » consolidés), dont le bilan consolidé, le compte de résultat consolidé et le tableau de financement consolidé, sont établis comme s’il s’agissait d’une seule et même entreprise. Sous certaines conditions, l’établissement des comptes consolidés est obligatoire.</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/College_Street_-_Kolkata_7402.jpg</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6921,12 +7352,14 @@
           <t>SAP Concur (früher Concur Technologies) ist ein US-amerikanisches Software-Unternehmen, das Reise- und Kostenverwaltungsdienste für Unternehmen anbietet. Es hat seinen Hauptsitz in Bellevue, Washington. Die SAP SE stimmte der Übernahme von Concur Technologies im September 2014 für 8,3 Milliarden US-Dollar zu. Die Übernahme wurde im Dezember 2014 abgeschlossen.</t>
         </is>
       </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/DeathofaGentleLady_cover.gif</t>
-        </is>
-      </c>
+      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Concur_logo.png</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -7033,12 +7466,14 @@
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr">
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Sfsf_office.jpg</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -7147,10 +7582,20 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
+          <t>Con Identity Management (IM si intendono i sistemi integrati di tecnologie, criteri e procedure in grado di consentire alle organizzazioni di facilitare - e al tempo stesso controllare - gli accessi degli utenti ad applicazioni e dati critici, proteggendo contestualmente i dati personali da accessi non autorizzati.</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>En sécurité des systèmes d'information, la Gestion des Identités et des Accès (GIA) (en anglais Identity and Access Management : IAM) est l’ensemble des processus mis en œuvre par une entité pour la gestion des habilitations de ses utilisateurs à son système d’information ou à ses applications. Il s’agit donc de gérer qui a accès à quelle information à travers le temps. Cela implique ainsi d’administrer la création, la modification, et les droits d’accès de chaque identité numérique interagissant avec les ressources de l’entité. La gestion des identités et des accès s'intéresse par exemple au contrôle de la façon dont les utilisateurs acquièrent une identité, la protection de cette identité et les technologies permettant cette protection.</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Yao_Jie.jpg</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
+      <c r="AB60" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Identity_management</t>
         </is>
@@ -7261,12 +7706,14 @@
           <t>Die Personalzeiterfassung (PZE) ist die Datenerfassung von Arbeitszeiten des Arbeitnehmers durch Erfassungsgeräte und wird innerhalb der Betriebswirtschaft thematisch dem Personalwesen zugeordnet. In Deutschland sind nur Systeme zur Aufzeichnung der Anwesenheit üblich. Die entsprechenden gesetzlichen Bestimmungen sind zum Dienstvertrag im Bürgerlichen Gesetzbuch festgelegt. Weitergehende Vereinbarungen im Arbeitsvertrag sind möglich. Eine weitergehende rechnerische Arbeitszeitermittlung kombiniert mit einer Prüfung der Produktivität ist nicht ohne ausdrückliche Zustimmung der Arbeitnehmer zulässig. Nach EuGH-Urteil vom 14. Mai 2019 müssen alle Mitgliedstaaten der EU die Arbeitgeber verpflichten, die Arbeitszeit ihrer Mitarbeiter genau, objektiv und verlässlich zu erfassen. Bei der Ausgestaltung der Arbeitszeiterfassung haben die nationalen Gesetzgeber laut EuGH dabei einen weiten Entscheidungsspielraum. Einzelheiten hierzu wird die Bundesregierung im nächsten Schritt prüfen.</t>
         </is>
       </c>
-      <c r="Y61" t="inlineStr">
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Allanah_Starr_2.jpg</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -7373,12 +7820,14 @@
         </is>
       </c>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr">
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cascade_lodge.jpg</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -7481,12 +7930,14 @@
           <t>Die Personalzeiterfassung (PZE) ist die Datenerfassung von Arbeitszeiten des Arbeitnehmers durch Erfassungsgeräte und wird innerhalb der Betriebswirtschaft thematisch dem Personalwesen zugeordnet. In Deutschland sind nur Systeme zur Aufzeichnung der Anwesenheit üblich. Die entsprechenden gesetzlichen Bestimmungen sind zum Dienstvertrag im Bürgerlichen Gesetzbuch festgelegt. Weitergehende Vereinbarungen im Arbeitsvertrag sind möglich. Eine weitergehende rechnerische Arbeitszeitermittlung kombiniert mit einer Prüfung der Produktivität ist nicht ohne ausdrückliche Zustimmung der Arbeitnehmer zulässig. Nach EuGH-Urteil vom 14. Mai 2019 müssen alle Mitgliedstaaten der EU die Arbeitgeber verpflichten, die Arbeitszeit ihrer Mitarbeiter genau, objektiv und verlässlich zu erfassen. Bei der Ausgestaltung der Arbeitszeiterfassung haben die nationalen Gesetzgeber laut EuGH dabei einen weiten Entscheidungsspielraum. Einzelheiten hierzu wird die Bundesregierung im nächsten Schritt prüfen.</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr">
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Allanah_Starr_2.jpg</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7595,10 +8046,20 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Access_control_topologies_main_controller_b.png</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr"/>
+          <t>Nell'ambito della sicurezza fisica e informatica il controllo degli accessi è un sistema di protezione che impedisce l'accesso a determinate risorse (in particolare risorse informatiche. Può essere implementato attraverso una lista di controllo degli accessi o altre procedure di autenticazione. Anche una serratura costituisce un basilare sistema di controllo accessi.</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>Le contrôle d'accès désigne les différentes solutions techniques qui permettent de sécuriser et gérer les accès physiques à un bâtiment ou un site, ou les accès logiques à un système d'information. On distingue ainsi le contrôle d'accès physiqueet le contrôle d'accès logique. Les entreprises sont de plus en plus amenées à tracer leurs accès informatique à l'aide d'un Reporting des Droits d'Accès.</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Access_control_topologies_main_controller_a.png</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -7705,12 +8166,14 @@
           <t>Die Personalzeiterfassung (PZE) ist die Datenerfassung von Arbeitszeiten des Arbeitnehmers durch Erfassungsgeräte und wird innerhalb der Betriebswirtschaft thematisch dem Personalwesen zugeordnet. In Deutschland sind nur Systeme zur Aufzeichnung der Anwesenheit üblich. Die entsprechenden gesetzlichen Bestimmungen sind zum Dienstvertrag im Bürgerlichen Gesetzbuch festgelegt. Weitergehende Vereinbarungen im Arbeitsvertrag sind möglich. Eine weitergehende rechnerische Arbeitszeitermittlung kombiniert mit einer Prüfung der Produktivität ist nicht ohne ausdrückliche Zustimmung der Arbeitnehmer zulässig. Nach EuGH-Urteil vom 14. Mai 2019 müssen alle Mitgliedstaaten der EU die Arbeitgeber verpflichten, die Arbeitszeit ihrer Mitarbeiter genau, objektiv und verlässlich zu erfassen. Bei der Ausgestaltung der Arbeitszeiterfassung haben die nationalen Gesetzgeber laut EuGH dabei einen weiten Entscheidungsspielraum. Einzelheiten hierzu wird die Bundesregierung im nächsten Schritt prüfen.</t>
         </is>
       </c>
-      <c r="Y65" t="inlineStr">
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Allanah_Starr_2.jpg</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7805,12 +8268,18 @@
           <t>Als Zahlungsverfahren werden im Zahlungsverkehr alle Formen und Prozesse der Übertragung von Eigentumsrechten an Zahlungsmitteln bezeichnet.</t>
         </is>
       </c>
-      <c r="Y66" t="inlineStr">
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>Un système de paiement est un « système constitué d’un ensemble d’instruments, de procédures bancaires et de systèmes interbancaires de transfert de fonds, destiné à assurer la circulation de la monnaie. » L'expression « système de paiement » peut désigner à la fois un système, tel que défini précédemment, ou, au niveau national, l'ensemble constitué par les instruments de paiement, les infrastructures, les établissements, les conventions, les lois, etc., permettant le transfert des fonds. L'article ne porte que sur la première de ces deux utilisations. Les systèmes de paiement traitent une large gamme d'instruments financiers (nature, montant...), selon des modalités variées (en continu ou par lots, avec ou sans compensation, en monnaie commerciale ou de banque centrale...). Certains sont spécialisés, d'autres traitent plusieurs instruments, selon des modalités variables. La typologie qui suit ne permet donc qu'une première analyse, et de nombreux cas de systèmes mixtes brouillent parfois les frontières entre ces catégories.</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Rastoke,_Slunj,_Croatia,_waterfall.jpg</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7913,12 +8382,14 @@
         </is>
       </c>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr">
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Meirelles-primeiramissa2.jpg</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -8025,12 +8496,14 @@
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr">
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Talent_management.jpg</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -8129,12 +8602,14 @@
         </is>
       </c>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr">
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Ceridian_wordmark.svg</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -8237,12 +8712,14 @@
         </is>
       </c>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr">
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Soldado_Spain.png</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
+      <c r="AB70" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Time-tracking_software</t>
         </is>
@@ -8341,12 +8818,14 @@
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr">
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Meirelles-primeiramissa2.jpg</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -8449,12 +8928,14 @@
         </is>
       </c>
       <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr">
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Meirelles-primeiramissa2.jpg</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -8561,12 +9042,18 @@
           <t>Automatic Data Processing, Inc. ist ein amerikanisches Unternehmen aus Roseland im US-Bundesstaat New Jersey. ADP beschäftigt weltweit rund 58.000 Mitarbeiter. Mit rund 620.000 Kunden ist ADP eines der weltweit größten unabhängigen IT-Service-Unternehmen und gilt als führender Anbieter von HR-Services wie Personalabrechnung, Zeiterfassung und Reisekostenmanagement. Im Geschäftsjahr 2013 erzielte ADP weltweit einen Umsatz von elf Milliarden US-Dollar. Das Unternehmen besteht aus zwei Geschäftsbereichen: ADP Employer Services und ADP Dealer Services. ADP Employer Services stellt mit mehr als 540.000 Kunden den bedeutend größeren der zwei Geschäftsbereiche dar. Laut Unternehmensangaben erfolgt in Deutschland jede fünfte Personalabrechnung mit Produkten von ADP. Der deutsche Hauptsitz von ADP befindet sich in Neu-Isenburg in der Nähe von Frankfurt am Main. Das europäische Hauptquartier befindet sich in Paris.</t>
         </is>
       </c>
-      <c r="Y73" t="inlineStr">
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>ADP Inc. est un fournisseur américain de solutions d’externalisation professionnelles.</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automatic_Data_Processing_(logo).svg</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -8665,12 +9152,14 @@
           <t>Offboarding beschreibt den bewusst gestalteten Trennungsprozess beim Ausscheiden eines Mitarbeiters aus dem Unternehmen, für das er bislang im Rahmen eines Arbeits- oder Dienstverhältnisses tätig war. Das Gegenteil, den Prozess beim Eintreten eines Mitarbeiters in das Unternehmen, beschreibt Onboarding.</t>
         </is>
       </c>
-      <c r="Y74" t="inlineStr">
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Skimmer1.jpg</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -8767,6 +9256,8 @@
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8871,10 +9362,16 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr">
         <is>
+          <t>Il sales management è una disciplina di business che si concentra sull'applicazione pratica di tecniche di vendita e sulla gestione delle attività di vendita di un'impresa. È una funzione di business importante poiché la vendita netta attraverso la vendita di prodotti e servizi ed il profitto derivante guidano la maggior parte degli affari commerciali. Questi sono anche i tipici obiettivi e KPI del sales management. Sales manager è il titolo tipico della persona il cui ruolo è il sales management. Tale ruolo è collegato per sua natura a formazione e sviluppo e leadership.</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Seitin_jud_Arad.png</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8969,12 +9466,14 @@
         </is>
       </c>
       <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr">
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Fishing_boat_in_Macduff_Harbour_-_geograph.org.uk_-_106549.jpg</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -9075,10 +9574,20 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Hamburg.CTA.Altenwerder.BungaRaya.wmt.jpg</t>
-        </is>
-      </c>
-      <c r="Z78" t="inlineStr"/>
+          <t>Esportazione, in economia, è la vendita in un altro Stato di beni e servizi.</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>L'exportation est l'action de vendre à l'étranger une partie de la production de biens ou de services d'un ensemble économique, pays ou région. C'est un terme miroir de celui d'importation, étant donné qu'une vente du pays X au pays Y est la même opération qu'un achat du pays Y au pays X.</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Export_And_Import.jpg</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -9183,10 +9692,20 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
+          <t>Il digital asset management (DAM è il sistema integrato per la . È il software che consente di creare, organizzare e distribuire i contenuti su differenti canali come ad esempio siti web e applicazioni, e aumenta l’efficacia della comunicazione.</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>La gestion des actifs numériques (GAN, traduit de l'anglais digital asset management, DAM) couvre l'alimentation, l'annotation, le classement, le stockage et la recherche d'actifs numériques, comme les images numériques fixes (illustrations, photos numériques, etc.) et images animées (animations, vidéos, etc.), les enregistrements sonores (musique, discours, etc.) et autres documents multimédias ou bureautiques. Les solutions DAM ont évolué de simples bases de stockage pour actifs numériques à de véritables plateformes collaboratives, tant pour des entreprises B2B que B2C, qui ont un impact sur différents départements : marketing, équipes créatives, gestion de la marque, ventes, et informatique.</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/I.R.S._Records_logo.svg</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
+      <c r="AB79" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Digital_asset_management</t>
         </is>
@@ -9303,10 +9822,20 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
+          <t>Il digital asset management (DAM è il sistema integrato per la . È il software che consente di creare, organizzare e distribuire i contenuti su differenti canali come ad esempio siti web e applicazioni, e aumenta l’efficacia della comunicazione.</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>La gestion des actifs numériques (GAN, traduit de l'anglais digital asset management, DAM) couvre l'alimentation, l'annotation, le classement, le stockage et la recherche d'actifs numériques, comme les images numériques fixes (illustrations, photos numériques, etc.) et images animées (animations, vidéos, etc.), les enregistrements sonores (musique, discours, etc.) et autres documents multimédias ou bureautiques. Les solutions DAM ont évolué de simples bases de stockage pour actifs numériques à de véritables plateformes collaboratives, tant pour des entreprises B2B que B2C, qui ont un impact sur différents départements : marketing, équipes créatives, gestion de la marque, ventes, et informatique.</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/I.R.S._Records_logo.svg</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
+      <c r="AB80" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Digital_asset_management</t>
         </is>
@@ -9419,10 +9948,20 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Xbar_chart_for_a_paired_xbar_and_R_chart.svg</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr"/>
+          <t>La gestione operativa o caratteristica di un'azienda è costituita dalla sua attività tipica o core business, o meglio l'attività principale svolta allo scopo di produrre utili. Si riferisce a tutti quei processi aziendali che concernono la sua missione principale, i suoi prodotti, i suoi servizi, il suo impatto sulla realtà circostante. In un'azienda industriale, la gestione operativa è composta dai processi industriali e commerciali: acquisto delle materie prime, loro trasformazione in prodotti, vendita degli stessi prodotti. In questo esempio, la gestione operativa si concentra principalmente nel massimizzare l'efficienza produttiva dei beni e nel massimizzarne la vendita. Nel conto economico, il risultato di tale gestione è il reddito operativo, vale a dire i ricavi ottenuti dalla vendita dei beni prodotti o dei servizi erogati dalla società stessa meno i costi sostenuti per produrli.</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>Le management des opérations est un domaine du management dont le but est de superviser la conception et le contrôle du processus de production et la refonte des opérations commerciales dans la production de biens ou de services. Il implique la responsabilité de veiller à ce que les opérations commerciales soient efficaces, étant donnée la présence de contraintes en termes d'utilisation de ressources. Ceci est généralement requis si une entreprise veut satisfaire les exigences du client. Le management des opérations se préoccupe du management du processus qui convertit les entrées (sous la forme de matériaux, de main-d'œuvre et d'énergie) en sorties (sous la forme de biens et/ou de services). Le management des opérations a pour objectif de permettre aux entreprises d'atteindre l'excellence opérationnelle. Cela répond donc à un enjeu d'agilité et de compétitivité. Le management des opérations est un des grands enjeux de l'Industrie du futur. Pour François Pellerin, directeur du projet Usine du futur de la région Aquitaine - Limousin - Poitou-Charentes : "Le management intermédiaire est le gros point faible de nos PME, souligne François Pellerin, directeur du projet Usine du futur de la région Aquitaine - Limousin - Poitou-Charentes. Il faut absolument former ce management à son nouveau rôle. Aujourd’hui, c’est la base qui sait. Le temps de petits chefs est révolu. C’est un changement culturel, qui est difficile à réaliser en France."</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Shoemaker_Book_of_Trades.png</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -9547,10 +10086,26 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
+          <t>CMMS (sigla dell'espressione inglese Computerized Maintenance Management System - "Sistema computerizzato della gestione della manutenzione" è il termine con il quale si identifica un'applicazione software che supporta il sistema informativo per la gestione della manutenzione spesso integrata con l'Enterprise Resources Planning (ERP aziendale. Poiché si tratta di un errore molto diffuso, è importante non confondere il Sistema Informativo di Manutenzione, con l'applicazione sottostante che lo supporta. L'applicazione si può acquistare, il sistema informativo è il frutto del lavoro quotidiano dei tecnici, senza il quale nessun risultato atteso di miglioramento è raggiungibile. La norma UNI 10584 recita infatti che il Sistema Informativo di Manutenzione ... "è un insieme di norme e procedure" ... "e può essere supportato in diverse forme" ... a partire da quella cartacea che fino a trent'anni fa era la più diffusa, per passare ai prodotti Office e per finire con le applicazioni dedicate dette CMMS (in inglese o GMAO (in francese, che oggi rappresentano lo strumento più diffuso per supportare il Sistema Informativo di Manutenzione. Il sistema informativo nasce con lo scopo di progettare, organizzare e gestire la manutenzione interna di aziende che non si occupano primariamente di manutenzione, o la manutenzione offerta da aziende specializzate, che fanno della manutenzione il loro Core business. L'applicazione software diventa quindi il principale strumento a supporto dei servizi di manutenzione, i quali se realizzeranno all'interno di essa un sistema informativo coerente con i fabbisogni espressi dai sistemi mantenuti e con l'organizzazione del servizio di manutenzione, potranno realizzare i seguenti obiettivi: 
+* miglioramenti nella prestazione impiantistica 
+* riduzione dei costi propri di manutenzione 
+* miglioramenti nella progettazione del sistema di manutenzione 
+* miglioramenti di efficienza/efficacia delle azioni manutentive 
+* miglioramenti nella definizione e nella gestione dei piani di manutenzione, delle politiche di manutenzione preventiva delle attività diagnostiche 
+* miglioramenti nella gestione dei ricambi e nella definizione dei corretti livelli di scorta</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>La gestion de maintenance assistée par ordinateur (souvent abrégée en GMAO) est une méthode de gestion assistée d'un logiciel destiné aux services de maintenance d'une entreprise afin de l'aider dans ses activités.</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/CMMS_Plan_Steps.jpg</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -9651,10 +10206,22 @@
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Calculatorwatch.jpg</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
+          <t>Un software calcolatrice è una calcolatrice implementata come programma per computer, anziché come dispositivo fisico. I software di questa categoria rientrano tra gli strumenti interattivi più semplici e, come tali: 
+* possono fornire all'utente solo un'operazione alla volta; 
+* possono essere usati per eseguire qualsiasi processo che consiste in una sequenza di operazioni definite; 
+* non hanno altro scopo che questi processi, poiché le operazioni sono la loro unica, o almeno la principale, caratteristica. Volendo riprodurre le sole funzionalità di una normale calcolatrice di solito questi programmi: 
+* hanno solo un piccolo insieme di operazioni relativamente semplici; 
+* possono eseguire processi relativamente brevi; 
+* non accettano grandi quantità di dati in ingresso e/o non producono molti risultati in uscita contemporaneamente.</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Gcalctool-basic.png</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Software_calculator</t>
         </is>
@@ -9755,28 +10322,38 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>maby clam managment?</t>
+          <t>https://dbpedia.org/data/Customer_relationship_management</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Customer relationship management (CRM) is a process in which a business or other organization administers its interactions with customers, typically using data analysis to study large amounts of information. CRM systems compile data from a range of different communication channels, including a company's website, telephone, email, live chat, marketing materials and more recently, social media. They allow businesses to learn more about their target audiences and how to best cater for their needs, thus retaining customers and driving sales growth. CRM may be used with past, present or potential customers. The concepts, procedures, and rules that a corporation follows when communicating with its consumers are referred to as customer relationship management (CRM). This complete connection covers direct contact with customers, such as sales and service-related operations, forecasting, and the analysis of consumer patterns and behaviors, from the perspective of the company.</t>
         </is>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>Customer-Relationship-Management, kurz CRM (englisch für Kundenbeziehungsmanagement oder Kundenpflege), bezeichnet die konsequente Ausrichtung eines Unternehmens auf seine Kunden und die systematische Gestaltung der Kundenbeziehungsprozesse. Die dazugehörende Dokumentation und Verwaltung von Kundenbeziehungen ist ein wichtiger Baustein und ermöglicht ein vertieftes Beziehungsmarketing. In vielen Branchen (z. B. Telekommunikation, Versandhandel, Dienstleistungsunternehmen) sind Beziehungen zwischen Unternehmen und Kunden langfristig ausgerichtet. Mittels CRM werden diese Kundenbeziehungen gepflegt, was sich maßgeblich auf den Unternehmenserfolg auswirken soll.</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>In economia aziendale il concetto di Customer Relationship Management (termine inglese spesso abbreviato in CRM o gestione delle relazioni con i clienti è legato al concetto di gestione della base clienti e fidelizzazione dei clienti. L'obiettivo del CRM è permettere alle aziende di restare in contatto con i propri clienti in modo continuativo, attraverso strategie di marketing orientate al miglioramento della relazione con il cliente. In un'impresa "market-oriented" il mercato non è più rappresentato solo dal cliente, ma dall'ambiente circostante, con il quale l'impresa deve stabilire relazioni durevoli di breve e lungo periodo, tenendo conto dei valori dell'individuo/cliente, della società e dell'ambiente. Quindi l'attenzione verso il cliente è cruciale e determinante. Per questo motivo il marketing management deve pianificare e implementare opportune strategie per gestire una risorsa così importante.</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>La gestion de la relation client (GRC), ou gestion des relations avec la clientèle, est l'ensemble des outils et techniques destinés à tenir compte des souhaits et des attentes des clients et des prospects, afin de les satisfaire et de les fidéliser en leur offrant ou proposant des services. Les applications informatiques de la GRC sont des progiciels qui permettent de traiter directement avec le client, que ce soit sur le plan de la vente, du marketing ou du service, et que l'on regroupe souvent sous le terme de « front-office » par opposition aux outils de « back-office » que sont les progiciels de gestion intégrés (PGI). Les progiciels de GRC se répartissent en trois types : le GRC collaboratif (ce sont les canaux d'échange avec les clients), le GRC analytique (qui correspond à l'analyse des informations reçues) et le GRC opérationnel (qui sert à automatiser les relations de l'entreprise avec les clients grâce à des processus préétablis). Dans un sens moins restrictif, la gestion de la relation client regroupe des dispositifs et opérations de marketing ou de support afin de maximiser le chiffre d'affaires par client, et ce, à travers tous les canaux de contact possibles. Aujourd'hui, avec la numérisation des activités, la gestion de la relation client est directement et étroitement liée aux plates-formes de données.</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/CRMTypesComponents2.png</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Customer_relationship_management</t>
         </is>
       </c>
     </row>
@@ -9878,15 +10455,25 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Mit Lieferkette (engl. supply chain [səˈplaɪ tʃeɪn]) wird das Netzwerk von Organisationen bezeichnet, die über vor- und nachgelagerte Verbindungen an den verschiedenen Prozessen und Tätigkeiten der Wertschöpfung in Form von Produkten und Dienstleistungen für den Endkunden beteiligt sind. Das Konzept der Lieferkette gehört zum Standardrepertoire der Wirtschaftswissenschaften. Insbesondere ist es Gegenstand des Supply-Chain-Managements (Lieferkettenmanagement). Abzugrenzen ist die Lieferkette von der Wertkette und der Transportkette. Häufig wird eine resiliente Lieferkette angestrebt.</t>
+          <t>Supply-Chain-Management (SCM) ist in Unternehmen der Anglizismus für „innerbetrieblich und entlang der Lieferkette auch zwischenbetrieblich die auf das Gesamtsystem ausgerichtete strategische Koordinierung zwischen den traditionellen Geschäftsfunktionen und den taktischen Entscheidungen zwischen diesen Geschäftsfunktionen mit dem Ziel der Verbesserung der langfristigen Leistungsfähigkeit der einzelnen Unternehmen und der Lieferkette als Ganzes“.</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
+          <t>La gestione della catena di distribuzione (supply chain management, SCM riguarda diverse attività logistiche delle aziende, con l'obiettivo di controllare le prestazioni e migliorarne l'efficienza. Tra queste attività sono incluse la catalogazione sistematica dei prodotti e il coordinamento strategico dei vari membri della catena di distribuzione. Il supply chain management fornisce quindi un collegamento e si occupa di coordinare le attività di produzione, acquisto e logistica. Si divide in "supply chain planning system", il quale aiuta l'azienda nel generare le previsioni di produzione e nello sviluppare i piani di acquisto e produzione, e in "supply chain execution system", il quale consente il coordinamento e il controllo dei flussi di prodotti che ci sono tra il magazzino e i vari centri di distribuzione. Sono fondamentali per ciò che riguarda il Business, in particolare i sistemi SCM, se utilizzati nella maniera corretta, consentono di garantire un elevato livello di servizio verso il cliente.</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>La gestion de la chaîne logistique (GCL; en anglais, supply chain management ou SCM) est un savoir-faire d'application qui vise une mise en œuvre ou une gestion opérationnelle, soit le respect sur le terrain de l'enchaînement des tâches (illustré par le terme de « chaîne »), ainsi que le bon fonctionnement du système logistique, tel que fixé par le cahier des charges logistique de l'organisation concernée. L'objectif de la gestion de la chaîne logistique est de contribuer à la complexité de cette chaîne en proposant les différents mécanismes de coordination (Atour Taghipour, 2014). Récemment, la résilience de la chaîne d’approvisionnement est devenue un élément de plus en plus important du SCM. En outre, les pratiques de gestion durable jouent un rôle croissant dans la SCM.</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/DM_Freiwasserschwimmen_2009_Lindau.jpg</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
+      <c r="AB85" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Supply_chain_management</t>
         </is>
@@ -9999,10 +10586,20 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Relationship_of_data,_information_and_intelligence.png</t>
+          <t>Nell'ambito della scienza dei dati l'analisi dei dati è un processo di ispezione, pulizia, trasformazione e modellazione di dati con il fine di evidenziare informazioni che suggeriscano conclusioni e supportino le decisioni strategiche aziendali. L'analisi di dati ha molti approcci e sfaccettature, il che comprende tecniche diversissime tra loro che si riconoscono con una serie di definizioni varie nel commercio, le scienze naturali e sociali. Il data mining è una tecnica particolare di analisi dei dati che si focalizza nella modellazione e scoperta di conoscenza per scopi predittivi piuttosto che descrittivi. Il business intelligence identifica l'analisi di dati che si basa fondamentalmente sull'aggregazione, focalizzandosi sulle informazioni aziendali. Nell'ambito dei big data si parla di big data analytics. Nelle applicazioni statistiche, gli studiosi dividono l'analisi dei dati in statistica descrittiva, (ADE e analisi dei dati di conferma (ADC. L'ADE si concentra sullo scoprire nuove caratteristiche presenti nei dati, mentre l'ADC nel confermare o falsificare le ipotesi esistenti. L'analisi predittiva si concentra sull'applicazione di modelli statistici o strutturali per classificazione o il forecasting predittivo, mentre l'analisi testuale applica tecniche statistiche, linguistiche e strutturali per estrarre e classificare informazioni da fonti testuali, una categoria di . L' è un precursore dell'analisi dei dati, la quale è collegata alla .</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
+        <is>
+          <t>L’analyse des données (aussi appelée analyse exploratoire des données ou AED) est une famille de méthodes statistiques dont les principales caractéristiques sont d'être multidimensionnelles et descriptives. Dans l'acception française, la terminologie « analyse des données » désigne donc un sous-ensemble de ce qui est appelé plus généralement la statistique multivariée. Certaines méthodes, pour la plupart géométriques, aident à faire ressortir les relations pouvant exister entre les différentes données et à en tirer une information statistique qui permet de décrire de façon plus succincte les principales informations contenues dans ces données. D'autres techniques permettent de regrouper les données de façon à faire apparaître clairement ce qui les rend homogènes, et ainsi mieux les connaître. L’analyse des données permet de traiter un nombre très important de données et de dégager les aspects les plus intéressants de la structure de celles-ci. Le succès de cette discipline dans les dernières années est dû, dans une large mesure, aux représentations graphiques fournies. Ces graphiques peuvent mettre en évidence des relations difficilement saisies par l’analyse directe des données ; mais surtout, ces représentations ne sont pas liées à une opinion « a priori » sur les lois des phénomènes analysés contrairement aux méthodes de la statistique classique. Les fondements mathématiques de l’analyse des données ont commencé à se développer au début du XXe siècle, mais ce sont les ordinateurs qui ont rendu cette discipline opérationnelle, et qui en ont permis une utilisation très étendue. Mathématiques et informatique sont ici intimement liées.</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Data_visualization_process_v1.png</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Data_analysis</t>
         </is>
@@ -10107,10 +10704,18 @@
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
+          <t>L'espressione negozio online (o negozio in rete, negozio virtuale, più raramente con le espressioni inglesi webshop, online shop e online store si riferisce ad una tipologia di commercio elettronico nella quale il mezzo di realizzazione dell'acquisto è il sito web, e in cui la transazione economica si svolge, appunto, interamente via internet.La consegna del prodotto, invece, si differenzia a seconda delle caratteristiche dello stesso: 
+* In linea, se in formato elettronico. Per esempio canzoni in formato MP3, programmi, videogiochi, applicazioni (quali le app dell'IPhone o per Android e altri (spesso questi negozi online fanno parte degli store alternativi; 
+* Trasporto fisico negli altri casi. I negozi in linea si rivolgono generalmente a corrieri espressi (es. FedEx, UPS, TNT, ecc. in base al mercato da servire e alla velocità di consegna garantita ai clienti. Possono, naturalmente, esistere tipologie identificabili con una singola categoria e tipologie ibride. L'accostamento del termine "negozio" a questa tipologia di commercio elettronico intende evocare l'analogia tra l'acquisto di prodotti e servizi in rete e la spesa "fisica", effettuata in un negozio tradizionale o in un centro commerciale. Benché il riferimento richiami principalmente il concetto di vendita al dettaglio, un negozio virtuale può tranquillamente rivolgersi al commercio interaziendale (detto anche business to business.</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automated_online_assistant.png</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
+      <c r="AB87" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Online_shopping</t>
         </is>
@@ -10223,10 +10828,20 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
+          <t>Un learning management system (LMS è la piattaforma applicativa (o insieme di programmi che permette l'erogazione dei corsi in modalità e-learning al fine di contribuire a realizzare le finalità previste dal progetto educativo dell'istituzione proponente. Il learning management system presidia la distribuzione dei corsi on-line, l'iscrizione degli studenti, il tracciamento delle attività on-line. Gli LMS spesso operano in associazione con gli LCMS (learning content management system che gestiscono direttamente i contenuti, mentre all'LMS resta la gestione degli utenti e l'analisi delle statistiche.</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>En technologies de l'information et de la communication, un learning management system (LMS) ou learning support system (LSS) est un logiciel qui accompagne et gère un processus d'apprentissage ou un parcours pédagogique. En français, on parle de « plateforme d'apprentissage », « système de gestion de l'apprentissage », « centre de formation virtuel », « plate-forme e-learning », « formation ouverte et à distance » (FOAD) ou « formation en ligne », et, particulièrement au Québec, d'« environnement numérique d'apprentissage » (ENA). Ce genre de système informatique propose un espace numérique de travail (ENT) comprenant des tests d'évaluation qui sont soit soumis à validation par l'enseignant soit proposées comme activités de régulation en auto-évaluation. Un LMS s'adosse généralement à un logiciel de gestion de la formation pour la partie administrative et logistique de la formation, notamment présentielle. Il existe des standards normalisant les contenus pédagogiques : LOM et SCORM. Cet article contient une ou plusieurs listes (novembre 2017). Cet article contient une ou plusieurs listes. Ces listes gagneraient à être rédigées sous la forme de paragraphes synthétiques, plus agréables à la lecture, les listes pouvant être aussi introduites par une partie rédigée et sourcée, de façon à bien resituer les différents items. En effet, Wikipédia n'a pas pour rôle de constituer une base de données, et privilégie un contenu encyclopédique à la recherche de l'exhaustivité.</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Battle_of_Milliken's_Bend.jpg</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
+      <c r="AB88" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Learning_management_system</t>
         </is>
@@ -10339,10 +10954,20 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Xbar_chart_for_a_paired_xbar_and_R_chart.svg</t>
-        </is>
-      </c>
-      <c r="Z89" t="inlineStr"/>
+          <t>La gestione operativa o caratteristica di un'azienda è costituita dalla sua attività tipica o core business, o meglio l'attività principale svolta allo scopo di produrre utili. Si riferisce a tutti quei processi aziendali che concernono la sua missione principale, i suoi prodotti, i suoi servizi, il suo impatto sulla realtà circostante. In un'azienda industriale, la gestione operativa è composta dai processi industriali e commerciali: acquisto delle materie prime, loro trasformazione in prodotti, vendita degli stessi prodotti. In questo esempio, la gestione operativa si concentra principalmente nel massimizzare l'efficienza produttiva dei beni e nel massimizzarne la vendita. Nel conto economico, il risultato di tale gestione è il reddito operativo, vale a dire i ricavi ottenuti dalla vendita dei beni prodotti o dei servizi erogati dalla società stessa meno i costi sostenuti per produrli.</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>Le management des opérations est un domaine du management dont le but est de superviser la conception et le contrôle du processus de production et la refonte des opérations commerciales dans la production de biens ou de services. Il implique la responsabilité de veiller à ce que les opérations commerciales soient efficaces, étant donnée la présence de contraintes en termes d'utilisation de ressources. Ceci est généralement requis si une entreprise veut satisfaire les exigences du client. Le management des opérations se préoccupe du management du processus qui convertit les entrées (sous la forme de matériaux, de main-d'œuvre et d'énergie) en sorties (sous la forme de biens et/ou de services). Le management des opérations a pour objectif de permettre aux entreprises d'atteindre l'excellence opérationnelle. Cela répond donc à un enjeu d'agilité et de compétitivité. Le management des opérations est un des grands enjeux de l'Industrie du futur. Pour François Pellerin, directeur du projet Usine du futur de la région Aquitaine - Limousin - Poitou-Charentes : "Le management intermédiaire est le gros point faible de nos PME, souligne François Pellerin, directeur du projet Usine du futur de la région Aquitaine - Limousin - Poitou-Charentes. Il faut absolument former ce management à son nouveau rôle. Aujourd’hui, c’est la base qui sait. Le temps de petits chefs est révolu. C’est un changement culturel, qui est difficile à réaliser en France."</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Shoemaker_Book_of_Trades.png</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -10447,12 +11072,22 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
+          <t>OTRS, originariamente sigla di Open-source Ticket Request System (sistema open source per la richiesta di ticket, è un pacchetto software che consente ad aziende, enti o istituzioni di assegnare dei ticket di segnalazione a ciascuna delle domande ricevute, rendendo molto più semplice la gestione delle richieste di assistenza (via e-mail o telefono e gli altri scambi di informazioni con i propri clienti o utenti.Iniziato nel 2001 come progetto open source, dal dicembre 2020 il supporto alla community edition è cessato ed è disponibile solo con licenza proprietaria dal fornitore OTRS AG.</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>Open-source Ticket Request System (OTRS, littéralement « système open source de requêtes par tickets ») est un logiciel open source de gestion de la relation client ou de gestion des services d'assistance. Une entreprise, une organisation ou une institution peut l'utiliser pour assigner des « tickets » aux requêtes qui lui sont faites via le centre d'assistance ou le service de dépannage. Ce système permet de faciliter le traitement des demandes d'assistance ou de dépannage et toute demande faite par téléphone ou courrier électronique. OTRS est distribué sous licence AGPL.</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo-no-tagline-CMYK.jpg</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Service_management</t>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Help_desk</t>
         </is>
       </c>
     </row>
@@ -10555,10 +11190,18 @@
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr">
         <is>
+          <t>L'espressione negozio online (o negozio in rete, negozio virtuale, più raramente con le espressioni inglesi webshop, online shop e online store si riferisce ad una tipologia di commercio elettronico nella quale il mezzo di realizzazione dell'acquisto è il sito web, e in cui la transazione economica si svolge, appunto, interamente via internet.La consegna del prodotto, invece, si differenzia a seconda delle caratteristiche dello stesso: 
+* In linea, se in formato elettronico. Per esempio canzoni in formato MP3, programmi, videogiochi, applicazioni (quali le app dell'IPhone o per Android e altri (spesso questi negozi online fanno parte degli store alternativi; 
+* Trasporto fisico negli altri casi. I negozi in linea si rivolgono generalmente a corrieri espressi (es. FedEx, UPS, TNT, ecc. in base al mercato da servire e alla velocità di consegna garantita ai clienti. Possono, naturalmente, esistere tipologie identificabili con una singola categoria e tipologie ibride. L'accostamento del termine "negozio" a questa tipologia di commercio elettronico intende evocare l'analogia tra l'acquisto di prodotti e servizi in rete e la spesa "fisica", effettuata in un negozio tradizionale o in un centro commerciale. Benché il riferimento richiami principalmente il concetto di vendita al dettaglio, un negozio virtuale può tranquillamente rivolgersi al commercio interaziendale (detto anche business to business.</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automated_online_assistant.png</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr">
+      <c r="AB91" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Online_shopping</t>
         </is>
@@ -10663,10 +11306,20 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Xbar_chart_for_a_paired_xbar_and_R_chart.svg</t>
-        </is>
-      </c>
-      <c r="Z92" t="inlineStr"/>
+          <t>La gestione operativa o caratteristica di un'azienda è costituita dalla sua attività tipica o core business, o meglio l'attività principale svolta allo scopo di produrre utili. Si riferisce a tutti quei processi aziendali che concernono la sua missione principale, i suoi prodotti, i suoi servizi, il suo impatto sulla realtà circostante. In un'azienda industriale, la gestione operativa è composta dai processi industriali e commerciali: acquisto delle materie prime, loro trasformazione in prodotti, vendita degli stessi prodotti. In questo esempio, la gestione operativa si concentra principalmente nel massimizzare l'efficienza produttiva dei beni e nel massimizzarne la vendita. Nel conto economico, il risultato di tale gestione è il reddito operativo, vale a dire i ricavi ottenuti dalla vendita dei beni prodotti o dei servizi erogati dalla società stessa meno i costi sostenuti per produrli.</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>Le management des opérations est un domaine du management dont le but est de superviser la conception et le contrôle du processus de production et la refonte des opérations commerciales dans la production de biens ou de services. Il implique la responsabilité de veiller à ce que les opérations commerciales soient efficaces, étant donnée la présence de contraintes en termes d'utilisation de ressources. Ceci est généralement requis si une entreprise veut satisfaire les exigences du client. Le management des opérations se préoccupe du management du processus qui convertit les entrées (sous la forme de matériaux, de main-d'œuvre et d'énergie) en sorties (sous la forme de biens et/ou de services). Le management des opérations a pour objectif de permettre aux entreprises d'atteindre l'excellence opérationnelle. Cela répond donc à un enjeu d'agilité et de compétitivité. Le management des opérations est un des grands enjeux de l'Industrie du futur. Pour François Pellerin, directeur du projet Usine du futur de la région Aquitaine - Limousin - Poitou-Charentes : "Le management intermédiaire est le gros point faible de nos PME, souligne François Pellerin, directeur du projet Usine du futur de la région Aquitaine - Limousin - Poitou-Charentes. Il faut absolument former ce management à son nouveau rôle. Aujourd’hui, c’est la base qui sait. Le temps de petits chefs est révolu. C’est un changement culturel, qui est difficile à réaliser en France."</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Shoemaker_Book_of_Trades.png</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -10779,10 +11432,20 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Xbar_chart_for_a_paired_xbar_and_R_chart.svg</t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr"/>
+          <t>La gestione operativa o caratteristica di un'azienda è costituita dalla sua attività tipica o core business, o meglio l'attività principale svolta allo scopo di produrre utili. Si riferisce a tutti quei processi aziendali che concernono la sua missione principale, i suoi prodotti, i suoi servizi, il suo impatto sulla realtà circostante. In un'azienda industriale, la gestione operativa è composta dai processi industriali e commerciali: acquisto delle materie prime, loro trasformazione in prodotti, vendita degli stessi prodotti. In questo esempio, la gestione operativa si concentra principalmente nel massimizzare l'efficienza produttiva dei beni e nel massimizzarne la vendita. Nel conto economico, il risultato di tale gestione è il reddito operativo, vale a dire i ricavi ottenuti dalla vendita dei beni prodotti o dei servizi erogati dalla società stessa meno i costi sostenuti per produrli.</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>Le management des opérations est un domaine du management dont le but est de superviser la conception et le contrôle du processus de production et la refonte des opérations commerciales dans la production de biens ou de services. Il implique la responsabilité de veiller à ce que les opérations commerciales soient efficaces, étant donnée la présence de contraintes en termes d'utilisation de ressources. Ceci est généralement requis si une entreprise veut satisfaire les exigences du client. Le management des opérations se préoccupe du management du processus qui convertit les entrées (sous la forme de matériaux, de main-d'œuvre et d'énergie) en sorties (sous la forme de biens et/ou de services). Le management des opérations a pour objectif de permettre aux entreprises d'atteindre l'excellence opérationnelle. Cela répond donc à un enjeu d'agilité et de compétitivité. Le management des opérations est un des grands enjeux de l'Industrie du futur. Pour François Pellerin, directeur du projet Usine du futur de la région Aquitaine - Limousin - Poitou-Charentes : "Le management intermédiaire est le gros point faible de nos PME, souligne François Pellerin, directeur du projet Usine du futur de la région Aquitaine - Limousin - Poitou-Charentes. Il faut absolument former ce management à son nouveau rôle. Aujourd’hui, c’est la base qui sait. Le temps de petits chefs est révolu. C’est un changement culturel, qui est difficile à réaliser en France."</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Shoemaker_Book_of_Trades.png</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -10904,12 +11567,18 @@
 * Dienstleisterauswahl. Da die angebotenen Softwaresysteme aus unterschiedlichen Anforderungen heraus entstanden sind, unterscheiden sie sich deutlich in der Abdeckung dieser Funktionen. Außerdem kann sich der Leistungsumfang anderer Systeme mit dem von Transport Management Software überschneiden.</t>
         </is>
       </c>
-      <c r="Y94" t="inlineStr">
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>Un Transport Management System (TMS ou système de gestion des transports) désigne une catégorie de progiciels destinés à gérer les opérations de transport. Il existe de nombreuses TMS qui recouvrent en fait une grande variété d'activités ou d'étapes dans la chaine logistique. On distingue deux types principaux : Les TMS chargeurs et les TMS transporteurs.</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/JenniferGale.jpg</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -11017,15 +11686,25 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Mit Lieferkette (engl. supply chain [səˈplaɪ tʃeɪn]) wird das Netzwerk von Organisationen bezeichnet, die über vor- und nachgelagerte Verbindungen an den verschiedenen Prozessen und Tätigkeiten der Wertschöpfung in Form von Produkten und Dienstleistungen für den Endkunden beteiligt sind. Das Konzept der Lieferkette gehört zum Standardrepertoire der Wirtschaftswissenschaften. Insbesondere ist es Gegenstand des Supply-Chain-Managements (Lieferkettenmanagement). Abzugrenzen ist die Lieferkette von der Wertkette und der Transportkette. Häufig wird eine resiliente Lieferkette angestrebt.</t>
+          <t>Supply-Chain-Management (SCM) ist in Unternehmen der Anglizismus für „innerbetrieblich und entlang der Lieferkette auch zwischenbetrieblich die auf das Gesamtsystem ausgerichtete strategische Koordinierung zwischen den traditionellen Geschäftsfunktionen und den taktischen Entscheidungen zwischen diesen Geschäftsfunktionen mit dem Ziel der Verbesserung der langfristigen Leistungsfähigkeit der einzelnen Unternehmen und der Lieferkette als Ganzes“.</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
+          <t>La gestione della catena di distribuzione (supply chain management, SCM riguarda diverse attività logistiche delle aziende, con l'obiettivo di controllare le prestazioni e migliorarne l'efficienza. Tra queste attività sono incluse la catalogazione sistematica dei prodotti e il coordinamento strategico dei vari membri della catena di distribuzione. Il supply chain management fornisce quindi un collegamento e si occupa di coordinare le attività di produzione, acquisto e logistica. Si divide in "supply chain planning system", il quale aiuta l'azienda nel generare le previsioni di produzione e nello sviluppare i piani di acquisto e produzione, e in "supply chain execution system", il quale consente il coordinamento e il controllo dei flussi di prodotti che ci sono tra il magazzino e i vari centri di distribuzione. Sono fondamentali per ciò che riguarda il Business, in particolare i sistemi SCM, se utilizzati nella maniera corretta, consentono di garantire un elevato livello di servizio verso il cliente.</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>La gestion de la chaîne logistique (GCL; en anglais, supply chain management ou SCM) est un savoir-faire d'application qui vise une mise en œuvre ou une gestion opérationnelle, soit le respect sur le terrain de l'enchaînement des tâches (illustré par le terme de « chaîne »), ainsi que le bon fonctionnement du système logistique, tel que fixé par le cahier des charges logistique de l'organisation concernée. L'objectif de la gestion de la chaîne logistique est de contribuer à la complexité de cette chaîne en proposant les différents mécanismes de coordination (Atour Taghipour, 2014). Récemment, la résilience de la chaîne d’approvisionnement est devenue un élément de plus en plus important du SCM. En outre, les pratiques de gestion durable jouent un rôle croissant dans la SCM.</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/DM_Freiwasserschwimmen_2009_Lindau.jpg</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr">
+      <c r="AB95" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Supply_chain_management</t>
         </is>
@@ -11136,12 +11815,14 @@
         </is>
       </c>
       <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr">
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/IA_VT_Colorful_cover.jpg</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -11250,10 +11931,20 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
+          <t>Computer-Aided Manufacturing è una espressione della lingua inglese, utilizzata informatica e nell'ingegneria meccanica traducibile in italiano con "produzione assistita da computer".</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>Le but de la fabrication assistée par ordinateur ou FAO (en anglais, computer-aided manufacturing ou CAM) est d'écrire le fichier contenant le programme de pilotage d'une machine-outil à commande numérique. Ce fichier va décrire précisément les mouvements que doit exécuter la machine-outil pour réaliser la pièce demandée. On appelle également ce type de fichiers : programme ISO ou blocs ISO.</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/CAD_model_and_CNC_machined_part.png</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr">
+      <c r="AB97" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_manufacturing</t>
         </is>
@@ -11370,10 +12061,20 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Carillon_of_PeterAndPaulCathedral_1.jpg</t>
+          <t>La gestione delle risorse umane (dall'inglese Human Resource Management è una funzione aziendale che riguarda la gestione del personale nel suo più vasto significato.</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
+        <is>
+          <t>La gestion des ressources humaines ou GRH (anciennement gestion du personnel ; parfois appelé gestion du capital humain) est l'ensemble des pratiques mises en œuvre pour administrer, mobiliser et développer les ressources humaines impliquées dans l'activité d'une organisation. Ces ressources humaines sont l'ensemble des salariés de tous statuts (ouvriers, employés, cadres) faisant partie de l'organisation mais aussi – et de plus en plus – liés à elle par des rapports de sujétion (ainsi, les prestataires extérieurs ou sous-traitants sont considérés comme faisant partie de fait du périmètre des ressources humaines de l'entreprise). Dans un premier temps, cette fonction est entendue dans une perspective opérationnelle. Il s'agit d'administrer un personnel qui peut être numériquement important et réparti en différents niveaux de hiérarchie ou de qualification : (gestion de la paie, droit du travail, contrat de travail, etc.). Dans un second temps, la fonction acquiert une dimension plus fonctionnelle[pas clair]. Il s'agit d'améliorer la communication transversale entre services et processus et de mettre en œuvre un développement des salariés à l'intérieur de l'entreprise (gestion des carrières, gestion prévisionnelle des emplois et des compétences ou (GPEC), recrutement (sélection), formation, etc.)</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/ILRschools6.jpg</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Human_resource_management</t>
         </is>
@@ -11486,10 +12187,20 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
+          <t>In campo economico ed organizzativo con il termine compliance normativa (o regulatory compliance, in italiano anche conformità normativa si intende la conformità a determinate norme, regole o standard; nelle aziende la compliance normativa indica il rispetto di specifiche disposizioni impartite dal legislatore, da autorità di settore nonché di regolamentazioni interne alle società stesse. In banca, ad esempio, la "funzione di Compliance" ha il compito di verificare che "le procedure interne siano coerenti con l'obiettivo di prevenire la violazione di norme di etero regolamentazione (leggi e regolamenti e autoregolamentazione (codici di condotta, codici etici" al fine di evitare rischi di "incorrere in sanzioni, perdite finanziarie o danni di reputazione in conseguenza di violazioni di norme legislative, regolamentari o di autoregolamentazione".Il concetto di compliance in azienda è solitamente associato anche al concetto di onestà ed etica nei comportamenti spesso in relazione a veri e propri codici etici o principi deontologici dei settori di appartenenza.La norma UNI EN ISO 19600:2016 è la norma guida di riferimento "Compliance management system" per l'applicazione della compliance in qualsiasi organizzazione.In Italia esiste una Associazione, ASSOCOMPLIANCE, che qualifica i Compliance manager per conto del Ministero dello Sviluppo in base alla l. 4/13 e si occupa della diffusione di tale norma ISO.</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>La conformité est l’état de ce qui présente un accord complet, une adaptation totale.La conformité est un terme employé en droit et en gestion de la qualité. Il est répandu en banque et en assurance. Dans l’univers de la finance et du gouvernement d'entreprise, on utilise fréquemment le terme anglais compliance.</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Harry_Hopkins,_Steve_Early,_and_Chip_Bohlen_at_the_Livadia_Palace_in_the_Crimea_-_NARA_-_197290.jpg</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr">
+      <c r="AB99" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Regulatory_compliance</t>
         </is>
@@ -11605,10 +12316,25 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Fire_alarm001.jpg</t>
-        </is>
-      </c>
-      <c r="Z100" t="inlineStr"/>
+          <t>Per impianto di allarme incendio si intende un insieme di dispositivi elettronici predisposti per rilevare la presenza di un incendio dentro un edificio, per segnalare l'allarme sonoro e visivo a tutti i presenti e per segnalare l'allarme alla portineria e ai soccorritori esterni. Gli impianti di allarme incendio possono venire installati e messi in funzione negli stabilimenti industriali, edifici pluripiano, magazzini e centri commerciali, complessi alberghieri, ospedali e cliniche sanitarie e enti pubblici.Un impianto di allarme incendio è fondamentalmente formato da una centralina di allarme, la quale riceve il segnale da una serie di "dispositivi di rilevazione ' e dalla quale escono i segnali di allarme con una serie di "dispositivi di segnalazione" (ad esempio sirene e collegamenti ai soccorritori esterni I "dispositivi di rilevazione " rappresentano l'input per la centralina di allarme e sono essenzialmente i seguenti dispositivi: 
+* dispositivi rilevazione fumi e incendi 
+* pulsanti manuali di allarme. I "dispositivi di segnalazione" rappresentano l'output per la centralina di allarme e sono essenzialmente i seguenti dispositivi: 
+* sirene acustiche 
+* pannelli luminosi rossi lampeggianti 
+* dispositivi di segnalazione ai soccorritori esterni La conoscenza approfondita del funzionamento degli impianti di allarme incendio è di fondamentale importanza, soprattutto nel caso delle realtà più complesse. Le procedure di emergenza e le prove di evacuazione degli edifici, realizzate in ottemperanza agli obblighi di legge in materia, sono infatti strettamente correlate alla logica di funzionamento degli impianti di allarme, che i responsabili della sicurezza operanti all'interno degli edifici devono conoscere in modo accurato.</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>Un boîtier d'alarme incendie, aussi appelé boîtier à bris de glace, alarme à feu au Canada francophone ou fire alarm en anglais, est un boîtier électrique de couleur rouge permettant à tout usager de détecter un début d'incendie dans un bâtiment, de déclencher son évacuation, et de gérer la sécurisation des personnes se trouvant dans celui-ci. Techniquement, l'ensemble du dispositif est appelé « système de sécurité incendie ». En France, la réglementation a fait adapter les SSI (Systèmes de sécurité incendie) selon les établissements dans lesquels ils sont installés avec la création de catégories. La catégorie de SSI détermine le type d'alarme installé allant du type 4 à 1 (plus le type 1 est approché, plus le dispositif est développé). Un boîtier d'alarme incendie est facilement identifiable par le logo d'une maison en feu (le logo dépend du pays où l'on se trouve). Il est de couleur rouge, et est équipé soit d'une vitre brisable, soit d'un bouton déclencheur, et parfois également muni d'un voyant qui s'allume (ou d'une étiquette jaune) si le boîtier a été utilisé. L'actionnement du boîtier envoie une information à la centrale de sécurité incendie et déclenche un signal sonore (parfois visuel selon les bâtiments) appelé alarme générale, qui ordonne la mise en sécurité et l'évacuation immédiate d'un bâtiment. Les boîtiers d'alarme incendie portent généralement les inscriptions Brisez la glace en cas de nécessité ou Appuyez ici en cas de nécessité, portées en noir sur un fond blanc ou inversement (cela dépend du type de boîtier et du fabricant). Dès que l'alarme retentit, les consignes de sécurité sont les suivantes : évacuation dans le plus grand calme, en respectant le balisage d'évacuation à fond vert sans revenir en arrière et sans prendre l'ascenseur, jusqu'à un point de rassemblement extérieur. Ces consignes sont visibles sur les plans ainsi que sur les fiches de consignes de sécurité en cas d'urgence.</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Wheelock_mt2.jpg</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -11701,10 +12427,20 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MetricImperialUSCustomaryUnits.jpg</t>
-        </is>
-      </c>
-      <c r="Z101" t="inlineStr"/>
+          <t>Nelle scienze matematiche, fisiche e naturali la misurazione è l'assegnazione di un intervallo di valori (misura ad una particolare proprietà fisica o proprietà chimica chiamata misurando, definita attraverso una grandezza fisica o chimica. La misurazione è dunque il processo svolto per assegnare una misura, anche se nel linguaggio comune si è soliti usare il termine misura in luogo di misurazione e presuppone l'esistenza di un sistema di misura. Con il termine misurando non ci si riferisce all'oggetto o al fenomeno su cui si sta eseguendo una misurazione, ma ad una specifica grandezza che caratterizza questi ultimi: ad esempio, quando rileviamo la temperatura di un liquido, il misurando non è il liquido, ma la temperatura del medesimo.</t>
+        </is>
+      </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>La mesure physique est l'action de déterminer la ou les valeurs d'une grandeur (longueur, capacité, etc.), par comparaison avec une grandeur constante de même espèce prise comme terme de référence (étalon ou unité). Selon la définition canonique : Mesurer une grandeur, c'est la comparer à une autre grandeur de même espèce prise comme unité. La mesure physique vise à l'objectivité et à la reproductibilité. La comparaison est numérique ; on exprime une caractéristique bien définie de l'objet par un nombre rationnel multipliant l'unité. Un résultat de mesure physique complet comprend une estimation numérique de la grandeur, la désignation de l'unité de mesure, une expression de l'incertitude de mesure et les principales conditions de l'épreuve. L'incertitude est partie intégrante de la mesure, et peut même être son résultat principal. En physique, la mesure physique se définit comme la détermination de la valeur numérique d'une grandeur par l'interprétation du résultat d'une expérience ou d'une observation. Les conditions et les méthodes de cette expérience ou observation déterminent l'incertitude. Le Bureau international des poids et mesures a établi un Système international d'unités et des normes de publication des résultats de mesure permettant leur comparaison directe.</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Measuring_Tape_Inch+CM.jpg</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -11797,10 +12533,20 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MetricImperialUSCustomaryUnits.jpg</t>
-        </is>
-      </c>
-      <c r="Z102" t="inlineStr"/>
+          <t>Nelle scienze matematiche, fisiche e naturali la misurazione è l'assegnazione di un intervallo di valori (misura ad una particolare proprietà fisica o proprietà chimica chiamata misurando, definita attraverso una grandezza fisica o chimica. La misurazione è dunque il processo svolto per assegnare una misura, anche se nel linguaggio comune si è soliti usare il termine misura in luogo di misurazione e presuppone l'esistenza di un sistema di misura. Con il termine misurando non ci si riferisce all'oggetto o al fenomeno su cui si sta eseguendo una misurazione, ma ad una specifica grandezza che caratterizza questi ultimi: ad esempio, quando rileviamo la temperatura di un liquido, il misurando non è il liquido, ma la temperatura del medesimo.</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>La mesure physique est l'action de déterminer la ou les valeurs d'une grandeur (longueur, capacité, etc.), par comparaison avec une grandeur constante de même espèce prise comme terme de référence (étalon ou unité). Selon la définition canonique : Mesurer une grandeur, c'est la comparer à une autre grandeur de même espèce prise comme unité. La mesure physique vise à l'objectivité et à la reproductibilité. La comparaison est numérique ; on exprime une caractéristique bien définie de l'objet par un nombre rationnel multipliant l'unité. Un résultat de mesure physique complet comprend une estimation numérique de la grandeur, la désignation de l'unité de mesure, une expression de l'incertitude de mesure et les principales conditions de l'épreuve. L'incertitude est partie intégrante de la mesure, et peut même être son résultat principal. En physique, la mesure physique se définit comme la détermination de la valeur numérique d'une grandeur par l'interprétation du résultat d'une expérience ou d'une observation. Les conditions et les méthodes de cette expérience ou observation déterminent l'incertitude. Le Bureau international des poids et mesures a établi un Système international d'unités et des normes de publication des résultats de mesure permettant leur comparaison directe.</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Measuring_Tape_Inch+CM.jpg</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -11893,10 +12639,20 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MetricImperialUSCustomaryUnits.jpg</t>
-        </is>
-      </c>
-      <c r="Z103" t="inlineStr"/>
+          <t>Nelle scienze matematiche, fisiche e naturali la misurazione è l'assegnazione di un intervallo di valori (misura ad una particolare proprietà fisica o proprietà chimica chiamata misurando, definita attraverso una grandezza fisica o chimica. La misurazione è dunque il processo svolto per assegnare una misura, anche se nel linguaggio comune si è soliti usare il termine misura in luogo di misurazione e presuppone l'esistenza di un sistema di misura. Con il termine misurando non ci si riferisce all'oggetto o al fenomeno su cui si sta eseguendo una misurazione, ma ad una specifica grandezza che caratterizza questi ultimi: ad esempio, quando rileviamo la temperatura di un liquido, il misurando non è il liquido, ma la temperatura del medesimo.</t>
+        </is>
+      </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>La mesure physique est l'action de déterminer la ou les valeurs d'une grandeur (longueur, capacité, etc.), par comparaison avec une grandeur constante de même espèce prise comme terme de référence (étalon ou unité). Selon la définition canonique : Mesurer une grandeur, c'est la comparer à une autre grandeur de même espèce prise comme unité. La mesure physique vise à l'objectivité et à la reproductibilité. La comparaison est numérique ; on exprime une caractéristique bien définie de l'objet par un nombre rationnel multipliant l'unité. Un résultat de mesure physique complet comprend une estimation numérique de la grandeur, la désignation de l'unité de mesure, une expression de l'incertitude de mesure et les principales conditions de l'épreuve. L'incertitude est partie intégrante de la mesure, et peut même être son résultat principal. En physique, la mesure physique se définit comme la détermination de la valeur numérique d'une grandeur par l'interprétation du résultat d'une expérience ou d'une observation. Les conditions et les méthodes de cette expérience ou observation déterminent l'incertitude. Le Bureau international des poids et mesures a établi un Système international d'unités et des normes de publication des résultats de mesure permettant leur comparaison directe.</t>
+        </is>
+      </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Measuring_Tape_Inch+CM.jpg</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -12001,10 +12757,20 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/FANUC_6-axis_welding_robots.jpg</t>
+          <t>Un robot industriale è un tipo di robot utilizzato nella produzione industriale, per renderla più rapida e di qualità.Inoltre è un manipolatore automaticamente controllato, riprogrammabile, multiscopo, programmabile in tre o più assi che, fisso sul posto o mobile, sia usato in applicazioni di automazione industriale.</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
+        <is>
+          <t>La robotique industrielle est officiellement définie par l'Organisation Internationale de Normalisation (ISO) comme étant un système commandé automatiquement, multi-applicatif, reprogrammable, polyvalent, manipulateur et programmable sur trois axes ou plus. Les applications typiques incluent les robots de soudage, de peinture et d'assemblage. L'avantage de la robotique industrielle est sa rapidité d'exécution et sa précision ainsi que la répétition de cette précision dans le temps. Cependant, une enquête menée par l'OCDE en 2018 démontre que la robotisation industrielle représente une perte d'emplois d'environ 15%, et une modification pour 32% de ceux-ci. Les robots industriels sont très utilisés dans le secteur de l'automobile. Leur conception nécessite une bonne connaissance technique et un très haut niveau dans le domaine de l'ingénierie.</t>
+        </is>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Offline_teaching_welding_001.png</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Industrial_robot</t>
         </is>
@@ -12115,12 +12881,14 @@
           <t>Die Kardex Holding AG mit Sitz in Zürich ist ein Schweizer Unternehmen im Bereich Lagertechnik (Intralogistik, automatisierte Lagerlösungen und Materialflusssysteme). Die Kardex Holding AG ist international tätig und seit 1987 an der Schweizer Börse SIX Swiss Exchange kotiert. 2018 waren 1.807 Mitarbeiter weltweit in über 30 Ländern für die Gesellschaften der Kardex Gruppe aktiv. Die aus den zwei Divisionen Kardex Remstar und Kardex Mlog bestehende Unternehmensgruppe erwirtschaftete 2018 einen Umsatz (netto) von 423,4 Millionen Euro.</t>
         </is>
       </c>
-      <c r="Y105" t="inlineStr">
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/USMC-110408-M-0151S-001.jpg</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -12225,10 +12993,36 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
+          <t>Un sistema per la gestione del magazzino (in inglese Warehouse Management System - WMS, in Italia anche nominato software di magazzino oppure sistema gestionale di magazzino è una parte fondamentale del sistema di gestione dell'intera catena di distribuzione.</t>
+        </is>
+      </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>WMS, ou warehouse management system (système de gestion d'entrepôts), désigne une catégorie de progiciels destinés à gérer les opérations d'un entrepôt de stockage.L'objet premier du WMS n'est pas de prendre les commandes mais de les prendre en compte et d'en optimiser la préparation. Le périmètre d'un WMS est limité et ne couvre pas toute la chaîne logistique. En général l'outil s'arrête à l'entrepôt. Parmi les fonctionnalités typiques d'un tel progiciel, se trouvent : 
+* la réception ; 
+* l'entreposage (mise en stock avec optimisation des emplacements) ; 
+* la préparation ; 
+* la gestion de stock ; 
+* l'expédition ; 
+* l'inventaire ; 
+* la gestion des volumes. Les WMS se sont agrémentés de fonctionnalités plus importantes depuis quelques années comme : 
+* le cross-docking ; 
+* l'allotissement ; 
+* le co-packing ; 
+* l'inventaire tournant, 
+* le kitting ; 
+* le slotting ; 
+* la traçabilité. Ces fonctionnalités peuvent être mises en œuvre d'une manière traditionnelle, mais des fonctionnalités d'intégration techniques sont souvent proposées notamment : 
+* des outils d'interface permettant d'intégrer et de répliquer des données avec un progiciel de gestion intégré (ERP) ; 
+* des outils d'acquisition de données permettant de dialoguer avec des terminaux mobiles via des liaisons radio. On note l'apparition de techniques de pilotage vocal ou .</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/X-Acto-knife.jpg</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -12333,12 +13127,22 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
+          <t>OTRS, originariamente sigla di Open-source Ticket Request System (sistema open source per la richiesta di ticket, è un pacchetto software che consente ad aziende, enti o istituzioni di assegnare dei ticket di segnalazione a ciascuna delle domande ricevute, rendendo molto più semplice la gestione delle richieste di assistenza (via e-mail o telefono e gli altri scambi di informazioni con i propri clienti o utenti.Iniziato nel 2001 come progetto open source, dal dicembre 2020 il supporto alla community edition è cessato ed è disponibile solo con licenza proprietaria dal fornitore OTRS AG.</t>
+        </is>
+      </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>Open-source Ticket Request System (OTRS, littéralement « système open source de requêtes par tickets ») est un logiciel open source de gestion de la relation client ou de gestion des services d'assistance. Une entreprise, une organisation ou une institution peut l'utiliser pour assigner des « tickets » aux requêtes qui lui sont faites via le centre d'assistance ou le service de dépannage. Ce système permet de faciliter le traitement des demandes d'assistance ou de dépannage et toute demande faite par téléphone ou courrier électronique. OTRS est distribué sous licence AGPL.</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo-no-tagline-CMYK.jpg</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Service_management</t>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Help_desk</t>
         </is>
       </c>
     </row>
@@ -12443,12 +13247,14 @@
           <t>Die Werkzeugverwaltung wird in der zerspanenden Fertigung benötigt, um die Informationen über die vorhandenen Werkzeuge einheitlich zu organisieren und im Umfeld zu integrieren. Die Werkzeugdaten sind dabei in einer Datenbank gespeichert und werden mit der Werkzeugverwaltungs-Software erfasst und verwendet. Im Unterschied zu einer allgemeinen Lösung für die Verwaltung der Betriebsmittel beinhaltet eine Werkzeugverwaltung spezialisierte technische Datenfelder, Grafiken und Parameter, die für den Einsatz im Fertigungsprozess erforderlich sind. Ein Werkzeug in der CNC-Fertigung besteht normalerweise aus mehreren Einzelteilen. Der korrekte Zusammenbau der einzelnen Komponenten zu einem solchen Komplett-Werkzeug ist Voraussetzung für eine fehlerfreie Wertschöpfungskette. Für die Bearbeitung eines Teils mit der CNC-Maschine (Arbeitsgang) sind jeweils mehrere Komplett-Werkzeuge erforderlich, die in einer Werkzeugliste dokumentiert werden. Jede Komponente, jedes Komplett-Werkzeug und jede Werkzeugliste hat eine Identifikation, unter welcher die zugehörige Spezifikation gefunden wird. Die Werkzeugverwaltung gliedert sich in die Dokumentation der Werkzeuge (Stammdaten) und die Logistik (Bewegungsdaten). Die Dokumentation umfasst mindestens alle Informationen, die für einen reibungsfreien und nachvollziehbaren Fertigungsprozess benötigt werden. Zudem können damit Ersatzteile, Erfahrungswerte für den Einsatz und zugehörige Dateien verwaltet werden. Es stehen Funktionen zur Verfügung um die Daten zu pflegen, zu verarbeiten, zu drucken und mit anderen Anwendungen auszutauschen. Die Logistik befasst sich mit der Bedarfsplanung, dem Bestand und dem Aufenthaltsort der Werkzeuge. Sie umfasst einerseits die Lagerhaltung und den Einkauf der Einzelteile mit entsprechender Auswertung des Verbrauchs. Anderseits können damit die Bewegungen der zusammengebauten Komplett-Werkzeuge innerhalb des Unternehmens geplant und koordiniert werden.</t>
         </is>
       </c>
-      <c r="Y108" t="inlineStr">
-        <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Tool-Components-(inserts).jpg</t>
-        </is>
-      </c>
+      <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Werkzeugdaten-Fuegebedingungen.png</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -12551,12 +13357,14 @@
         </is>
       </c>
       <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr">
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Park_Kishon,_Haifa_043.jpg</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -12661,10 +13469,20 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
+          <t>Adobe Audition è un software professionale che ha, come principale obiettivo, quello di offrire un sistema di registrazione audio multitraccia su hard disk (hard disk recording. Originariamente conosciuto come Cool Edit Pro e sviluppato dalla Syntrillium Software, è stato acquisito dalla Adobe nel maggio del 2003 e integrato nel pacchetto Adobe Creative Suite Production Studio, dedicato alle creazioni multimediali. L'acquisizione del software ha permesso alla Adobe di completare la sua suite di applicazioni multimediali che, prima, godeva solo di Premiere Pro per il video-editing (montaggio, After Effects per il compositing (effetti speciali e di per il DVD authoring (creazione di menu e navigazione. Nelle versioni CS4 e CS5 delle suite Adobe, Audition era stato sostituito da Adobe Soundbooth, un editor audio con minori funzioni. A partire dalla Creative Suite 5.5 Audition è tornato parte del prodotto. La nuova versione è disponibile anche per Mac ma è priva di alcune funzionalità presenti fino alla versione 3.</t>
+        </is>
+      </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>Adobe Audition (anciennement Cool Edit Pro) est un logiciel de traitement de données audio numériques, édité par Adobe Systems. À l'origine, Cool Edit Pro était un produit de la société Syntrillium Software. Les dernières versions de Cool Edit Pro sont 2.0 et 2.1. Il fut racheté en mai 2003 par Adobe, qui le rebaptisa Adobe Audition avant de le mettre sur le marché en août de la même année, dans le cadre du Adobe Creative Suite Production Studio.</t>
+        </is>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_Audition_CC_Screenshot.png</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr">
+      <c r="AB110" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Digital_audio_workstation</t>
         </is>
@@ -12775,12 +13593,18 @@
           <t>Atlas Copco ist ein schwedischer, international agierender Industriekonzern. Sitz des Unternehmens ist Nacka in der Nähe von Stockholm. Die deutschen Produktionsgesellschaften befinden sich in Essen unter dem Dach der Atlas Copco Holding GmbH, die deutschen Vertriebsgesellschaften sind Töchter der ebenfalls in Essen ansässigen Atlas Copco Deutschland GmbH.</t>
         </is>
       </c>
-      <c r="Y111" t="inlineStr">
-        <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Atlas-Copco-Logo.svg</t>
-        </is>
-      </c>
-      <c r="Z111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>Atlas Copco est un groupe industriel suédois présent dans : l'air comprimé et les compresseurs industriels, les matériaux de construction, les outils industriels et les systèmes d'assemblage et d'enlèvement de matières, pneumatiques et électriques.</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/BeaconMedaes_oxygen,_vacuum,_and_medical_air_medical_gas_supply_outlets_on_a_ceiling_at_Campbell_County_Memorial_Hospital_in_Gillette,_Wyoming.jpg</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -12885,10 +13709,20 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Hamburg.CTA.Altenwerder.BungaRaya.wmt.jpg</t>
-        </is>
-      </c>
-      <c r="Z112" t="inlineStr"/>
+          <t>Esportazione, in economia, è la vendita in un altro Stato di beni e servizi.</t>
+        </is>
+      </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>L'exportation est l'action de vendre à l'étranger une partie de la production de biens ou de services d'un ensemble économique, pays ou région. C'est un terme miroir de celui d'importation, étant donné qu'une vente du pays X au pays Y est la même opération qu'un achat du pays Y au pays X.</t>
+        </is>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Export_And_Import.jpg</t>
+        </is>
+      </c>
+      <c r="AB112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -13001,10 +13835,20 @@
       <c r="X113" t="inlineStr"/>
       <c r="Y113" t="inlineStr">
         <is>
+          <t>La pianificazione automatica è una branca dell'intelligenza artificiale e, in particolare, rappresenta un'attività di problem solving. L'attività di pianificazione automatica consiste nel concepire in maniera dinamica una certa sequenza di azioni che fanno sì che un obiettivo dato, non inizialmente verificato, venga raggiunto, partendo da una situazione iniziale. Le più comuni applicazioni della pianificazione automatica sono lo scheduling, la robotica e il pilotaggio di veicoli senza equipaggio. Un agente intelligente con capacità di pianificazione automatica è detto "pianificatore automatico" o planner.</t>
+        </is>
+      </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>En intelligence artificielle, la planification automatique (automated planning en anglais) ou plus simplement planification, vise à développer des algorithmes pour produire des plans typiquement pour l'exécution par un robot ou tout autre agent. Les logiciels qui incorporent ces algorithmes s'appellent des planificateurs. La difficulté du problème de planification dépend des hypothèses de simplification qu'on tient pour acquises, par exemple un temps atomique, un temps déterministe, une observabilité complète, etc. La compétition IPC (international planning competition) a lieu tous les ans durant le congrès ICAPS (International Conference on Planning and Scheduling).</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Birthe_Wilke_&amp;_Gustav_Winckler.jpg</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -13101,10 +13945,20 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
+          <t>Computer-Aided Manufacturing è una espressione della lingua inglese, utilizzata informatica e nell'ingegneria meccanica traducibile in italiano con "produzione assistita da computer".</t>
+        </is>
+      </c>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>Le but de la fabrication assistée par ordinateur ou FAO (en anglais, computer-aided manufacturing ou CAM) est d'écrire le fichier contenant le programme de pilotage d'une machine-outil à commande numérique. Ce fichier va décrire précisément les mouvements que doit exécuter la machine-outil pour réaliser la pièce demandée. On appelle également ce type de fichiers : programme ISO ou blocs ISO.</t>
+        </is>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/CAD_model_and_CNC_machined_part.png</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr">
+      <c r="AB114" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_manufacturing</t>
         </is>
@@ -13217,10 +14071,20 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
+          <t>Hexagon AB è una società svedese con sede a Stoccolma che si occupa di automazione, tecnica delle misurazioni.</t>
+        </is>
+      </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>Hexagon AB est un groupe industriel suédois spécialisé dans les nouvelles technologies. Il est coté à l'OMX sous l'acronyme HEXA B.</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/The_Golden_Fleece_title_page.jpg</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -13331,12 +14195,18 @@
           <t>SAP S/4HANA ist eine ERP-Softwarelösung der SAP SE und Nachfolger des bisherigen Kernprodukts SAP ECC. Das S steht dabei für simple oder suite, die 4 für die vierte Produktgeneration und HANA (High Performance Analytic Appliance) für die zugrunde liegende Datenbanktechnologie.</t>
         </is>
       </c>
-      <c r="Y116" t="inlineStr">
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>SAP S/4HANA est l'ERP de l'éditeur SAP pour les grandes entreprises. Il est le successeur de SAP R/3 et de SAP ERP et est optimisé pour la base de données en mémoire SAP HANA. Le S signifie simple, le 4 pour la quatrième génération du produit et le HANA pour la technologie de base de données sous-jacente.</t>
+        </is>
+      </c>
+      <c r="AA116" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/13_Above_the_Night-anthology.jpg</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -13433,10 +14303,20 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
+          <t>Computer-Aided Manufacturing è una espressione della lingua inglese, utilizzata informatica e nell'ingegneria meccanica traducibile in italiano con "produzione assistita da computer".</t>
+        </is>
+      </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>Le but de la fabrication assistée par ordinateur ou FAO (en anglais, computer-aided manufacturing ou CAM) est d'écrire le fichier contenant le programme de pilotage d'une machine-outil à commande numérique. Ce fichier va décrire précisément les mouvements que doit exécuter la machine-outil pour réaliser la pièce demandée. On appelle également ce type de fichiers : programme ISO ou blocs ISO.</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/CAD_model_and_CNC_machined_part.png</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr">
+      <c r="AB117" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_manufacturing</t>
         </is>
@@ -13531,12 +14411,14 @@
         </is>
       </c>
       <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr">
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Vericut_Screenshot_Software.png</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -13640,15 +14522,25 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>Mit Lieferkette (engl. supply chain [səˈplaɪ tʃeɪn]) wird das Netzwerk von Organisationen bezeichnet, die über vor- und nachgelagerte Verbindungen an den verschiedenen Prozessen und Tätigkeiten der Wertschöpfung in Form von Produkten und Dienstleistungen für den Endkunden beteiligt sind. Das Konzept der Lieferkette gehört zum Standardrepertoire der Wirtschaftswissenschaften. Insbesondere ist es Gegenstand des Supply-Chain-Managements (Lieferkettenmanagement). Abzugrenzen ist die Lieferkette von der Wertkette und der Transportkette. Häufig wird eine resiliente Lieferkette angestrebt.</t>
+          <t>Supply-Chain-Management (SCM) ist in Unternehmen der Anglizismus für „innerbetrieblich und entlang der Lieferkette auch zwischenbetrieblich die auf das Gesamtsystem ausgerichtete strategische Koordinierung zwischen den traditionellen Geschäftsfunktionen und den taktischen Entscheidungen zwischen diesen Geschäftsfunktionen mit dem Ziel der Verbesserung der langfristigen Leistungsfähigkeit der einzelnen Unternehmen und der Lieferkette als Ganzes“.</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
         <is>
+          <t>La gestione della catena di distribuzione (supply chain management, SCM riguarda diverse attività logistiche delle aziende, con l'obiettivo di controllare le prestazioni e migliorarne l'efficienza. Tra queste attività sono incluse la catalogazione sistematica dei prodotti e il coordinamento strategico dei vari membri della catena di distribuzione. Il supply chain management fornisce quindi un collegamento e si occupa di coordinare le attività di produzione, acquisto e logistica. Si divide in "supply chain planning system", il quale aiuta l'azienda nel generare le previsioni di produzione e nello sviluppare i piani di acquisto e produzione, e in "supply chain execution system", il quale consente il coordinamento e il controllo dei flussi di prodotti che ci sono tra il magazzino e i vari centri di distribuzione. Sono fondamentali per ciò che riguarda il Business, in particolare i sistemi SCM, se utilizzati nella maniera corretta, consentono di garantire un elevato livello di servizio verso il cliente.</t>
+        </is>
+      </c>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>La gestion de la chaîne logistique (GCL; en anglais, supply chain management ou SCM) est un savoir-faire d'application qui vise une mise en œuvre ou une gestion opérationnelle, soit le respect sur le terrain de l'enchaînement des tâches (illustré par le terme de « chaîne »), ainsi que le bon fonctionnement du système logistique, tel que fixé par le cahier des charges logistique de l'organisation concernée. L'objectif de la gestion de la chaîne logistique est de contribuer à la complexité de cette chaîne en proposant les différents mécanismes de coordination (Atour Taghipour, 2014). Récemment, la résilience de la chaîne d’approvisionnement est devenue un élément de plus en plus important du SCM. En outre, les pratiques de gestion durable jouent un rôle croissant dans la SCM.</t>
+        </is>
+      </c>
+      <c r="AA119" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/DM_Freiwasserschwimmen_2009_Lindau.jpg</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr">
+      <c r="AB119" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Supply_chain_management</t>
         </is>
@@ -13753,10 +14645,25 @@
       <c r="X120" t="inlineStr"/>
       <c r="Y120" t="inlineStr">
         <is>
+          <t>La gestione delle scorte è un argomento che rientra nell'ambito del controllo del flusso dei materiali all'interno di un processo produttivo, il cui obiettivo è minimizzare il costo di mantenimento a magazzino delle scorte, pur garantendo una corretta alimentazione dei flussi produttivi. Per scorta si intende una certa quantità di un articolo accumulata per essere messa a disposizione di un utilizzatore, affinché la consumi secondo le sue necessità.La scorta è un serbatoio di compensazione, che permette di creare un collegamento flessibile tra fasi del processo produttivo situate in sequenza, ma la cui frequenza operativa è diversa. Ad esempio, l'approvvigionamento di materie prime è periodico, mentre l'utilizzo in produzione è continuo. Le scorte possono essere di natura diversa: 
+* di materie prime 
+* di WIP (Work in process - materiale in lavorazione 
+* di prodotti finiti Le scorte possono avere diverse funzioni all'interno del ciclo produttivo: 
+* di transito (pipeline: hanno la funzione di coprire la richiesta di materiale per il tempo di approvvigionamento 
+* ciclo: dato che solitamente i fornitori non effettuano spedizioni ai clienti in modo continuo nel tempo, questo tipo di scorta serve al cliente per poter produrre nel periodo che intercorre tra due consegne da parte del fornitore. Tale scorta è pertanto proporzionale al tempo di consegna del fornitore. 
+* sicurezza: sono indotte dalla necessità di ridurre l'incertezza della domanda di materiale o di ritardi di rifornimento 
+* anticipazione e disaccoppiamento: hanno la funzione di anticipare alcune fasi di produzione o di disaccoppiare due lavorazioni successive. Le politiche di gestione della scorta ciclo possono essere di due tipi differenti: 1. 
+* a ripristino 2. 
+* a fabbisogno (o lotti fissi Nel primo caso ci si basa fondamentalmente solamente sul livello di giacenza, per cui la scorta ciclo è presente all'interno del sito produttivo indipendentemente dalla necessità della stazione a valle, e quando viene utilizzata da essa, la stazione a monte o il fornitore provvederanno a ripristinare il livello di magazzino esistente (sulla base di una certa politica.Nel secondo caso invece, si tiene conto anche della previsione di impiego, per cui la scorta è generata solamente nel momento in cui è utile alla stazione a valle; in tale sistema, è la domanda di mercato a determinare le richieste di produzione e di approvvigionamento di tutti i componenti ed i semilavorati all'interno del sito produttivo, nei tempi appropriati (né troppo presto, per non generare scorta extra, né troppo tardi, per non causare ritardi nelle consegne di prodotti finiti. La politica a fabbisogno più nota è il Material Requirements Planning (MRP. Il just in time, tramite i kanban, è invece una delle politiche di gestione a ripristino di maggiore successo degli ultimi anni.</t>
+        </is>
+      </c>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/FrescoEP1_Icehouse01.jpg</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -13869,10 +14776,36 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
+          <t>Un sistema per la gestione del magazzino (in inglese Warehouse Management System - WMS, in Italia anche nominato software di magazzino oppure sistema gestionale di magazzino è una parte fondamentale del sistema di gestione dell'intera catena di distribuzione.</t>
+        </is>
+      </c>
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>WMS, ou warehouse management system (système de gestion d'entrepôts), désigne une catégorie de progiciels destinés à gérer les opérations d'un entrepôt de stockage.L'objet premier du WMS n'est pas de prendre les commandes mais de les prendre en compte et d'en optimiser la préparation. Le périmètre d'un WMS est limité et ne couvre pas toute la chaîne logistique. En général l'outil s'arrête à l'entrepôt. Parmi les fonctionnalités typiques d'un tel progiciel, se trouvent : 
+* la réception ; 
+* l'entreposage (mise en stock avec optimisation des emplacements) ; 
+* la préparation ; 
+* la gestion de stock ; 
+* l'expédition ; 
+* l'inventaire ; 
+* la gestion des volumes. Les WMS se sont agrémentés de fonctionnalités plus importantes depuis quelques années comme : 
+* le cross-docking ; 
+* l'allotissement ; 
+* le co-packing ; 
+* l'inventaire tournant, 
+* le kitting ; 
+* le slotting ; 
+* la traçabilité. Ces fonctionnalités peuvent être mises en œuvre d'une manière traditionnelle, mais des fonctionnalités d'intégration techniques sont souvent proposées notamment : 
+* des outils d'interface permettant d'intégrer et de répliquer des données avec un progiciel de gestion intégré (ERP) ; 
+* des outils d'acquisition de données permettant de dialoguer avec des terminaux mobiles via des liaisons radio. On note l'apparition de techniques de pilotage vocal ou .</t>
+        </is>
+      </c>
+      <c r="AA121" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/X-Acto-knife.jpg</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -13981,10 +14914,20 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
+          <t>Computer-Aided Manufacturing è una espressione della lingua inglese, utilizzata informatica e nell'ingegneria meccanica traducibile in italiano con "produzione assistita da computer".</t>
+        </is>
+      </c>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>Le but de la fabrication assistée par ordinateur ou FAO (en anglais, computer-aided manufacturing ou CAM) est d'écrire le fichier contenant le programme de pilotage d'une machine-outil à commande numérique. Ce fichier va décrire précisément les mouvements que doit exécuter la machine-outil pour réaliser la pièce demandée. On appelle également ce type de fichiers : programme ISO ou blocs ISO.</t>
+        </is>
+      </c>
+      <c r="AA122" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/CAD_model_and_CNC_machined_part.png</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr">
+      <c r="AB122" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_manufacturing</t>
         </is>
@@ -14098,14 +15041,20 @@
           <t>Minitab ist eine Statistik-Software, mit deren Hilfe statistische Daten analysiert und in verschiedenen Diagrammen dargestellt werden können. Minitab wurde 1972 an der Pennsylvania State University als Light-Version der statistischen Analysesoftware OMNITAB des National Institute of Standards and Technology (NIST) entwickelt und wird als Statistiktool an zahlreichen amerikanischen Universitäten und Colleges verwendet. Seit 1983 wird Minitab von der Minitab Inc. vertrieben. Dieses Unternehmen hat seinen Hauptsitz am State College, Pennsylvania und unterhält Tochtergesellschaften in Coventry, England (Minitab Ltd.), Paris, Frankreich (Minitab SARL) und seit 2017 in München, Deutschland (Minitab GmbH).</t>
         </is>
       </c>
-      <c r="Y123" t="inlineStr">
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>Minitab est un logiciel propriétaire commercial de statistiques. Il est développé par Minitab, Inc. pour le système d'exploitation Windows uniquement. Logiciel développé depuis 1972 et disponible en huit langues.</t>
+        </is>
+      </c>
+      <c r="AA123" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Minitab_Screenshot.jpg</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Statistical_inference</t>
+      <c r="AB123" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Statistical_analysis</t>
         </is>
       </c>
     </row>
@@ -14212,10 +15161,20 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Functional_levels_of_a_Distributed_Control_System.svg</t>
-        </is>
-      </c>
-      <c r="Z124" t="inlineStr"/>
+          <t>Il controllo industriale è l'applicazione della teoria del controllo automatico all'ambito dei processi industriali. I processi industriali coinvolti nell'azione di controllo possono essere di vario tipo, ad esempio può essere richiesto il controllo delle apparecchiature di un impianto chimico, dei sistemi di , di una centrale elettronucleare, oppure di sistemi per l'abbattimento degli inquinanti.</t>
+        </is>
+      </c>
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>Le contrôle de processus est un terme utilisé pour désigner l'ensemble du matériel et des logiciels servant à piloter et surveiller le processus de fabrication de produits.</t>
+        </is>
+      </c>
+      <c r="AA124" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Auxostat_schematic.svg</t>
+        </is>
+      </c>
+      <c r="AB124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -14320,10 +15279,22 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
+          <t>CAD, in informatica, è un acronimo inglese usato per indicare due concetti correlati, ma differenti: 
+* computer-aided drafting (lett. "disegno tecnico assistito dall'elaboratore": in tale accezione indica il settore dell'informatica volto all'utilizzo di tecnologie software e specificamente della computer grafica per supportare l'attività di disegno tecnico (drafting. I sistemi di computer-aided drafting hanno come obiettivo la creazione di un modello, tipicamente 2D, del disegno tecnico che descrive il manufatto, non del manufatto stesso. Ad esempio, un sistema computer-aided drafting può essere impiegato da un progettista nella creazione di una serie di disegni tecnici (in proiezione ortogonale, in sezione, in assonometria, in esploso finalizzati alla costruzione di un motore; 
+* computer-aided design (lett. "progettazione assistita dall'elaboratore": in questa accezione, la più comune, indica il settore dell'informatica volto all'utilizzo di tecnologie software e in particolare della computer grafica per supportare l'attività di progettazione (design di manufatti sia virtuali che reali. I sistemi di computer-aided design hanno come obiettivo la creazione di modelli, soprattutto 3D, del manufatto. Ad esempio, un sistema computer-aided design può essere impiegato da un progettista meccanico nella creazione di un modello 3D di un motore. Se viene realizzato un modello 3D, esso può essere utilizzato per calcoli quali analisi statiche, dinamiche e strutturali ed in tal caso si parla di computer-aided engineering (CAE, disciplina più vasta di cui il CAD costituisce il sottoinsieme di azioni e strumenti volti alla realizzazione puramente geometrica del modello.</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr">
+        <is>
+          <t>La conception assistée par ordinateur ou CAO (en anglais, computer aided design ou CAD) comprend l'ensemble des logiciels et des techniques de modélisation géométrique permettant de concevoir, de tester virtuellement – à l'aide d'un ordinateur et des techniques de simulation numérique – et de réaliser des produits manufacturés et les outils pour les fabriquer. On confond souvent CAO et DAO (dessin assisté par ordinateur) : la CAO n'a pas pour fonction première l'édition du dessin. Il s'agit d'un outil informatique souvent lié à un métier, fonctionnant en langage dit objet, et permettant l'organisation virtuelle de fonctions techniques. Cela permet ensuite la simulation de comportement de l'objet conçu, l'édition éventuelle d'un plan ou d'un schéma étant automatique et accessoire. En DAO, un trait est un trait et le logiciel ne permet pas l'interprétation technique de l'ensemble.</t>
+        </is>
+      </c>
+      <c r="AA125" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+        </is>
+      </c>
+      <c r="AB125" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
@@ -14442,12 +15413,18 @@
           <t>SAP S/4HANA ist eine ERP-Softwarelösung der SAP SE und Nachfolger des bisherigen Kernprodukts SAP ECC. Das S steht dabei für simple oder suite, die 4 für die vierte Produktgeneration und HANA (High Performance Analytic Appliance) für die zugrunde liegende Datenbanktechnologie.</t>
         </is>
       </c>
-      <c r="Y126" t="inlineStr">
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>SAP S/4HANA est l'ERP de l'éditeur SAP pour les grandes entreprises. Il est le successeur de SAP R/3 et de SAP ERP et est optimisé pour la base de données en mémoire SAP HANA. Le S signifie simple, le 4 pour la quatrième génération du produit et le HANA pour la technologie de base de données sous-jacente.</t>
+        </is>
+      </c>
+      <c r="AA126" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/13_Above_the_Night-anthology.jpg</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -14556,10 +15533,20 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
+          <t>Con Manufacturing Execution System (MES si indica un sistema informatizzato che ha la principale funzione di gestire e controllare la funzione produttiva di un'azienda. La gestione coinvolge il dispaccio degli ordini, gli avanzamenti in quantità e tempo, il versamento a magazzino, nonché il collegamento diretto ai macchinari per dedurre informazioni utili ad integrare l'esecuzione della produzione come a produrre informazioni per il controllo della produzione stessa. Dunque, un MES è un sistema software che viene applicato per gestire in maniera integrata ed efficiente il processo produttivo di un’azienda, attraverso collegamenti diretti alle macchine (PLC/Scada o dichiarazioni manuali degli operatori che stanno lavorando. Queste informazioni vengono fornite in tempo reale agli uffici che hanno una visione completa dell’avanzamento degli ordini, dello stato fisico delle risorse e dei materiali impiegati. Inoltre, alcuni software permettono di trasmettere i dati al sistema gestionale già presente in azienda (sistema ERP.</t>
+        </is>
+      </c>
+      <c r="Z127" t="inlineStr">
+        <is>
+          <t>Un logiciel de pilotage de la production (en anglais américain manufacturing execution system ou MES) est un logiciel collectant en temps réel les données de production d'une usine ou d'un atelier, données qui sont analysées quant à la traçabilité, le contrôle de la qualité, le suivi de production, l'ordonnancement et la maintenance préventive et curative. Le logiciel de pilotage de la production fournit les informations nécessaires à l’optimisation des activités allant de la création de l’ordre de fabrication au produit fini. Par l’utilisation d’informations à jour et précises, il guide les activités de l’atelier et réagit à celles-ci au fur et à mesure de leur déroulement et fournit des rapports sur ces activités. Il permet un fonctionnement plus efficace, diminue les stocks et augmente les marges. En alimentant un flux bidirectionnel d’informations, il fournit à toute l’entreprise et à sa chaîne logistique, des données vitales sur les activités de fabrication. L'International Society of Automation (ISA) a normalisé la structure des progiciels de pilotage de la production. Le logiciel de pilotage de la production prend place entre le niveau automatisme de l'usine et le logiciel de planification ERP d'entreprise.</t>
+        </is>
+      </c>
+      <c r="AA127" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Pennsylvania_House_District_86.png</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -14666,12 +15653,14 @@
         </is>
       </c>
       <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr">
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/PDESvsMESbyPR.jpg</t>
         </is>
       </c>
-      <c r="Z128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -14778,12 +15767,18 @@
           <t>Der Produktlebenszyklus ist ein Konzept der Betriebswirtschaftslehre, das den Prozess von der Markteinführung bzw. Fertigstellung eines marktfähigen Produktes bis zu seiner Herausnahme aus dem Markt beschreibt. Die Produktlebenszeit hingegen ist die Zeitspanne von der Herstellung des Produkts bis zum Zeitpunkt, an dem sich von dem Produkt nichts mehr erwirtschaften lässt. Beim Produktlebenszyklus wird die „Lebensdauer“ eines Produktes am Markt in mehrere Phasen unterteilt, die die Hauptaufgaben der aktiven Produktpolitik im Rahmen des Lebenszyklus-Managements (englisch life cycle management) darstellen. Der Produktlebenszyklus gilt in den meisten Fällen nur für Konsumgüter. Für Innovationen sollte der Technologielebenszyklus (TLC) zu Rate gezogen werden.</t>
         </is>
       </c>
-      <c r="Y129" t="inlineStr">
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr">
+        <is>
+          <t>Le cycle de vie du produit est la succession d'étapes de commercialisation que traverse un produit (bien ou service) dans le temps. En effet, les conditions de vente d'un produit changent en permanence.</t>
+        </is>
+      </c>
+      <c r="AA129" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adrien_Lachenal.gif</t>
         </is>
       </c>
-      <c r="Z129" t="inlineStr"/>
+      <c r="AB129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -14894,12 +15889,14 @@
           <t>Der Across Language Server ist eine Softwareplattform zur computergestützten Übersetzung, die über zusätzliche Programmmodule zur Projektverwaltung und Terminologiemanagement verfügt. Die Software wird von dem Unternehmen Across Systems GmbH aus Karlsbad bei Karlsruhe – 2005 als Spin-off der Nero AG gegründet – und Glendale bei Los Angeles entwickelt, hergestellt und vertrieben.</t>
         </is>
       </c>
-      <c r="Y130" t="inlineStr">
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Eilema_albicosta.png</t>
         </is>
       </c>
-      <c r="Z130" t="inlineStr">
+      <c r="AB130" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-assisted_translation</t>
         </is>
@@ -15008,10 +16005,22 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
+          <t>CAD, in informatica, è un acronimo inglese usato per indicare due concetti correlati, ma differenti: 
+* computer-aided drafting (lett. "disegno tecnico assistito dall'elaboratore": in tale accezione indica il settore dell'informatica volto all'utilizzo di tecnologie software e specificamente della computer grafica per supportare l'attività di disegno tecnico (drafting. I sistemi di computer-aided drafting hanno come obiettivo la creazione di un modello, tipicamente 2D, del disegno tecnico che descrive il manufatto, non del manufatto stesso. Ad esempio, un sistema computer-aided drafting può essere impiegato da un progettista nella creazione di una serie di disegni tecnici (in proiezione ortogonale, in sezione, in assonometria, in esploso finalizzati alla costruzione di un motore; 
+* computer-aided design (lett. "progettazione assistita dall'elaboratore": in questa accezione, la più comune, indica il settore dell'informatica volto all'utilizzo di tecnologie software e in particolare della computer grafica per supportare l'attività di progettazione (design di manufatti sia virtuali che reali. I sistemi di computer-aided design hanno come obiettivo la creazione di modelli, soprattutto 3D, del manufatto. Ad esempio, un sistema computer-aided design può essere impiegato da un progettista meccanico nella creazione di un modello 3D di un motore. Se viene realizzato un modello 3D, esso può essere utilizzato per calcoli quali analisi statiche, dinamiche e strutturali ed in tal caso si parla di computer-aided engineering (CAE, disciplina più vasta di cui il CAD costituisce il sottoinsieme di azioni e strumenti volti alla realizzazione puramente geometrica del modello.</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
+        <is>
+          <t>La conception assistée par ordinateur ou CAO (en anglais, computer aided design ou CAD) comprend l'ensemble des logiciels et des techniques de modélisation géométrique permettant de concevoir, de tester virtuellement – à l'aide d'un ordinateur et des techniques de simulation numérique – et de réaliser des produits manufacturés et les outils pour les fabriquer. On confond souvent CAO et DAO (dessin assisté par ordinateur) : la CAO n'a pas pour fonction première l'édition du dessin. Il s'agit d'un outil informatique souvent lié à un métier, fonctionnant en langage dit objet, et permettant l'organisation virtuelle de fonctions techniques. Cela permet ensuite la simulation de comportement de l'objet conçu, l'édition éventuelle d'un plan ou d'un schéma étant automatique et accessoire. En DAO, un trait est un trait et le logiciel ne permet pas l'interprétation technique de l'ensemble.</t>
+        </is>
+      </c>
+      <c r="AA131" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+        </is>
+      </c>
+      <c r="AB131" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
@@ -15120,10 +16129,22 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
+          <t>CAD, in informatica, è un acronimo inglese usato per indicare due concetti correlati, ma differenti: 
+* computer-aided drafting (lett. "disegno tecnico assistito dall'elaboratore": in tale accezione indica il settore dell'informatica volto all'utilizzo di tecnologie software e specificamente della computer grafica per supportare l'attività di disegno tecnico (drafting. I sistemi di computer-aided drafting hanno come obiettivo la creazione di un modello, tipicamente 2D, del disegno tecnico che descrive il manufatto, non del manufatto stesso. Ad esempio, un sistema computer-aided drafting può essere impiegato da un progettista nella creazione di una serie di disegni tecnici (in proiezione ortogonale, in sezione, in assonometria, in esploso finalizzati alla costruzione di un motore; 
+* computer-aided design (lett. "progettazione assistita dall'elaboratore": in questa accezione, la più comune, indica il settore dell'informatica volto all'utilizzo di tecnologie software e in particolare della computer grafica per supportare l'attività di progettazione (design di manufatti sia virtuali che reali. I sistemi di computer-aided design hanno come obiettivo la creazione di modelli, soprattutto 3D, del manufatto. Ad esempio, un sistema computer-aided design può essere impiegato da un progettista meccanico nella creazione di un modello 3D di un motore. Se viene realizzato un modello 3D, esso può essere utilizzato per calcoli quali analisi statiche, dinamiche e strutturali ed in tal caso si parla di computer-aided engineering (CAE, disciplina più vasta di cui il CAD costituisce il sottoinsieme di azioni e strumenti volti alla realizzazione puramente geometrica del modello.</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
+        <is>
+          <t>La conception assistée par ordinateur ou CAO (en anglais, computer aided design ou CAD) comprend l'ensemble des logiciels et des techniques de modélisation géométrique permettant de concevoir, de tester virtuellement – à l'aide d'un ordinateur et des techniques de simulation numérique – et de réaliser des produits manufacturés et les outils pour les fabriquer. On confond souvent CAO et DAO (dessin assisté par ordinateur) : la CAO n'a pas pour fonction première l'édition du dessin. Il s'agit d'un outil informatique souvent lié à un métier, fonctionnant en langage dit objet, et permettant l'organisation virtuelle de fonctions techniques. Cela permet ensuite la simulation de comportement de l'objet conçu, l'édition éventuelle d'un plan ou d'un schéma étant automatique et accessoire. En DAO, un trait est un trait et le logiciel ne permet pas l'interprétation technique de l'ensemble.</t>
+        </is>
+      </c>
+      <c r="AA132" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+        </is>
+      </c>
+      <c r="AB132" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
@@ -15228,10 +16249,22 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
+          <t>CAD, in informatica, è un acronimo inglese usato per indicare due concetti correlati, ma differenti: 
+* computer-aided drafting (lett. "disegno tecnico assistito dall'elaboratore": in tale accezione indica il settore dell'informatica volto all'utilizzo di tecnologie software e specificamente della computer grafica per supportare l'attività di disegno tecnico (drafting. I sistemi di computer-aided drafting hanno come obiettivo la creazione di un modello, tipicamente 2D, del disegno tecnico che descrive il manufatto, non del manufatto stesso. Ad esempio, un sistema computer-aided drafting può essere impiegato da un progettista nella creazione di una serie di disegni tecnici (in proiezione ortogonale, in sezione, in assonometria, in esploso finalizzati alla costruzione di un motore; 
+* computer-aided design (lett. "progettazione assistita dall'elaboratore": in questa accezione, la più comune, indica il settore dell'informatica volto all'utilizzo di tecnologie software e in particolare della computer grafica per supportare l'attività di progettazione (design di manufatti sia virtuali che reali. I sistemi di computer-aided design hanno come obiettivo la creazione di modelli, soprattutto 3D, del manufatto. Ad esempio, un sistema computer-aided design può essere impiegato da un progettista meccanico nella creazione di un modello 3D di un motore. Se viene realizzato un modello 3D, esso può essere utilizzato per calcoli quali analisi statiche, dinamiche e strutturali ed in tal caso si parla di computer-aided engineering (CAE, disciplina più vasta di cui il CAD costituisce il sottoinsieme di azioni e strumenti volti alla realizzazione puramente geometrica del modello.</t>
         </is>
       </c>
       <c r="Z133" t="inlineStr">
+        <is>
+          <t>La conception assistée par ordinateur ou CAO (en anglais, computer aided design ou CAD) comprend l'ensemble des logiciels et des techniques de modélisation géométrique permettant de concevoir, de tester virtuellement – à l'aide d'un ordinateur et des techniques de simulation numérique – et de réaliser des produits manufacturés et les outils pour les fabriquer. On confond souvent CAO et DAO (dessin assisté par ordinateur) : la CAO n'a pas pour fonction première l'édition du dessin. Il s'agit d'un outil informatique souvent lié à un métier, fonctionnant en langage dit objet, et permettant l'organisation virtuelle de fonctions techniques. Cela permet ensuite la simulation de comportement de l'objet conçu, l'édition éventuelle d'un plan ou d'un schéma étant automatique et accessoire. En DAO, un trait est un trait et le logiciel ne permet pas l'interprétation technique de l'ensemble.</t>
+        </is>
+      </c>
+      <c r="AA133" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+        </is>
+      </c>
+      <c r="AB133" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
@@ -15344,10 +16377,22 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
+          <t>CAD, in informatica, è un acronimo inglese usato per indicare due concetti correlati, ma differenti: 
+* computer-aided drafting (lett. "disegno tecnico assistito dall'elaboratore": in tale accezione indica il settore dell'informatica volto all'utilizzo di tecnologie software e specificamente della computer grafica per supportare l'attività di disegno tecnico (drafting. I sistemi di computer-aided drafting hanno come obiettivo la creazione di un modello, tipicamente 2D, del disegno tecnico che descrive il manufatto, non del manufatto stesso. Ad esempio, un sistema computer-aided drafting può essere impiegato da un progettista nella creazione di una serie di disegni tecnici (in proiezione ortogonale, in sezione, in assonometria, in esploso finalizzati alla costruzione di un motore; 
+* computer-aided design (lett. "progettazione assistita dall'elaboratore": in questa accezione, la più comune, indica il settore dell'informatica volto all'utilizzo di tecnologie software e in particolare della computer grafica per supportare l'attività di progettazione (design di manufatti sia virtuali che reali. I sistemi di computer-aided design hanno come obiettivo la creazione di modelli, soprattutto 3D, del manufatto. Ad esempio, un sistema computer-aided design può essere impiegato da un progettista meccanico nella creazione di un modello 3D di un motore. Se viene realizzato un modello 3D, esso può essere utilizzato per calcoli quali analisi statiche, dinamiche e strutturali ed in tal caso si parla di computer-aided engineering (CAE, disciplina più vasta di cui il CAD costituisce il sottoinsieme di azioni e strumenti volti alla realizzazione puramente geometrica del modello.</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
+        <is>
+          <t>La conception assistée par ordinateur ou CAO (en anglais, computer aided design ou CAD) comprend l'ensemble des logiciels et des techniques de modélisation géométrique permettant de concevoir, de tester virtuellement – à l'aide d'un ordinateur et des techniques de simulation numérique – et de réaliser des produits manufacturés et les outils pour les fabriquer. On confond souvent CAO et DAO (dessin assisté par ordinateur) : la CAO n'a pas pour fonction première l'édition du dessin. Il s'agit d'un outil informatique souvent lié à un métier, fonctionnant en langage dit objet, et permettant l'organisation virtuelle de fonctions techniques. Cela permet ensuite la simulation de comportement de l'objet conçu, l'édition éventuelle d'un plan ou d'un schéma étant automatique et accessoire. En DAO, un trait est un trait et le logiciel ne permet pas l'interprétation technique de l'ensemble.</t>
+        </is>
+      </c>
+      <c r="AA134" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+        </is>
+      </c>
+      <c r="AB134" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
@@ -15456,10 +16501,22 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
+          <t>CAD, in informatica, è un acronimo inglese usato per indicare due concetti correlati, ma differenti: 
+* computer-aided drafting (lett. "disegno tecnico assistito dall'elaboratore": in tale accezione indica il settore dell'informatica volto all'utilizzo di tecnologie software e specificamente della computer grafica per supportare l'attività di disegno tecnico (drafting. I sistemi di computer-aided drafting hanno come obiettivo la creazione di un modello, tipicamente 2D, del disegno tecnico che descrive il manufatto, non del manufatto stesso. Ad esempio, un sistema computer-aided drafting può essere impiegato da un progettista nella creazione di una serie di disegni tecnici (in proiezione ortogonale, in sezione, in assonometria, in esploso finalizzati alla costruzione di un motore; 
+* computer-aided design (lett. "progettazione assistita dall'elaboratore": in questa accezione, la più comune, indica il settore dell'informatica volto all'utilizzo di tecnologie software e in particolare della computer grafica per supportare l'attività di progettazione (design di manufatti sia virtuali che reali. I sistemi di computer-aided design hanno come obiettivo la creazione di modelli, soprattutto 3D, del manufatto. Ad esempio, un sistema computer-aided design può essere impiegato da un progettista meccanico nella creazione di un modello 3D di un motore. Se viene realizzato un modello 3D, esso può essere utilizzato per calcoli quali analisi statiche, dinamiche e strutturali ed in tal caso si parla di computer-aided engineering (CAE, disciplina più vasta di cui il CAD costituisce il sottoinsieme di azioni e strumenti volti alla realizzazione puramente geometrica del modello.</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
+        <is>
+          <t>La conception assistée par ordinateur ou CAO (en anglais, computer aided design ou CAD) comprend l'ensemble des logiciels et des techniques de modélisation géométrique permettant de concevoir, de tester virtuellement – à l'aide d'un ordinateur et des techniques de simulation numérique – et de réaliser des produits manufacturés et les outils pour les fabriquer. On confond souvent CAO et DAO (dessin assisté par ordinateur) : la CAO n'a pas pour fonction première l'édition du dessin. Il s'agit d'un outil informatique souvent lié à un métier, fonctionnant en langage dit objet, et permettant l'organisation virtuelle de fonctions techniques. Cela permet ensuite la simulation de comportement de l'objet conçu, l'édition éventuelle d'un plan ou d'un schéma étant automatique et accessoire. En DAO, un trait est un trait et le logiciel ne permet pas l'interprétation technique de l'ensemble.</t>
+        </is>
+      </c>
+      <c r="AA135" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+        </is>
+      </c>
+      <c r="AB135" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
@@ -15560,10 +16617,22 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Architectural_BIM_3D_Modeling.jpg</t>
+          <t>Il Building Information Modeling (acronimo: BIM, in italiano: Modellizzazione delle Informazioni di Costruzione indica un metodo per l'ottimizzazione della pianificazione, realizzazione e gestione di costruzioni tramite aiuto di un software. Tramite esso tutti i dati rilevanti di una costruzione possono essere raccolti, combinati e collegati digitalmente. La costruzione virtuale è visualizzabile inoltre come un modello geometrico tridimensionale. Il Building Information Modelling viene utilizzato sia nel settore edile per la progettazione e costruzione (architettura, ingegneria, impianti tecnici come anche nel facility management.</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
+        <is>
+          <t>BIM est le sigle anglais de Building Information Modeling, de Building Information Model, ou encore de Building Information Management, et le rétroacronyme de bâti immobilier modélisé. Il désigne les outils de modélisation des informations de la construction implémentés par des applications qui permettent la modélisation des données du bâtiment, d'une structure, d'un édifice ou d'un ouvrage. Le BIM ne se limite pas aux seuls bâtiments, il concerne l'ensemble des ouvrages de la construction, y compris le génie civil, les travaux publics, l’ensemble des infrastructures et des réseaux. Il ne se limite pas non plus à l'acte de construire, mais concerne l'ensemble du cycle de vie d'un ouvrage, depuis la programmation, les esquisses jusqu'à sa déconstruction et la réutilisation, le recyclage ou la valorisation énergétique des éléments en fin de vie. Le BIM se définit à la fois comme : 
+* un processus de structuration, de création, de production, d'échange, d'intégration, d'analyse, de gestion, de visualisation et d'exploitation de données ; 
+* un modèle d'un ouvrage bâti (pouvant tenir dans un fichier numérique, lequel comprend toute l'information technique nécessaire à sa conception, sa construction, les opérations préalables à sa recette (intégration, essais, vérifications, certification), son entretien, ses réparations, d'éventuelles modifications ou agrandissements et sa déconstruction). Le fichier n'est pas qu'un catalogue d'objets positionnés dans l'espace ; il comprend aussi une description des relations entre objets et de leurs propriétés (par exemple : jonctions de murs, type d'ouverture ou de traversée d'un mur ou d'une dalle et ruptures de pont thermique) ; Le BIM facilite la faisabilité de projets conçus d'un ouvrage. Il s'agit d'un ensemble de processus, visant à orienter la mise en œuvre vers certains procédés et à faciliter la communication, l'échange et la gestion de données autour d'un projet de construction.</t>
+        </is>
+      </c>
+      <c r="AA136" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Scan-to-BIM_Mechanical_Room.jpg</t>
+        </is>
+      </c>
+      <c r="AB136" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Building_information_modeling</t>
         </is>
@@ -15670,14 +16739,20 @@
           <t>RFEM ist eine 3D-FEM-Software zur statischen Berechnung und Bemessung von Stahl-, Stahlbeton-, Holz-, Glas- und Membran-Strukturen, für den Anlagen- und Maschinenbau sowie für dynamische Analysen. RFEM wird nach Eigenaussage von über 10.000 Firmen, 86.000 Anwendern und vielen Hochschulen in 95 Ländern verwendet. Im Rahmen des Forschungsprojektes "Thermal Imaging and Structural Analysis of Sandstone Monuments in Angkor" wurde RFEM zur Erstellung numerischer Modelle und für Tragwerksanalysen verwendet.</t>
         </is>
       </c>
-      <c r="Y137" t="inlineStr">
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>RFEM est un logiciel de calcul de structure par la méthode des éléments finis développé par la société Dlubal Software. Il permet de calculer les efforts internes, les réactions aux appuis et les déformations dans le logiciel de base et de vérifier toute structure simple ou complexe en 2D ou 3D pour les types de matériau: acier, béton, bois, verre, aluminium,… dans ses modules additionnels. Il sert dans beaucoup de domaines de la construction moderne à savoir le génie civil, la construction mécanique, l’ingénierie d’équipement, etc. Grâce à son environnement très intuitif et convivial, il est assez facile à utiliser. Les logiciels de Dlubal Software sont utilisés par environ 86 000 utilisateurs, plus de 10 000 sociétés et de nombreuses universités dans 95 pays.</t>
+        </is>
+      </c>
+      <c r="AA137" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Screenshot_from_RFEM.png</t>
         </is>
       </c>
-      <c r="Z137" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
+      <c r="AB137" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
       </c>
     </row>
@@ -15780,10 +16855,20 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MATLAB_surf_sinc3D.svg</t>
+          <t>MATLAB (abbreviazione di Matrix Laboratory è un ambiente per il calcolo numerico e l'analisi statistica scritto in C, che comprende anche l'omonimo linguaggio di programmazione creato dalla MathWorks. MATLAB consente di manipolare matrici, visualizzare funzioni e dati, implementare algoritmi, creare interfacce utente, e interfacciarsi con altri programmi.Nonostante sia specializzato nel calcolo numerico, uno strumentario opzionale interfaccia MATLAB con il motore di calcolo simbolico di Maple. MATLAB è usato da milioni di persone nell'industria e nelle università per via dei suoi numerosi strumenti a supporto dei più disparati campi di studio applicati e funziona su diversi sistemi operativi, tra cui Windows, Mac OS, GNU/Linux e Unix.</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
+        <is>
+          <t>MATLAB (« matrix laboratory ») est un langage de script émulé par un environnement de développement du même nom ; il est utilisé à des fins de calcul numérique. Développé par la société The MathWorks, MATLAB permet de manipuler des matrices, d'afficher des courbes et des données, de mettre en œuvre des algorithmes, de créer des interfaces utilisateurs, et peut s’interfacer avec d’autres langages comme le C, C++, Java, et Fortran. Les utilisateurs de MATLAB (environ 4 millions en 2019) sont de milieux très différents tels que l’ingénierie, les sciences et l’économie, dans un contexte aussi bien industriel que pour la recherche. Matlab peut s’utiliser seul ou bien avec des toolboxes (« boîte à outils »).</t>
+        </is>
+      </c>
+      <c r="AA138" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MATLAB_mesh_sinc3D.svg</t>
+        </is>
+      </c>
+      <c r="AB138" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/List_of_numerical_analysis_software</t>
         </is>
@@ -15892,10 +16977,28 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
+          <t>In informatica, Computer-aided engineering (spesso abbreviato come CAE, in italiano "ingegneria assistita dal computer" indica le applicazioni software che agevolano la risoluzione di problemi tecnologici tramite il calcolo numerico.</t>
+        </is>
+      </c>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>L'ingénierie assistée par ordinateur ou IAO (en anglais computer-aided engineering ou CAE), également qualifiée d'ingénierie numérique, regroupe l'ensemble des moyens numériques et logiciels habituellement utilisés par les ingénieurs et techniciens des bureaux d'études pour concevoir, simuler et valider de nouveaux produits et processus industriels. L'aboutissement de la phase d'ingénierie numérique d'un produit est sa maquette numérique. Font classiquement partie de la catégorie des outils d'ingénierie numérique : 
+* les logiciels de CAO (conception assistée par ordinateur), 
+* les logiciels de simulation des comportements (statiques, cinématiques, dynamiques, rhéologiques…), 
+* les logiciels de FAO (fabrication assistée par ordinateur), 
+* les SGDT (système de gestion des données techniques), 
+* les systèmes de GCVP (product lifecycle management), 
+* les SGBC (système de gestion de bases de connaissance), 
+* les (knowledge lifecycle management), 
+* les environnements immersifs.</t>
+        </is>
+      </c>
+      <c r="AA139" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Plasticity.jpg</t>
         </is>
       </c>
-      <c r="Z139" t="inlineStr">
+      <c r="AB139" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
         </is>
@@ -16012,10 +17115,20 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
+          <t>Un sistema informativo aziendale può essere immaginato come un insieme comprendente persone, funzioni, applicazioni, reti tecnologiche e procedure che interagendo tra di loro hanno come obiettivo finale quello di rendere disponibile ad un soggetto una serie di informazioni e dati nel momento e nel luogo desiderati. Un Sistema Informativo è in grado di fare ciò compiendo delle operazioni sui dati come ad esempio: raccogliere dati, elaborarli, scambiarli, catalogarli ed esporli. Indica quell'infrastruttura di una organizzazione aziendale deputata alla raccolta e gestione delle informazioni. Si tratta quindi di acquisire i dati, elaborarli e poi restituirli sotto forma di informazioni utili al soggetto interessato. L'obiettivo di un Sistema Informativo è quello di rappresentare un valido supporto durante le operazioni decisionali.</t>
+        </is>
+      </c>
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>Le système d'information (SI) est un ensemble organisé de ressources qui permet de collecter, stocker, traiter et distribuer de l'information, en général grâce à un réseau d'ordinateurs. Il s'agit d'un système socio-technique composé de deux sous-systèmes, l'un social et l'autre technique. Le sous-système social est composé de la structure organisationnelle et des personnes liées au SI. Le sous-système technique est composé des technologies (hardware, software et équipements de télécommunication) et des processus d'affaires concernés par le SI. L'apport des nouvelles technologies de l'information est à l'origine du regain de la notion de système d'information. L'utilisation combinée de moyens informatiques, électroniques et de procédés de télécommunication permet aujourd'hui, selon les besoins et les intentions exprimés, d'accompagner, d'automatiser et de dématérialiser quasiment toutes les opérations incluses dans les activités ou procédures d'entreprise. Ces capacités de traitement de volumes importants de données, d'inter-connexion de sites ou d'opérateurs géographiquement éloignés, expliquent qu'elles sont, aujourd'hui, largement utilisées (par exemple, dans les activités logistiques) pour traiter et répartir l'information en temps réel, en lieu et place des moyens classiques manuels, plus lents, tels que les formulaires sur papier et le téléphone. Ces capacités de traitement sont également fortement appréciées par le fait qu'elles renforcent le caractère « systémique » des données et traitements réalisés : la cohérence et la consolidation des activités lorsqu'elle est recherchée et bien conçue permet d'accroître la qualité du contrôle interne de la gestion des organisations, même lorsque celles-ci sont déconcentrées ou décentralisées.</t>
+        </is>
+      </c>
+      <c r="AA140" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/IS-Relationships-Chart.jpg</t>
         </is>
       </c>
-      <c r="Z140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -16112,10 +17225,20 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MetricImperialUSCustomaryUnits.jpg</t>
-        </is>
-      </c>
-      <c r="Z141" t="inlineStr"/>
+          <t>Nelle scienze matematiche, fisiche e naturali la misurazione è l'assegnazione di un intervallo di valori (misura ad una particolare proprietà fisica o proprietà chimica chiamata misurando, definita attraverso una grandezza fisica o chimica. La misurazione è dunque il processo svolto per assegnare una misura, anche se nel linguaggio comune si è soliti usare il termine misura in luogo di misurazione e presuppone l'esistenza di un sistema di misura. Con il termine misurando non ci si riferisce all'oggetto o al fenomeno su cui si sta eseguendo una misurazione, ma ad una specifica grandezza che caratterizza questi ultimi: ad esempio, quando rileviamo la temperatura di un liquido, il misurando non è il liquido, ma la temperatura del medesimo.</t>
+        </is>
+      </c>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>La mesure physique est l'action de déterminer la ou les valeurs d'une grandeur (longueur, capacité, etc.), par comparaison avec une grandeur constante de même espèce prise comme terme de référence (étalon ou unité). Selon la définition canonique : Mesurer une grandeur, c'est la comparer à une autre grandeur de même espèce prise comme unité. La mesure physique vise à l'objectivité et à la reproductibilité. La comparaison est numérique ; on exprime une caractéristique bien définie de l'objet par un nombre rationnel multipliant l'unité. Un résultat de mesure physique complet comprend une estimation numérique de la grandeur, la désignation de l'unité de mesure, une expression de l'incertitude de mesure et les principales conditions de l'épreuve. L'incertitude est partie intégrante de la mesure, et peut même être son résultat principal. En physique, la mesure physique se définit comme la détermination de la valeur numérique d'une grandeur par l'interprétation du résultat d'une expérience ou d'une observation. Les conditions et les méthodes de cette expérience ou observation déterminent l'incertitude. Le Bureau international des poids et mesures a établi un Système international d'unités et des normes de publication des résultats de mesure permettant leur comparaison directe.</t>
+        </is>
+      </c>
+      <c r="AA141" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Measuring_Tape_Inch+CM.jpg</t>
+        </is>
+      </c>
+      <c r="AB141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -16212,10 +17335,28 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
+          <t>In informatica, Computer-aided engineering (spesso abbreviato come CAE, in italiano "ingegneria assistita dal computer" indica le applicazioni software che agevolano la risoluzione di problemi tecnologici tramite il calcolo numerico.</t>
+        </is>
+      </c>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>L'ingénierie assistée par ordinateur ou IAO (en anglais computer-aided engineering ou CAE), également qualifiée d'ingénierie numérique, regroupe l'ensemble des moyens numériques et logiciels habituellement utilisés par les ingénieurs et techniciens des bureaux d'études pour concevoir, simuler et valider de nouveaux produits et processus industriels. L'aboutissement de la phase d'ingénierie numérique d'un produit est sa maquette numérique. Font classiquement partie de la catégorie des outils d'ingénierie numérique : 
+* les logiciels de CAO (conception assistée par ordinateur), 
+* les logiciels de simulation des comportements (statiques, cinématiques, dynamiques, rhéologiques…), 
+* les logiciels de FAO (fabrication assistée par ordinateur), 
+* les SGDT (système de gestion des données techniques), 
+* les systèmes de GCVP (product lifecycle management), 
+* les SGBC (système de gestion de bases de connaissance), 
+* les (knowledge lifecycle management), 
+* les environnements immersifs.</t>
+        </is>
+      </c>
+      <c r="AA142" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Plasticity.jpg</t>
         </is>
       </c>
-      <c r="Z142" t="inlineStr">
+      <c r="AB142" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
         </is>
@@ -16326,12 +17467,14 @@
           <t>Evaluation oder Evaluierung, aus lateinisch valere „stark, wert sein“, bedeutet sach- und fachgerechte Untersuchung und Bewertung.</t>
         </is>
       </c>
-      <c r="Y143" t="inlineStr">
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/General_douglas_macarthur_meets_american_indian_troops_wwii_military_pacific_navajo_pima_island_hopping.jpg</t>
         </is>
       </c>
-      <c r="Z143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -16426,12 +17569,18 @@
         </is>
       </c>
       <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr">
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>Meteodyn WT, ou Meteodyn, est un logiciel dédié à l'industrie éolienne qui utilise mécanique des fluides numérique (MFN) pour évaluer le potentiel éolien.</t>
+        </is>
+      </c>
+      <c r="AA144" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Manik_MFA2.jpg</t>
         </is>
       </c>
-      <c r="Z144" t="inlineStr">
+      <c r="AB144" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Wind_energy_software</t>
         </is>
@@ -16536,10 +17685,20 @@
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr">
         <is>
+          <t>In informatica, un file manager spaziale, o spatial file manager, è un software che sfrutta una metafora spaziale per rappresentare file e cartelle come se fossero degli oggetti fisici reali.</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>En informatique, un gestionnaire de fichiers en mode spatial est un gestionnaire de fichiers qui utilise la métaphore spatiale qui indique que tous les éléments (fichiers et répertoires) sont considérés comme des objets physiques du monde réel.</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Nautilus-spatial.png</t>
         </is>
       </c>
-      <c r="Z145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -16642,14 +17801,20 @@
         </is>
       </c>
       <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr">
-        <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Siemens_AG_logo.svg</t>
-        </is>
-      </c>
+      <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Computer_simulation</t>
+          <t>Simcenter Amesim (anciennement LMS Imagine.Lab Amesim) est un logiciel de simulation pour la modélisation et l'analyse de systèmes 1D multi-domaines. Le logiciel offre une suite de simulation 1D pour modéliser et analyser les systèmes intelligents multi-domaines et prédire leur performance multi-disciplinaire. Les composants du modèle sont décrits en utilisant des modèles analytiques validés qui représentent le comportement réel hydraulique, pneumatique, électrique ou mécanique, du système. Pour créer un modèle de simulation d'un système, un ensemble de bibliothèques validées peut être utilisé, contenant des composants prédéfinis pour différents domaines physiques. L'utilisateur peut composer un modèle d'un système basé sur la physique, à condition qu'il puisse être décrit de façon appropriée dans une représentation en géométrie unidimensionnelle. Les sous-modèles d'un système doivent être reliés entre eux - pour ce faire, chaque sous-modèle est doté de ports, qui peuvent avoir plusieurs entrées et sorties. La causalité est forcée en reliant les entrées d'un sous-modèle à la sortie d'un autre sous-modèle (et vice-versa). Cette approche donne la possibilité de simuler le comportement de systèmes intelligents avant que la géométrie CAO détaillée ne soit disponible. Simcenter Amesim fonctionne sur la majorité des plateformes de type Unix (dont Linux) et sous Windows. Simcenter Amesim 2019.1 a été publié en avril 2019.</t>
+        </is>
+      </c>
+      <c r="AA146" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Simcenter_Amesim.jpg</t>
+        </is>
+      </c>
+      <c r="AB146" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Graphical_user_interface</t>
         </is>
       </c>
     </row>
@@ -16738,12 +17903,14 @@
         </is>
       </c>
       <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr">
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Etap.png</t>
         </is>
       </c>
-      <c r="Z147" t="inlineStr"/>
+      <c r="AB147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -16848,10 +18015,20 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Man_using_AutoCAD_(1987).jpg</t>
+          <t>AutoCAD è un programma di disegno tecnico assistito dal computer ideato nel 1982 dalla software house statunitense Autodesk.Si tratta del primo prodotto CAD per personal computer, nonché uno dei più longevi marchi di software al 2021 ancora in commercio; a tale data è giunto inoltre alla sua trentaquattresima versione in 37 anni di presenza sul mercato.</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
+        <is>
+          <t>AutoCAD est un logiciel de dessin assisté par ordinateur (DAO) créé en décembre 1982 par Autodesk. En 1992, AutoCAD est développé pour Mac OS et pour Windows en 1994.</t>
+        </is>
+      </c>
+      <c r="AA148" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/AutoCAD_2016_screenshot.png</t>
+        </is>
+      </c>
+      <c r="AB148" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
@@ -16960,10 +18137,20 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
+          <t>Cinema 4D (anche abbreviato C4D è un software per la modellazione 3D, l'animazione, ed il rendering, prodotto dalla software house MAXON Computer GmbH che ha sede a Friedrichsdorf in Germania. Il programma supporta tecniche di modellazione procedurale, poligonale e solida, la creazione e l'applicazione di texture, la gestione dell'illuminazione, l'animazione e il rendering delle scene. Cinema 4D è dedicato principalmente alla post-produzione di film per la realizzazione di effetti speciali, principalmente grazie al modulo opzionale Bodypaint 3D.È apprezzato anche nel mondo della grafica e dell'animazione, grazie all'integrazione con i più diffusi software del settore, come Adobe After Effects e Adobe Illustrator.</t>
+        </is>
+      </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>CINEMA 4D est un logiciel de création 3D développé par la société allemande ; une entreprise du groupe allemand Nemetschek. C'est un outil permettant la modélisation, le texturage, l'animation et le rendu d'objets 3D. Jusqu'en 1991, le logiciel s'appelait FastRay, pour ensuite devenir CINEMA 4D.</t>
+        </is>
+      </c>
+      <c r="AA149" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/C4D_Logo.png</t>
         </is>
       </c>
-      <c r="Z149" t="inlineStr">
+      <c r="AB149" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -17068,10 +18255,20 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/historical_MC15.jpg</t>
+          <t>Mathcad è un software principalmente sviluppato per il calcolo, la verifica e la documentazione di calcoli ingegneristici. Fu introdotto nel 1986 per DOS ed è stato il primo software ad introdurre la scrittura di formule matematiche con la risoluzione in tempo reale.</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
+        <is>
+          <t>Mathcad est un logiciel permettant de réaliser des calculs scientifiques. Son interface permet de réaliser des rapports, c'est-à-dire des documents formatés qui mêlent des calculs et des textes nécessaires à la compréhension d'un projet d'ingénierie. Mathcad prend en charge .NET et le format XML natif. Avec son interface bloc-notes unique, le logiciel intègre dans une même feuille de calcul les notations, textes et graphiques mathématiques standard. Il contient des fonctions de calcul numérique et de calcul formel. PTC a racheté Mathsoft en avril 2006. Mathcad est aujourd'hui la propriété de PTC.</t>
+        </is>
+      </c>
+      <c r="AA150" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/historical_MCPrime1.png</t>
+        </is>
+      </c>
+      <c r="AB150" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer_algebra_system</t>
         </is>
@@ -17176,10 +18373,16 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
+          <t>In informatica, la transcodifica è un'operazione in cui si trasforma un documento con una certa codifica in un documento con una codifica diversa (ad esempio per convertire un documento con set di caratteri UTF-8 in un documento con set di caratteri ASCII, oppure convertire un documento XML in un documento HTML. Il termine viene utilizzato anche in caso di migrazione o integrazione di software gestionali, per rapportare tabelle che contengono le stesse informazioni ma con codici diversi (Es. Tabella codici di pagamento, tabella codici agente, ecc..</t>
+        </is>
+      </c>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Equisetum_arvense_strobili.jpg</t>
         </is>
       </c>
-      <c r="Z151" t="inlineStr">
+      <c r="AB151" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Data_conversion</t>
         </is>
@@ -17282,12 +18485,14 @@
           <t>Femap ist ein auf der Finite-Elemente-Methode (FEM) basierender grafischer Pre-/Postprozessor für die Erstellung von FE-Modellen sowie der Auswertung von Berechnungsergebnissen. In Kombination mit dem optionalen FEM-Solver NX Nastran ergibt sich ein CAD neutrales Programm für die Simulation von statischen, dynamischen, thermischen und nicht linearen Vorgängen.</t>
         </is>
       </c>
-      <c r="Y152" t="inlineStr">
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Thompsonella_sp._(PCR-4914,_PUE,_San_José_Miahuatlán).jpg</t>
         </is>
       </c>
-      <c r="Z152" t="inlineStr">
+      <c r="AB152" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
         </is>
@@ -17386,12 +18591,18 @@
           <t>Förderanlagen oder Fördermittel sind Maschinen und Anlagen, die zum Fördern von Fördergütern verwendet werden.Sie lassen sich nach der Art des Förderguts unterteilen in Förderer für Stückgut (z. B. Kisten) und Förderer für Schüttgut (z. B. Kohle). Andere Einteilungen unterscheiden Stetig- und Unstetigförderer oder Förderer für Stückgut nach baulichen Gesichtspunkten. Im Bergbau nennt man die Gesamtheit der Anlagen, die zur Förderung des Fördergutes wie Kohle, Erz, Salz, Erdöl dienen, Förderanlagen. Dazu gehören zunächst die eigentlichen Fördermittel (Aufzüge, Fahrkünste, Förderbänder etc.) aber auch zugehörige Bauten wie Gruben, Gleise, Fördertürme, Förderkörbe. Zum Teil wird Förderanlage auch alternativ zu den Begriffen Grube, Zeche oder Bergwerk verwendet.</t>
         </is>
       </c>
-      <c r="Y153" t="inlineStr">
-        <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Prorunner_mk2_goederenlift.jpg</t>
-        </is>
-      </c>
-      <c r="Z153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr">
+        <is>
+          <t>Un convoyeur est un mécanisme ou une machine qui permet le transport d'une charge isolée (cartons, bacs, sacs, etc.) ou de produits en vrac (terre, poudre, aliments, etc.) de façon continue sur un trajet prédéterminé.</t>
+        </is>
+      </c>
+      <c r="AA153" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Carton_Conveyor.jpg</t>
+        </is>
+      </c>
+      <c r="AB153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -17484,10 +18695,20 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/016_Coca-Cola_vending_machine_at_Kyoto_Station,_Japan_-_コカコーラ_自動販売機.jpg</t>
+          <t>Il termine automazione identifica la tecnologia che usa sistemi di controllo (come circuiti logici o elaboratori per gestire macchine e processi, riducendo la necessità dell'intervento umano, ovvero per l'esecuzione di operazioni ripetitive o complesse, ma anche dove si richieda sicurezza o certezza dell'azione o semplicemente per maggiore comodità. A partire dalla prima rivoluzione industriale sono stati richiesti, agli ingegneri e alle industrie, degli enormi investimenti nell'ambito dell'automazione: la macchina a vapore di James Watt prima, il motore a scoppio di Eugenio Barsanti e Felice Matteucci e l'elettronica dopo, hanno permesso il raggiungimento di notevoli progressi tecnologici.</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
+        <is>
+          <t>Un automatisme est un système qui, par le moyen de dispositifs mécaniques, pneumatiques, hydrauliques ou électriques, est capable de remplacer l'être humain pour certaines tâches. Simples ou complexes, les systèmes automatisés font partie de l'environnement de l'être humain. Ils se développent et prennent une place plus importante dans la manière de travailler, tant dans la production industrielle que dans les services.</t>
+        </is>
+      </c>
+      <c r="AA154" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Tower_bridge_steam_engine.jpg</t>
+        </is>
+      </c>
+      <c r="AB154" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Automation</t>
         </is>
@@ -17600,10 +18821,20 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/SketchUp_Logo_2020.svg</t>
+          <t>SketchUp è un'applicazione di computer grafica per la modellazione 3D, creata originariamente da @Last (fondata nel 2000 da Brad Schell e Joe Esch e orientata alla progettazione architettonica, all'urbanistica, all'ingegneria civile, allo sviluppo di videogiochi e alle professioni correlate. Le piattaforme supportate sono Windows e Mac.</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
+        <is>
+          <t>SketchUp est un logiciel de modélisation 3D, d'animation et de cartographie orienté vers l'architecture. Initialement édité par la société @Last Software (racheté par Google ensuite), ce logiciel se caractérise par des outils simples (rotation, extrusion, déplacement, etc.), qui en font un logiciel de 3D très différent des modeleurs 3D classiques. Il a été racheté en 2012 par la société Trimble.</t>
+        </is>
+      </c>
+      <c r="AA155" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C-5_Galaxy_SketchUp_model.png</t>
+        </is>
+      </c>
+      <c r="AB155" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/3D_computer_graphics</t>
         </is>
@@ -17708,10 +18939,22 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
+          <t>CAD, in informatica, è un acronimo inglese usato per indicare due concetti correlati, ma differenti: 
+* computer-aided drafting (lett. "disegno tecnico assistito dall'elaboratore": in tale accezione indica il settore dell'informatica volto all'utilizzo di tecnologie software e specificamente della computer grafica per supportare l'attività di disegno tecnico (drafting. I sistemi di computer-aided drafting hanno come obiettivo la creazione di un modello, tipicamente 2D, del disegno tecnico che descrive il manufatto, non del manufatto stesso. Ad esempio, un sistema computer-aided drafting può essere impiegato da un progettista nella creazione di una serie di disegni tecnici (in proiezione ortogonale, in sezione, in assonometria, in esploso finalizzati alla costruzione di un motore; 
+* computer-aided design (lett. "progettazione assistita dall'elaboratore": in questa accezione, la più comune, indica il settore dell'informatica volto all'utilizzo di tecnologie software e in particolare della computer grafica per supportare l'attività di progettazione (design di manufatti sia virtuali che reali. I sistemi di computer-aided design hanno come obiettivo la creazione di modelli, soprattutto 3D, del manufatto. Ad esempio, un sistema computer-aided design può essere impiegato da un progettista meccanico nella creazione di un modello 3D di un motore. Se viene realizzato un modello 3D, esso può essere utilizzato per calcoli quali analisi statiche, dinamiche e strutturali ed in tal caso si parla di computer-aided engineering (CAE, disciplina più vasta di cui il CAD costituisce il sottoinsieme di azioni e strumenti volti alla realizzazione puramente geometrica del modello.</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
+        <is>
+          <t>La conception assistée par ordinateur ou CAO (en anglais, computer aided design ou CAD) comprend l'ensemble des logiciels et des techniques de modélisation géométrique permettant de concevoir, de tester virtuellement – à l'aide d'un ordinateur et des techniques de simulation numérique – et de réaliser des produits manufacturés et les outils pour les fabriquer. On confond souvent CAO et DAO (dessin assisté par ordinateur) : la CAO n'a pas pour fonction première l'édition du dessin. Il s'agit d'un outil informatique souvent lié à un métier, fonctionnant en langage dit objet, et permettant l'organisation virtuelle de fonctions techniques. Cela permet ensuite la simulation de comportement de l'objet conçu, l'édition éventuelle d'un plan ou d'un schéma étant automatique et accessoire. En DAO, un trait est un trait et le logiciel ne permet pas l'interprétation technique de l'ensemble.</t>
+        </is>
+      </c>
+      <c r="AA156" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+        </is>
+      </c>
+      <c r="AB156" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
@@ -17816,12 +19059,22 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
+          <t>SolidWorks è un software di disegno e progettazione tridimensionale parametrica, prodotto e commercializzato dalla Dassault Systèmes. Nasce come software appositamente dedicato per l'ingegneria meccanica ed è quindi particolarmente utile per la progettazione di apparati meccanici, anche complessi.</t>
+        </is>
+      </c>
+      <c r="Z157" t="inlineStr">
+        <is>
+          <t>SOLIDWORKS est un logiciel propriétaire de conception assistée par ordinateur 3D fonctionnant sous Windows.</t>
+        </is>
+      </c>
+      <c r="AA157" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Fc_etzella.png</t>
         </is>
       </c>
-      <c r="Z157" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
+      <c r="AB157" t="inlineStr">
+        <is>
+          <t>CAD and CAE</t>
         </is>
       </c>
     </row>
@@ -17916,12 +19169,14 @@
         </is>
       </c>
       <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr">
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo_Automation_Studio.png</t>
         </is>
       </c>
-      <c r="Z158" t="inlineStr">
+      <c r="AB158" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Systems_design</t>
         </is>
@@ -18034,10 +19289,20 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Man_using_AutoCAD_(1987).jpg</t>
+          <t>AutoCAD è un programma di disegno tecnico assistito dal computer ideato nel 1982 dalla software house statunitense Autodesk.Si tratta del primo prodotto CAD per personal computer, nonché uno dei più longevi marchi di software al 2021 ancora in commercio; a tale data è giunto inoltre alla sua trentaquattresima versione in 37 anni di presenza sul mercato.</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
+        <is>
+          <t>AutoCAD est un logiciel de dessin assisté par ordinateur (DAO) créé en décembre 1982 par Autodesk. En 1992, AutoCAD est développé pour Mac OS et pour Windows en 1994.</t>
+        </is>
+      </c>
+      <c r="AA159" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/AutoCAD_2016_screenshot.png</t>
+        </is>
+      </c>
+      <c r="AB159" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
@@ -18130,10 +19395,22 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
+          <t>CAD, in informatica, è un acronimo inglese usato per indicare due concetti correlati, ma differenti: 
+* computer-aided drafting (lett. "disegno tecnico assistito dall'elaboratore": in tale accezione indica il settore dell'informatica volto all'utilizzo di tecnologie software e specificamente della computer grafica per supportare l'attività di disegno tecnico (drafting. I sistemi di computer-aided drafting hanno come obiettivo la creazione di un modello, tipicamente 2D, del disegno tecnico che descrive il manufatto, non del manufatto stesso. Ad esempio, un sistema computer-aided drafting può essere impiegato da un progettista nella creazione di una serie di disegni tecnici (in proiezione ortogonale, in sezione, in assonometria, in esploso finalizzati alla costruzione di un motore; 
+* computer-aided design (lett. "progettazione assistita dall'elaboratore": in questa accezione, la più comune, indica il settore dell'informatica volto all'utilizzo di tecnologie software e in particolare della computer grafica per supportare l'attività di progettazione (design di manufatti sia virtuali che reali. I sistemi di computer-aided design hanno come obiettivo la creazione di modelli, soprattutto 3D, del manufatto. Ad esempio, un sistema computer-aided design può essere impiegato da un progettista meccanico nella creazione di un modello 3D di un motore. Se viene realizzato un modello 3D, esso può essere utilizzato per calcoli quali analisi statiche, dinamiche e strutturali ed in tal caso si parla di computer-aided engineering (CAE, disciplina più vasta di cui il CAD costituisce il sottoinsieme di azioni e strumenti volti alla realizzazione puramente geometrica del modello.</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
+        <is>
+          <t>La conception assistée par ordinateur ou CAO (en anglais, computer aided design ou CAD) comprend l'ensemble des logiciels et des techniques de modélisation géométrique permettant de concevoir, de tester virtuellement – à l'aide d'un ordinateur et des techniques de simulation numérique – et de réaliser des produits manufacturés et les outils pour les fabriquer. On confond souvent CAO et DAO (dessin assisté par ordinateur) : la CAO n'a pas pour fonction première l'édition du dessin. Il s'agit d'un outil informatique souvent lié à un métier, fonctionnant en langage dit objet, et permettant l'organisation virtuelle de fonctions techniques. Cela permet ensuite la simulation de comportement de l'objet conçu, l'édition éventuelle d'un plan ou d'un schéma étant automatique et accessoire. En DAO, un trait est un trait et le logiciel ne permet pas l'interprétation technique de l'ensemble.</t>
+        </is>
+      </c>
+      <c r="AA160" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+        </is>
+      </c>
+      <c r="AB160" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
@@ -18237,10 +19514,20 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
+          <t>La prototipazione digitale (in inglese digital mockup o DMU è un'attività di costruzione ed analisi virtuale, eseguita mediante elaboratore, di oggetti, componenti ed assiemi fisici. Il digital mockup permette la simulazione di assemblaggi, interazioni tra componenti e costruzioni prima che questi vengano effettivamente realizzati. E quindi permette la valutazione di scenari od opzioni alternative e l'identificazioni di problemi. Il digital mockup si basa su strumenti informatici Computer Aided Design e di gestione dati ed ha avuto grande sviluppo dall'inizio degli anni '90 con il consolidamento degli strumenti CAD 3D (tridimensionali. Esempi di digital mockup sono: la progettazione del vano motore di autoveicoli, la verifica dell'assemblaggio di aerei ed elicotteri, il controllo e la modifica di tubazioni negli impianti e nelle navi. In generale maggiore è il numero di componenti in gioco o la complessità maggiore è il ritorno dell'investimento in digital mockup.</t>
+        </is>
+      </c>
+      <c r="Z161" t="inlineStr">
+        <is>
+          <t>Une maquette numérique est une représentation géométrique d'un objet ou ensemble d'objets (véhicule, bâtiment...), généralement en 3D, réalisée sur ordinateur de façon à l'analyser, le contrôler et en simuler certains comportements. Elle sert à concevoir et/ou représenter (en image de synthèse fixe ou en simulation dynamique) un projet ou un objet. Celui-ci peut être à construire ou déjà construit. La maquette peut permettre de gérer l'objet (maison domotisée, prison, hôpital, usine...) ou avoir une vocation prospective (présenter une architecture qui pourrait exister). L'expression désigne aussi l'outil numérique qui génère et utilise cet avatar numérique ainsi que la base de données associée et le processus plus ou moins collaboratif de construction et mise à jour de la maquette alors que « d’autres encore estiment qu’il s’agit d’une méthode d’analyse voire d’une méthode de management... ». L'expression anglophone est digital mock-up ou, en abrégé, DMU, mais dans le domaine de l'architecture et urbanisme, l'acronyme BIM (pour l'expression anglophone "building information modeling", parfois traduite en France par "Bâtiment et Informations Modélisés") est plus souvent utilisée.</t>
+        </is>
+      </c>
+      <c r="AA161" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/XM1202_MCS.jpg</t>
         </is>
       </c>
-      <c r="Z161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -18339,14 +19626,20 @@
         </is>
       </c>
       <c r="X162" t="inlineStr"/>
-      <c r="Y162" t="inlineStr">
-        <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Siemens_AG_logo.svg</t>
-        </is>
-      </c>
+      <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Computer_simulation</t>
+          <t>Simcenter Amesim (anciennement LMS Imagine.Lab Amesim) est un logiciel de simulation pour la modélisation et l'analyse de systèmes 1D multi-domaines. Le logiciel offre une suite de simulation 1D pour modéliser et analyser les systèmes intelligents multi-domaines et prédire leur performance multi-disciplinaire. Les composants du modèle sont décrits en utilisant des modèles analytiques validés qui représentent le comportement réel hydraulique, pneumatique, électrique ou mécanique, du système. Pour créer un modèle de simulation d'un système, un ensemble de bibliothèques validées peut être utilisé, contenant des composants prédéfinis pour différents domaines physiques. L'utilisateur peut composer un modèle d'un système basé sur la physique, à condition qu'il puisse être décrit de façon appropriée dans une représentation en géométrie unidimensionnelle. Les sous-modèles d'un système doivent être reliés entre eux - pour ce faire, chaque sous-modèle est doté de ports, qui peuvent avoir plusieurs entrées et sorties. La causalité est forcée en reliant les entrées d'un sous-modèle à la sortie d'un autre sous-modèle (et vice-versa). Cette approche donne la possibilité de simuler le comportement de systèmes intelligents avant que la géométrie CAO détaillée ne soit disponible. Simcenter Amesim fonctionne sur la majorité des plateformes de type Unix (dont Linux) et sous Windows. Simcenter Amesim 2019.1 a été publié en avril 2019.</t>
+        </is>
+      </c>
+      <c r="AA162" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Simcenter_Amesim.jpg</t>
+        </is>
+      </c>
+      <c r="AB162" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Graphical_user_interface</t>
         </is>
       </c>
     </row>
@@ -18443,12 +19736,14 @@
         </is>
       </c>
       <c r="X163" t="inlineStr"/>
-      <c r="Y163" t="inlineStr">
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/KeyCreator-logo.jpg</t>
         </is>
       </c>
-      <c r="Z163" t="inlineStr">
+      <c r="AB163" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
@@ -18551,12 +19846,14 @@
         </is>
       </c>
       <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr">
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Autodesk_Simulation_Mechanical_2014.png</t>
         </is>
       </c>
-      <c r="Z164" t="inlineStr">
+      <c r="AB164" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Finite_element_method</t>
         </is>
@@ -18657,10 +19954,22 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Truss_Structure_Analysis,_Full_Figure2.jpg</t>
+          <t>L'analisi strutturale (detta anche calcolo strutturale o, comunemente, con dizione inglese, structural analysis indica tutti gli strumenti e le tecniche (numeriche, informatiche… sviluppate per risolvere problemi ingegneristici di "meccanica delle strutture", in particolare in ambito aerospaziale, meccanico e civile, e ha lo scopo di determinare la distribuzione delle forze interne e dei momenti o delle tensioni, delle deformazioni e degli spostamenti, nell'intera struttura o in una parte di essa.</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
+        <is>
+          <t>Le calcul des structures et la modélisation concernent deux domaines distincts : d'une part les applications spécifiques au patrimoine architectural, mobilier et naturel et d'autre part les applications industrielles. Le calcul des structures et leur modélisation est utilisé dans les domaines : 
+* de la conservation et mise en valeur du patrimoine architectural, mobilier et naturel, dans le cadre de missions d’assistance à la maître d’œuvre ou au maître d’ouvrage permettant d’arrêter un programme de travaux, 
+* d’applications industrielles.</t>
+        </is>
+      </c>
+      <c r="AA165" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Truss_Structure_Analysis,_Method_of_Sections_Left2.jpg</t>
+        </is>
+      </c>
+      <c r="AB165" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Structural_analysis</t>
         </is>
@@ -18765,12 +20074,22 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
+          <t>Rhinoceros, comunemente chiamato Rhino, è un software applicativo commerciale per la modellazione 3D di superfici sculturate (free form realizzato da Robert McNeel &amp; Associates, un'azienda di Seattle nello stato di Washington, negli USA. Viene normalmente utilizzato per il disegno industriale, l'architettura, il design navale, il design del gioiello, il design automobilistico, il CAD/CAM, per la prototipazione rapida, il Reverse engineering e per il design della comunicazione. In Rhino, tutte le entità geometriche sono rappresentate mediante NURBS (acronimo di Non Uniform Rational B-Splines. Molto semplicemente, le NURBS sono una rappresentazione matematica mediante la quale è possibile definire accuratamente geometrie 2D e 3D quali linee, archi e superfici a forma libera. I plug-in sviluppati da McNeel comprendono Flamingo (rendering raytrace, Penguin (rendering non fotorealistico e Bongo. Sono disponibili centinaia di plug-in di terze parti fra i quali quello per Maxwell Render, V-Ray ed altri. Sono disponibili anche plug-in per il CAM e la fresatura CNC, come madCAM e RhinoCAM, che permettono il disegno dei tracciati direttamente all'interno del programma. Come molte applicazioni di modellazione, Rhino dispone anche di un linguaggio di scripting basato sul linguaggio Visual Basic e di un SDK che permette di leggere e scrivere file direttamente in Rhino. Rhinoceros 3D ha avuto successo come programma di progettazione architettonica in parte grazie al plug-in per la , oggi sempre più utilizzata dagli studi di architettura. La sua crescente popolarità è basata sulla sua diversità, sulle funzionalità multidisciplinari, sulla sua bassa curva di apprendimento, sul costo relativamente basso e sulla possibilità di esportare file in oltre trenta formati diversi, rendendolo un vero e proprio strumento di conversione all'interno di un flusso di lavoro.</t>
+        </is>
+      </c>
+      <c r="Z166" t="inlineStr">
+        <is>
+          <t>Rhinoceros 3D est un logiciel de conception assistée par ordinateur utilisé par exemple dans le milieu du design industriel ou de l'architecture, développé par Robert McNeel &amp; Associates. Il sert essentiellement à concevoir des formes complexes comme celles de navires, de véhicules terrestres ou d'objets divers (mobilier, produits électroniques, objet de design, bijoux).</t>
+        </is>
+      </c>
+      <c r="AA166" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Robot_image_created_in_Rhinoceros_3D_and_rendered_in_Flamingo.jpg</t>
         </is>
       </c>
-      <c r="Z166" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="AB166" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/3D_computer_graphics</t>
         </is>
       </c>
     </row>
@@ -18873,10 +20192,22 @@
       <c r="X167" t="inlineStr"/>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Calculatorwatch.jpg</t>
-        </is>
-      </c>
-      <c r="Z167" t="inlineStr">
+          <t>Un software calcolatrice è una calcolatrice implementata come programma per computer, anziché come dispositivo fisico. I software di questa categoria rientrano tra gli strumenti interattivi più semplici e, come tali: 
+* possono fornire all'utente solo un'operazione alla volta; 
+* possono essere usati per eseguire qualsiasi processo che consiste in una sequenza di operazioni definite; 
+* non hanno altro scopo che questi processi, poiché le operazioni sono la loro unica, o almeno la principale, caratteristica. Volendo riprodurre le sole funzionalità di una normale calcolatrice di solito questi programmi: 
+* hanno solo un piccolo insieme di operazioni relativamente semplici; 
+* possono eseguire processi relativamente brevi; 
+* non accettano grandi quantità di dati in ingresso e/o non producono molti risultati in uscita contemporaneamente.</t>
+        </is>
+      </c>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Gcalctool-basic.png</t>
+        </is>
+      </c>
+      <c r="AB167" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Software_calculator</t>
         </is>
@@ -18989,10 +20320,26 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
+          <t>In informatica un content management system, in acronimo CMS (sistema di gestione dei contenuti in italiano, è uno strumento software, installato su un server web, il cui compito è facilitare la gestione dei contenuti di siti web, svincolando il webmaster da conoscenze tecniche specifiche di programmazione Web.</t>
+        </is>
+      </c>
+      <c r="Z168" t="inlineStr">
+        <is>
+          <t>Un système de gestion de contenu ou SGC (content management system ou CMS en anglais) est programme permettant de créer un site internet, un blog ou encore un site e-commerce.Il permet les fonctionnalités suivantes : 
+* il permet à plusieurs individus de travailler sur un même document 
+* il fournit une chaîne de publication (workflow) offrant par exemple la possibilité de mettre en ligne le contenu des documents ; 
+* il permet de séparer les opérations de gestion de la forme et du contenu ; 
+* il permet de structurer le contenu (utilisation de FAQ, de documents, de blogs, de forums de discussion, etc.) ; 
+* il permet de hiérarchiser les utilisateurs et de leur attribuer des rôles et des permissions (utilisateur anonyme, administrateur, contributeur, etc.) ; 
+* certains SGC incluent la gestion de versions. Lorsque le SGC gère du contenu dynamique, on parle de système de gestion de contenu dynamique ou SGCD (Dynamic Content Management System ou DCMS). Le SGC ne doit pas être confondu avec les systèmes de gestion électronique des documents (GED) qui permettent de réaliser la gestion de contenu dans l'entreprise (notamment le cycle de vie des documents). WordPress et Wix font parties des SGC (ou CMS en anglais).</t>
+        </is>
+      </c>
+      <c r="AA168" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Marco_Porcio_Caton_Major.jpg</t>
         </is>
       </c>
-      <c r="Z168" t="inlineStr">
+      <c r="AB168" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Content_management_system</t>
         </is>
@@ -19104,10 +20451,16 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
+          <t>La FMEA (o Analisi dei modi e degli effetti dei guasti, dall'inglese Failure Mode and Effect Analysis è una metodologia utilizzata per analizzare le o di difetto di un processo, prodotto o sistema, analizzarne le cause e valutare quali sono gli effetti sull'intero sistema/impianto. Generalmente (ma non necessariamente l'analisi è eseguita preventivamente e quindi si basa su considerazioni teoriche e non sperimentali.</t>
+        </is>
+      </c>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Unambiguous.gif</t>
         </is>
       </c>
-      <c r="Z169" t="inlineStr"/>
+      <c r="AB169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -19208,10 +20561,20 @@
       </c>
       <c r="Y170" t="inlineStr">
         <is>
+          <t>Autodesk Revit è un programma CAD e BIM per sistemi operativi Windows, creato dalla Revit Technologies Inc. e comprato nel 2002 dalla Autodesk per 133 milioni di dollari, che consente la progettazione con elementi di modellazione parametrica e di disegno. Revit negli ultimi sette anni ha subito profondi cambiamenti e miglioramenti. Prima di tutto, esso è stato modificato per poter supportare in maniera nativa i formati DWG, DXF e . Inoltre, è stato migliorato in termini di velocità ed accuratezza di esecuzione dei rendering. A tal fine, nel 2008 il motore di rendering esistente, , è stato sostituito con Mental Ray. Tramite la parametrizzazione e la tecnologia 3D nativa è possibile impostare la concettualizzazione di architetture e forme tridimensionali. Questo nuovo paradigma comporta una rivoluzione nella percezione progettuale, poiché questa si sostanzia in termini non più cartesiani ma spaziali, con i vantaggi che questa può apportare alla progettazione. Revit permette, inoltre, l'integrazione in un unico modello di tutte le informazioni utili in ogni fase del processo architettonico; è quindi possibile tenere insieme documentazione e disegno, aspetto questo che semplifica la gestione dell'intero iter progettuale, dalla sua ideazione alla realizzazione e gestione. Revit, come programma BIM, è da intendersi come un approccio più vicino alla realtà percepita dagli esseri umani. Uno dei punti di forza di Revit è quello di poter generare con estrema facilità viste prospettiche o assonometriche, che richiederebbero notevoli sforzi nel disegno manuale; un esempio è la creazione di spaccati prospettici ombreggiati.Altra caratteristica di estrema importanza è quello di costruire il modello utilizzando elementi costruttivi, mentre in altri software analoghi la creazione delle forme è svincolata dalla funzione costruttiva e strutturale.Elemento portante di Revit è lo sfruttamento della "quarta dimensione", cioè il tempo. Si possono infatti impostare le fasi temporali: ad esempio, Stato di Fatto e Stato di Progetto. Ogni elemento del modello può essere creato in una fase e demolito in un'altra, avendo poi la possibilità di creare viste di raffronto con le opportune evidenziazioni: "Gialli e Rossi".I punti deboli del programma sono rappresentati, invece, dall'interfaccia talvolta poco intuitiva, dalla qualità dei rendering, che, pur utilizzando il motore "radiosity", non è paragonabile a quella ottenibile con software di rendering dedicati, infine il programma limita la progettazione alle strutture "edili" mentre non è predisposto per l'ingegneria civile (strade e infrastrutture in generale. Per questo motivo Autodesk commercializza software BIM specifici come Civil 3D.</t>
+        </is>
+      </c>
+      <c r="Z170" t="inlineStr">
+        <is>
+          <t>Revit est un logiciel de conception de bâtiment édité par la société américaine Autodesk qui permet de créer un modèle en 3D d'un bâtiment pour créer divers documents nécessaires à sa construction (plan, perspective, ...). Revit est un logiciel de CAO, mais sa particularité est d'être un logiciel BIM multi-métiers destiné aux professionnels du BTP (ingénieurs, architectes, dessinateurs-projeteurs, entrepreneurs,...).</t>
+        </is>
+      </c>
+      <c r="AA170" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Revit_2014_branding.png</t>
         </is>
       </c>
-      <c r="Z170" t="inlineStr">
+      <c r="AB170" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_design</t>
         </is>
@@ -19316,10 +20679,22 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
+          <t>La proprietà intellettuale, in diritto solo moderno, si riferisce all'apparato di principi giuridici che mirano a tutelare i frutti dell'inventiva e dell'ingegno umano. Sulla base di questi principi, la legge attribuisce a creatori e inventori un vero e proprio monopolio nello sfruttamento delle loro creazioni/invenzioni, ponendo nelle loro mani gli strumenti legali necessari per tutelarsi da eventuali utilizzi a scopo di lucro da parte di soggetti non autorizzati.</t>
+        </is>
+      </c>
+      <c r="Z171" t="inlineStr">
+        <is>
+          <t>La propriété intellectuelle est le domaine comportant l'ensemble des droits exclusifs accordés sur des créations intellectuelles.Elle comporte deux branches : 
+* la propriété littéraire et artistique, qui s'applique aux œuvres de l'esprit, est composée du droit d'auteur et des droits voisins ; 
+* la propriété industrielle, qui regroupe elle-même, d'une part, les créations utilitaires, comme le brevet d'invention et le certificat d'obtention végétale ou au contraire un droit de protection sui generis des obtentions végétales, et, d'autre part, les signes distinctifs, notamment la marque commerciale, le nom de domaine et l'appellation d'origine. Elle comprend un droit moral (extra-patrimonial) qui est le seul droit attaché à la personne de l'auteur de l’œuvre qui soit perpétuel, inaliénable et imprescriptible, et qui s'applique donc post mortem, même après que l'œuvre est placée dans le domaine public (soit 70 ans à compter du 1er janvier de l'année suivant la mort de l’auteur). C'est l'œuvre résultante, et sa forme, qui sont protégées, non les idées et les informations qui en sont à l'origine, et qui, elles, restent libres de droit. Ainsi, le « résumé » d'une œuvre écrite, ou la citation d'un titre dans une bibliographie ne sont pas considérés comme un emprunt à ce qui est protégé par le droit d'auteur dans l'œuvre. Certaines personnalités du mouvement du logiciel libre dénoncent l'escroquerie sémantique du concept de « propriété intellectuelle », de même le récent brevetage du vivant a suscité de vives controverses éthiques et juridiques.</t>
+        </is>
+      </c>
+      <c r="AA171" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/GlamCamp_NY_Kippelboy_nina_Paley_(2).jpg</t>
         </is>
       </c>
-      <c r="Z171" t="inlineStr">
+      <c r="AB171" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Intellectual_property</t>
         </is>
@@ -19432,10 +20807,22 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Architectural_BIM_3D_Modeling.jpg</t>
+          <t>Il Building Information Modeling (acronimo: BIM, in italiano: Modellizzazione delle Informazioni di Costruzione indica un metodo per l'ottimizzazione della pianificazione, realizzazione e gestione di costruzioni tramite aiuto di un software. Tramite esso tutti i dati rilevanti di una costruzione possono essere raccolti, combinati e collegati digitalmente. La costruzione virtuale è visualizzabile inoltre come un modello geometrico tridimensionale. Il Building Information Modelling viene utilizzato sia nel settore edile per la progettazione e costruzione (architettura, ingegneria, impianti tecnici come anche nel facility management.</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
+        <is>
+          <t>BIM est le sigle anglais de Building Information Modeling, de Building Information Model, ou encore de Building Information Management, et le rétroacronyme de bâti immobilier modélisé. Il désigne les outils de modélisation des informations de la construction implémentés par des applications qui permettent la modélisation des données du bâtiment, d'une structure, d'un édifice ou d'un ouvrage. Le BIM ne se limite pas aux seuls bâtiments, il concerne l'ensemble des ouvrages de la construction, y compris le génie civil, les travaux publics, l’ensemble des infrastructures et des réseaux. Il ne se limite pas non plus à l'acte de construire, mais concerne l'ensemble du cycle de vie d'un ouvrage, depuis la programmation, les esquisses jusqu'à sa déconstruction et la réutilisation, le recyclage ou la valorisation énergétique des éléments en fin de vie. Le BIM se définit à la fois comme : 
+* un processus de structuration, de création, de production, d'échange, d'intégration, d'analyse, de gestion, de visualisation et d'exploitation de données ; 
+* un modèle d'un ouvrage bâti (pouvant tenir dans un fichier numérique, lequel comprend toute l'information technique nécessaire à sa conception, sa construction, les opérations préalables à sa recette (intégration, essais, vérifications, certification), son entretien, ses réparations, d'éventuelles modifications ou agrandissements et sa déconstruction). Le fichier n'est pas qu'un catalogue d'objets positionnés dans l'espace ; il comprend aussi une description des relations entre objets et de leurs propriétés (par exemple : jonctions de murs, type d'ouverture ou de traversée d'un mur ou d'une dalle et ruptures de pont thermique) ; Le BIM facilite la faisabilité de projets conçus d'un ouvrage. Il s'agit d'un ensemble de processus, visant à orienter la mise en œuvre vers certains procédés et à faciliter la communication, l'échange et la gestion de données autour d'un projet de construction.</t>
+        </is>
+      </c>
+      <c r="AA172" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Scan-to-BIM_Mechanical_Room.jpg</t>
+        </is>
+      </c>
+      <c r="AB172" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Building_information_modeling</t>
         </is>
@@ -19553,10 +20940,20 @@
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MetricImperialUSCustomaryUnits.jpg</t>
-        </is>
-      </c>
-      <c r="Z173" t="inlineStr"/>
+          <t>Nelle scienze matematiche, fisiche e naturali la misurazione è l'assegnazione di un intervallo di valori (misura ad una particolare proprietà fisica o proprietà chimica chiamata misurando, definita attraverso una grandezza fisica o chimica. La misurazione è dunque il processo svolto per assegnare una misura, anche se nel linguaggio comune si è soliti usare il termine misura in luogo di misurazione e presuppone l'esistenza di un sistema di misura. Con il termine misurando non ci si riferisce all'oggetto o al fenomeno su cui si sta eseguendo una misurazione, ma ad una specifica grandezza che caratterizza questi ultimi: ad esempio, quando rileviamo la temperatura di un liquido, il misurando non è il liquido, ma la temperatura del medesimo.</t>
+        </is>
+      </c>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>La mesure physique est l'action de déterminer la ou les valeurs d'une grandeur (longueur, capacité, etc.), par comparaison avec une grandeur constante de même espèce prise comme terme de référence (étalon ou unité). Selon la définition canonique : Mesurer une grandeur, c'est la comparer à une autre grandeur de même espèce prise comme unité. La mesure physique vise à l'objectivité et à la reproductibilité. La comparaison est numérique ; on exprime une caractéristique bien définie de l'objet par un nombre rationnel multipliant l'unité. Un résultat de mesure physique complet comprend une estimation numérique de la grandeur, la désignation de l'unité de mesure, une expression de l'incertitude de mesure et les principales conditions de l'épreuve. L'incertitude est partie intégrante de la mesure, et peut même être son résultat principal. En physique, la mesure physique se définit comme la détermination de la valeur numérique d'une grandeur par l'interprétation du résultat d'une expérience ou d'une observation. Les conditions et les méthodes de cette expérience ou observation déterminent l'incertitude. Le Bureau international des poids et mesures a établi un Système international d'unités et des normes de publication des résultats de mesure permettant leur comparaison directe.</t>
+        </is>
+      </c>
+      <c r="AA173" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Measuring_Tape_Inch+CM.jpg</t>
+        </is>
+      </c>
+      <c r="AB173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -19665,10 +21062,20 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Ansys-hq.jpg</t>
-        </is>
-      </c>
-      <c r="Z174" t="inlineStr"/>
+          <t>ANSYS, Inc. è una società statunitense con sede a Canonsburg, in Pennsylvania che sviluppa e commercializza software di simulazione ingegneristica. Il software Ansys viene utilizzato per progettare prodotti e semiconduttori, nonché per creare simulazioni che testano la durabilità di un prodotto, la distribuzione della temperatura, i movimenti dei fluidi e le proprietà elettromagnetiche. L'azienda fa parte della classifica S&amp;P 500, tra le maggiori società capitalizzate negli USA ed è quotata al NASDAQ. Nel 2016 contava circa 2800 dipendenti e un cespite di 2,8 miliardi di dollari. Ansys è stata fondata nel 1970 da John Swanson. Swanson ha venduto l'azienda nel 1993. Ansys è quotata nel NASDAQ dal 1996. Negli anni 2000, Ansys ha effettuato numerose acquisizioni di altre società di progettazione tecnica, acquisendo ulteriore tecnologia per fluidodinamica, progettazione elettronica e altre analisi della fisica.</t>
+        </is>
+      </c>
+      <c r="Z174" t="inlineStr">
+        <is>
+          <t>ANSYS, Inc. est un éditeur de logiciels spécialisé en simulation numérique. L'entreprise a son siège à Canonsburg en Pennsylvanie aux États-Unis. ANSYS développe, promeut et assure le support de ses logiciels de simulation servant à prédire le comportement d’un produit dans son environnement. Ses produits majeurs sont des logiciels qui mettent en œuvre la méthode des éléments finis, afin de résoudre des modèles préalablement discrétisés. La société possède de nombreuses filiales à travers le monde, notamment en Europe et en Asie.</t>
+        </is>
+      </c>
+      <c r="AA174" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Ansys_logo_(2019).svg</t>
+        </is>
+      </c>
+      <c r="AB174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -19779,12 +21186,14 @@
           <t>Plant Simulation ist eine Software zur Simulation, Analyse, Visualisierung und Optimierung von Produktionsprozessen, Materialfluss und logistischen Abläufen. Das Software-Portfolio, zu dem Plant Simulation gehört, zählt innerhalb der Plant Design- und Optimization-Solution zusammen mit den Produkten der Digitalen Fabrik und des Digital Manufacturing zum Bereich der Product-Lifecycle-Management-Software (PLM), die es mit Hilfe von Computersimulationen erlaubt, Produktionsalternativen inklusive der darin enthaltenen Ablauflogiken miteinander vergleichbar zu machen.</t>
         </is>
       </c>
-      <c r="Y175" t="inlineStr">
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cody_Deaner_Feb_2016.jpg</t>
         </is>
       </c>
-      <c r="Z175" t="inlineStr">
+      <c r="AB175" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Discrete-event_simulation</t>
         </is>
@@ -19897,10 +21306,22 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Architectural_BIM_3D_Modeling.jpg</t>
+          <t>Il Building Information Modeling (acronimo: BIM, in italiano: Modellizzazione delle Informazioni di Costruzione indica un metodo per l'ottimizzazione della pianificazione, realizzazione e gestione di costruzioni tramite aiuto di un software. Tramite esso tutti i dati rilevanti di una costruzione possono essere raccolti, combinati e collegati digitalmente. La costruzione virtuale è visualizzabile inoltre come un modello geometrico tridimensionale. Il Building Information Modelling viene utilizzato sia nel settore edile per la progettazione e costruzione (architettura, ingegneria, impianti tecnici come anche nel facility management.</t>
         </is>
       </c>
       <c r="Z176" t="inlineStr">
+        <is>
+          <t>BIM est le sigle anglais de Building Information Modeling, de Building Information Model, ou encore de Building Information Management, et le rétroacronyme de bâti immobilier modélisé. Il désigne les outils de modélisation des informations de la construction implémentés par des applications qui permettent la modélisation des données du bâtiment, d'une structure, d'un édifice ou d'un ouvrage. Le BIM ne se limite pas aux seuls bâtiments, il concerne l'ensemble des ouvrages de la construction, y compris le génie civil, les travaux publics, l’ensemble des infrastructures et des réseaux. Il ne se limite pas non plus à l'acte de construire, mais concerne l'ensemble du cycle de vie d'un ouvrage, depuis la programmation, les esquisses jusqu'à sa déconstruction et la réutilisation, le recyclage ou la valorisation énergétique des éléments en fin de vie. Le BIM se définit à la fois comme : 
+* un processus de structuration, de création, de production, d'échange, d'intégration, d'analyse, de gestion, de visualisation et d'exploitation de données ; 
+* un modèle d'un ouvrage bâti (pouvant tenir dans un fichier numérique, lequel comprend toute l'information technique nécessaire à sa conception, sa construction, les opérations préalables à sa recette (intégration, essais, vérifications, certification), son entretien, ses réparations, d'éventuelles modifications ou agrandissements et sa déconstruction). Le fichier n'est pas qu'un catalogue d'objets positionnés dans l'espace ; il comprend aussi une description des relations entre objets et de leurs propriétés (par exemple : jonctions de murs, type d'ouverture ou de traversée d'un mur ou d'une dalle et ruptures de pont thermique) ; Le BIM facilite la faisabilité de projets conçus d'un ouvrage. Il s'agit d'un ensemble de processus, visant à orienter la mise en œuvre vers certains procédés et à faciliter la communication, l'échange et la gestion de données autour d'un projet de construction.</t>
+        </is>
+      </c>
+      <c r="AA176" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Scan-to-BIM_Mechanical_Room.jpg</t>
+        </is>
+      </c>
+      <c r="AB176" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Building_information_modeling</t>
         </is>
@@ -20005,10 +21426,20 @@
       <c r="X177" t="inlineStr"/>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Dunkerque_3d.jpeg</t>
+          <t>La computer grafica 3D è un ramo della computer grafica che si basa sull'elaborazione di un insieme di modelli tridimensionali tramite algoritmi atti a produrre una verosimiglianza fotografica e ottica nell'immagine finale. Essa viene utilizzata nella creazione e postproduzione di opere o parti di opere per il cinema o la televisione, nei videogiochi, nell'architettura, nell'ingegneria (CAD, nell'arte e in svariati ambiti scientifici, dove la produzione di contenuti con altri mezzi non è possibile o non conveniente.</t>
         </is>
       </c>
       <c r="Z177" t="inlineStr">
+        <is>
+          <t>La synthèse d'images tridimensionnelles souvent abrégée 3D (3D pour trois dimensions : x, y, z, les trois axes qui constituent le repère orthonormé de la géométrie dans l'espace) est un ensemble de techniques notamment issues de la CAO qui permet la représentation d'objets en perspective sur un moniteur d'ordinateur. Elle est actuellement très utilisée en art numérique dans l'industrie du film, initiée par les studios Pixar, Disney, DreamWorks, Blue Sky, Illumination et ILM et, depuis 1992, dans beaucoup de jeux vidéo[réf. nécessaire]. Il convient de ne pas faire la confusion avec les termes 3D relatifs au relief ou à la stéréoscopie.</t>
+        </is>
+      </c>
+      <c r="AA177" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Experience_curiosity1.png</t>
+        </is>
+      </c>
+      <c r="AB177" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/3D_computer_graphics</t>
         </is>
@@ -20121,10 +21552,28 @@
       </c>
       <c r="Y178" t="inlineStr">
         <is>
+          <t>In informatica, Computer-aided engineering (spesso abbreviato come CAE, in italiano "ingegneria assistita dal computer" indica le applicazioni software che agevolano la risoluzione di problemi tecnologici tramite il calcolo numerico.</t>
+        </is>
+      </c>
+      <c r="Z178" t="inlineStr">
+        <is>
+          <t>L'ingénierie assistée par ordinateur ou IAO (en anglais computer-aided engineering ou CAE), également qualifiée d'ingénierie numérique, regroupe l'ensemble des moyens numériques et logiciels habituellement utilisés par les ingénieurs et techniciens des bureaux d'études pour concevoir, simuler et valider de nouveaux produits et processus industriels. L'aboutissement de la phase d'ingénierie numérique d'un produit est sa maquette numérique. Font classiquement partie de la catégorie des outils d'ingénierie numérique : 
+* les logiciels de CAO (conception assistée par ordinateur), 
+* les logiciels de simulation des comportements (statiques, cinématiques, dynamiques, rhéologiques…), 
+* les logiciels de FAO (fabrication assistée par ordinateur), 
+* les SGDT (système de gestion des données techniques), 
+* les systèmes de GCVP (product lifecycle management), 
+* les SGBC (système de gestion de bases de connaissance), 
+* les (knowledge lifecycle management), 
+* les environnements immersifs.</t>
+        </is>
+      </c>
+      <c r="AA178" t="inlineStr">
+        <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Plasticity.jpg</t>
         </is>
       </c>
-      <c r="Z178" t="inlineStr">
+      <c r="AB178" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
         </is>
@@ -20229,10 +21678,20 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Control-panel.jpg</t>
-        </is>
-      </c>
-      <c r="Z179" t="inlineStr"/>
+          <t>Il controllore logico programmabile (in inglese programmable logic controller, spesso in sigla, PLC è un computer per l'industria specializzato in origine nella gestione o controllo dei processi industriali. Esegue un programma ed elabora i segnali digitali ed analogici provenienti da sensori e diretti agli attuatori presenti in un impianto industriale, con la struttura del PLC che viene adattata in base al processo da automatizzare: durante la progettazione del sistema di controllo, vengono scelte le schede adatte alle grandezze elettriche in gioco; le varie schede vengono quindi inserite sul BUS o rack del PLC. Il primo PLC è stato creato da nel 1968 con il marchio Modicon, ora di proprietà di Schneider Electric. Nel tempo, con la progressiva miniaturizzazione della componentistica elettronica e la diminuzione dei costi, è entrato anche nell'uso domestico; l'installazione di un PLC nel quadro elettrico di un'abitazione, a valle degli interruttori magnetotermico e differenziale (salvavita, permette la gestione automatica dei molteplici sistemi e impianti installati nella casa: impianto di riscaldamento, antifurto, irrigazione, LAN, luci, ecc. Si tratta di un oggetto hardware componibile. La caratteristica principale è la sua robustezza estrema; infatti normalmente è posto in quadri elettrici in ambienti rumorosi, con molte interferenze elettriche, con temperature elevate o con grande umidità. In certi casi il PLC è in funzione 24 ore su 24, per 365 giorni all'anno, su impianti che non possono fermarsi mai.</t>
+        </is>
+      </c>
+      <c r="Z179" t="inlineStr">
+        <is>
+          <t>Un automate programmable industriel, ou API (en anglais programmable logic controller, PLC), est un dispositif électronique numérique programmable destiné à la commande de processus industriels par un traitement séquentiel. Il envoie des ordres vers les préactionneurs (partie opérative ou PO côté actionneur) à partir de données d’entrées (capteurs) (partie commande ou PC côté capteur), de consignes et d’un programme informatique. Lorsqu'un automate programmable remplit une fonction de sécurité, il est alors appelé automate programmable de sécurité ou APS.</t>
+        </is>
+      </c>
+      <c r="AA179" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Control-panel-plc.jpg</t>
+        </is>
+      </c>
+      <c r="AB179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -20327,12 +21786,18 @@
           <t>WinCC (Windows Control Center) ist ein PC-basiertes Prozessvisualisierungssystem des Unternehmens Siemens. Es wird als eigenständiges SCADA-System oder als Mensch-Maschine-Schnittstelle für Prozessleitsysteme wie SIMATIC PCS 7 eingesetzt. Ein erster Prototyp und grundlegende Konzepte wurden 1993 erstellt, ab 1996 wurde die Software im deutschsprachigen Raum breit vermarktet.</t>
         </is>
       </c>
-      <c r="Y180" t="inlineStr">
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr">
+        <is>
+          <t>SIMATIC WinCC est un système de contrôle et d'acquisition de données (SCADA) ainsi qu'une interface homme-machine développés par Siemens. Les SCADA sont particulièrement utilisés dans la surveillance des processus industriels et des infrastructures. SIMATIC WinCC peut être utilisé avec Siemens PCS7 et Teleperm. WinCC est conçu pour fonctionner sur des systèmes Windows. Il utilise Microsoft SQL Server pour gérer les connexions. Il est également accompagné de VBScript et d'applications d'interface en langage C. WinCC a été l'un des premiers systèmes à être la cible de virus, notamment celui de Stuxnet.</t>
+        </is>
+      </c>
+      <c r="AA180" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Idriss_Saadi.jpg</t>
         </is>
       </c>
-      <c r="Z180" t="inlineStr">
+      <c r="AB180" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/SCADA</t>
         </is>
@@ -20443,12 +21908,18 @@
           <t>Opera Software ist ein ursprünglich norwegisches Unternehmen und Entwickler des Webbrowsers Opera. Es betreibt außerdem den Mobilanzeigen-Dienst Opera Mediaworks. Der Hauptsitz des Unternehmens, das seit 2016 Eigentum eines chinesischen Konsortiums ist, befindet sich in Oslo.</t>
         </is>
       </c>
-      <c r="Y181" t="inlineStr">
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr">
+        <is>
+          <t>Opera Software est une entreprise norvégienne, principalement connue pour sa suite internet Opera. Opera Software est fortement impliquée dans la promotion et participe à l'élaboration des standards web dans le W3C. La société a son siège social situé à Oslo en Norvège, elle a des bureaux en Suède, Chine, Japon, Corée du Sud, Pologne et États-Unis. La vision de la société Opera est de « délivrer le meilleur navigateur web sur tous les supports possibles » (2007).</t>
+        </is>
+      </c>
+      <c r="AA181" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Håkon_Wium_Lie.jpg</t>
         </is>
       </c>
-      <c r="Z181" t="inlineStr"/>
+      <c r="AB181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -20551,14 +22022,25 @@
           <t>Altium Designer (bis 2005 unter dem Namen Protel vertrieben) ist ein EDA-Programm der Firma Altium Limited zur Entwicklung von Leiterplatten in der Elektronik.</t>
         </is>
       </c>
-      <c r="Y182" t="inlineStr">
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr">
+        <is>
+          <t>Altium Designer est une chaîne logicielle intégrée de conception assistée par ordinateur pour systèmes électroniques. Altium Designer propose des fonctions de : 
+* saisie de schémas, 
+* simulations (basée sur Xspice) 
+* conceptions/routages de circuits imprimés, 
+* programmations de FPGA et microprocesseurs/microcontrôleurs 
+* Échanges avec la CAO mécanique</t>
+        </is>
+      </c>
+      <c r="AA182" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Altium_Designer_Logo.png</t>
         </is>
       </c>
-      <c r="Z182" t="inlineStr">
-        <is>
-          <t>http://dbpedia.org/resource/Electronic_design_automation</t>
+      <c r="AB182" t="inlineStr">
+        <is>
+          <t>http://dbpedia.org/resource/Computer-aided_manufacturing</t>
         </is>
       </c>
     </row>
@@ -20647,12 +22129,14 @@
         </is>
       </c>
       <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr">
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Lectionary_220_GA_0021a.jpg</t>
         </is>
       </c>
-      <c r="Z183" t="inlineStr"/>
+      <c r="AB183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -20747,12 +22231,14 @@
         </is>
       </c>
       <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr">
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Korea-Gyeongju-Bomun_Lake_Resort-04.jpg</t>
         </is>
       </c>
-      <c r="Z184" t="inlineStr"/>
+      <c r="AB184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -20853,10 +22339,20 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/LabVIEW_Logo.jpg</t>
+          <t>LabVIEW (abbreviazione di Laboratory Virtual Instrumentation Engineering Workbench è l'ambiente di sviluppo integrato per il linguaggio di programmazione visuale di National Instruments. Tale linguaggio grafico viene chiamato Linguaggio G. Realizzato originariamente per Apple Macintosh nel 1986, LabVIEW viene principalmente utilizzato per programmi di acquisizione e analisi dati, controllo di processi, generazione di rapporti, o più generalmente per tutto ciò che concerne l'automazione industriale, su diverse piattaforme come Windows, Linux, macOS e controllori National Instruments.</t>
         </is>
       </c>
       <c r="Z185" t="inlineStr">
+        <is>
+          <t>LabVIEW (contraction de Laboratory Virtual Instrument Engineering Workbench) est le cœur d’une plate-forme de conception de systèmes de mesure et de contrôle, fondée sur un environnement de développement graphique de National Instruments. Le langage graphique utilisé dans cette plate-forme est appelé « G ». Créé à l’origine sur Apple Macintosh en 1986, LabVIEW est utilisé principalement pour la mesure par acquisition de données, pour le contrôle d’instruments et pour l’automatisme industriel. La plate-forme de développement s’exécute sous différents systèmes d’exploitation comme Microsoft Windows, Linux et Mac OS X. LabVIEW peut générer du code sur ces systèmes d’exploitation mais également sur des plates-formes temps réel, des systèmes embarqués ou des composants reprogrammables FPGA. Depuis 2009, LabVIEW évolue au rythme d'une version majeure millésimée par an.</t>
+        </is>
+      </c>
+      <c r="AA185" t="inlineStr">
+        <is>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Labview_code_example.png</t>
+        </is>
+      </c>
+      <c r="AB185" t="inlineStr">
         <is>
           <t>http://dbpedia.org/resource/Test_automation</t>
         </is>
@@ -20959,12 +22455,14 @@
         </is>
       </c>
       <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr">
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr">
         <is>
           <t>http://commons.wikimedia.org/wiki/Special:FilePath/Etap.png</t>
         </is>
       </c>
-      <c r="Z186" t="inlineStr"/>
+      <c r="AB186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -21047,12 +22545,14 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="Y187" t="inlineStr">
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr">
         <is>
           <t>NaN</t>
         </is>
       </c>
-      <c r="Z187" t="inlineStr">
+      <c r="AB187" t="inlineStr">
         <is>
           <t>NaN</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/OpenTextRHOfficeBuilding9.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/AdminClient16.png</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Business_intelligence</t>
+          <t>http://dbpedia.org/resource/Data_mining</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Windows_3.0_workspace.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Windows1.0.png</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Office_Online.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Word_on_iPhone.jpg</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Proj2007.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Project_screenshot.png</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1740,7 +1740,11 @@
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Microsoft Project is a project management software product, developed and sold by Microsoft. It is designed to assist a project manager in developing a schedule, assigning resources to tasks, tracking progress, managing the budget, and analyzing workloads. Microsoft Project was the company's third Microsoft Windows-based application. Within a few years after its launch, it became the dominant PC-based project management software. It is part of the Microsoft Office family but has never been included in any of the Office suites. It is available currently in two editions, Standard and Professional. Microsoft Project's proprietary file format is .mpp. Microsoft Project and Microsoft Project Server are the cornerstones of the Microsoft Office enterprise project management (EPM) product.</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
@@ -1770,7 +1774,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Proj2007.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Project_screenshot.png</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1896,7 +1900,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Proj2007.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Project_screenshot.png</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2022,7 +2026,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Proj2007.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Project_screenshot.png</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2257,7 +2261,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Office_SharePoint_(2019–present).svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_SharePoint.png</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2345,7 +2349,11 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Business process management (BPM) is the discipline in which people use various methods to discover, model, analyze, measure, improve, optimize, and automate business processes. Any combination of methods used to manage a company's business processes is BPM. Processes can be structured and repeatable or unstructured and variable. Though not required, enabling technologies are often used with BPM. It can be differentiated from program management in that program management is concerned with managing a group of inter-dependent projects. From another viewpoint, process management includes program management. In project management, process management is the use of a repeatable process to improve the outcome of the project. Key distinctions between process management and project management are repeatability and predictability. If the structure and sequence of work is unique, then it is a project. In business process management, a sequence of work can vary from instance to instance: there are gateways, conditions; business rules etc. The key is predictability: no matter how many forks in the road, we know all of them in advance, and we understand the conditions for the process to take one route or another. If this condition is met, we are dealing with a process. As an approach, BPM sees processes as important assets of an organization that must be understood, managed, and developed to announce and deliver value-added products and services to clients or customers. This approach closely resembles other total quality management or continual improvement process methodologies. ISO 9000 promotes the process approach to managing an organization. ...promotes the adoption of a process approach when developing, implementing andimproving the effectiveness of a quality management system, to enhance customer satisfaction by meeting customer requirements. BPM proponents also claim that this approach can be supported, or enabled, through technology. As such, many BPM articles and scholars frequently discuss BPM from one of two viewpoints: people and/or technology. BPM streamlines business processing by automating workflows; while RPA automates tasks by recording a set of repetitive activities implemented by human. Organizations maximize their business automation leveraging both technologies to achieve better results.</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -2630,7 +2638,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_SendNow_icon.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_Acrobat_dot_com_(2012).png</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2824,7 +2832,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>A building management system (BMS), otherwise known as a building automation system (BAS), is a computer-based control system installed in buildings that controls and monitors the building's mechanical and electrical equipment such as ventilation, lighting, power systems, fire systems, and security systems. A BMS consists of software and hardware; the software program, usually configured in a hierarchical manner, can be proprietary, using such protocols as C-Bus, Profibus, and so on. Vendors are also producing a BMS that integrates the use of Internet protocols and open standards such as DeviceNet, SOAP, XML, BACnet, LonWorks, Modbus or KNX.</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr">
         <is>
           <t>Building_management_system</t>
@@ -2843,15 +2855,13 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Der Begriff Gebäudeleittechnik (GLT) wird in zweierlei Weise verwendet: 
-* Im weiteren Sinne zur Bezeichnung der gesamten automatisierungstechnischen Instrumentarisierung mit einem Bezug zur Technischen Gebäudeausrüstung:Die Gebäudeleittechnik ist ein Bestandteil der Gebäudeautomation, welche in drei Ebenen unterteilt wird. Die Feldebene, die Automationsebene und die Managementebene. Die GLT befindet sich auf der obersten Ebene, der Managementebene. 
-* Im engeren, gebräuchlicheren Sinne der genutzten Software:Als Gebäudeleittechnik (GLT) wird die Software bezeichnet, mit der Gebäude überwacht und gesteuert werden. Die Software läuft in der Regel auf einem Server und wird vom Hersteller der Gebäudeautomatisierungstechnik / Direct-Digital-Control-Gebäudeautomation (DDC-GA) geliefert. Es gibt einige wenige herstellerunabhängige GLT-Systeme. Diese kommunizieren mit den DDCs in den Gebäuden über geeignete Schnittstellen wie OLE for Process Control (OPC) oder Building Automation and Control Networks (BACnet) mit ihren jeweiligen Vor- und Nachteilen. Darüber hinaus beherrschen einige dieser neutralen Systeme auch proprietäre Protokolle.</t>
+          <t>Als Gebäudeautomation (GA) oder Domotik wird im Bauwesen die Gesamtheit von Überwachungs-, Steuer-, Regel- und Optimierungseinrichtungen in Gebäuden bezeichnet. Als Teil der Versorgungstechnik ist die GA ein wichtiger Bestandteil des technischen Energiemanagements. Als Hauptziel wird häufig die gewerkeübergreifende, selbstständige (automatische) Durchführung von Funktionsabläufen, nach vorgegebenen Einstellwerten (Parametern) oder deren Bedienung bzw. Überwachung zu vereinfachen. Um dieses Ziel zu erreichen werden alle Sensoren, Aktoren, Bedienelemente, Verbraucher und andere technische Anlagen im Gebäude miteinander vernetzt. Abläufe können in Szenarien zusammengefasst werden. Kennzeichnendes Merkmal ist die dezentrale Anordnung der Automationsstationen (AS) sowie die durchgängige Vernetzung mittels eines Kommunikations-Netzwerks bzw. Bussystems.</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>La gestion technique de bâtiment (GTB) est un système informatique généralement installé dans des grands bâtiments ou dans des installations industrielles afin de superviser l’ensemble des équipements qui y sont installés. Le terme « Gestion technique de bâtiment » est une traduction littérale de l'anglo-américain « Building management system » (BMS). Le français de France bénéficie d'un terme beaucoup plus court, la domotique : « DOMOTIQUE n.f. […] est une traduction littérale de l'anglo-américain "Home Automation" Cette technique récente, jusque-là composée d’éléments disparates et indépendants, est appelée à des développements importants, qui impliquent l’installation de réseaux en basse et très basse tension, par câblage ou pré-câblage des constructions. GB: Building management system (BMS), intelligent building, smart building. »[pas clair]. La GTB évolue vers la gestion active du bâtiment, via l'immotique.</t>
+          <t>L'Immotique est un néologisme formé à partir du mot immeuble et du suffixe -tique, qui connote l'informatique et l'électronique voire l'automatique etc. Comme la domotique, ce domaine est issu de la réunion de l'électronique, de l'informatique et des télécommunications. Autant que possible et théoriquement, l'immotique est un service et une somme de processus qui devraient être rendu de manière transparente ou discrète, fiable et non-intrusive pour les usagers et visiteurs d'un bâtiment. Elle peut aussi avoir une vertu pédagogique et d'aide et conseil, par exemple en affichant et expliquant les anomalies de consommation d'énergie (ou de production dans les bâtiments équipés pour produire tout ou partie de leur énergie).</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2946,28 +2956,12 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3074,7 +3068,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Twizel_Tasman_Road.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Photoshop_Elements.svg</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3761,7 +3755,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>With the application of probability sampling in the 1930s, surveys became a standard tool for empirical research in social sciences, marketing, and official statistics. The methods involved in survey data collection are any of a number of ways in which data can be collected for a statistical survey. These are methods that are used to collect information from a sample of individuals in a systematic way. First there was the change from traditional paper-and-pencil interviewing (PAPI) to computer-assisted interviewing (CAI). Now, face-to-face surveys (CAPI), telephone surveys (CATI), and mail surveys (CASI, CSAQ) are increasingly replaced by web surveys.</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -4117,7 +4115,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>OTRS (originally Open-Source Ticket Request System) is a service management suite. The suite contains an agent portal, admin dashboard and customer portal. In the agent portal, teams process tickets and requests from customers (internal or external). There are various ways in which this information, as well as customer and related data can be viewed. As the name implies, the admin dashboard allows system administrators to manage the system: Options are many, but include roles and groups, process automation, channel integration, and CMDB/database options. The third component, the customer portal, is much like a customizable webpage where information can be shared with customers and requests can be tracked on the customer side.</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr">
         <is>
           <t>OTRS</t>
@@ -4155,7 +4157,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo-no-tagline-CMYK.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C2.5123_acland.jpg</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4479,7 +4481,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Enterprise legal management (ELM) is a practice management strategy of corporate legal departments, insurance claims departments, and government legal and contract management departments. ELM developed during the 1990s in response to increased corporate demands for accountability, transparency, and predictability, and employs software to manage internal legal documents and workflows, electronic billing and invoicing, and to guide decision-making through reporting and analytics.</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr">
         <is>
           <t>Enterprise_legal_management</t>
@@ -4615,7 +4621,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MindManager_Formulas.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Manfred_Roeder.jpg</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4835,7 +4841,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Office_Visio.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Microsoft_Visio_screenshot.png</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4923,7 +4929,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>OTRS (originally Open-Source Ticket Request System) is a service management suite. The suite contains an agent portal, admin dashboard and customer portal. In the agent portal, teams process tickets and requests from customers (internal or external). There are various ways in which this information, as well as customer and related data can be viewed. As the name implies, the admin dashboard allows system administrators to manage the system: Options are many, but include roles and groups, process automation, channel integration, and CMDB/database options. The third component, the customer portal, is much like a customizable webpage where information can be shared with customers and requests can be tracked on the customer side.</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr">
         <is>
           <t>OTRS</t>
@@ -4961,7 +4971,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo-no-tagline-CMYK.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C2.5123_acland.jpg</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5049,7 +5059,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Snagit is a screenshot program that captures video display and audio output. Originally for the Microsoft Windows operating systems, recent versions have also been available for macOS, but with fewer features. It is created and distributed by TechSmith and was first launched in 1990. Snagit is available in English, German, Japanese, and Korean versions. Snagit replaces the native print screen function with additional features. Newer versions allow batch capture of embedded items such as links, pictures, and multimedia. The user can set parameters and keyboard shortcuts to capture particular types of data, which are stored in a folder called "Catalog" by default. The software can also follow links in web pages, capturing the specified data from the linked pages. Accessories, such as Flickr Output for uploading screen captures to a Flickr account, can extend its capabilities.</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr">
         <is>
           <t>Snagit</t>
@@ -5171,7 +5185,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Odoo is a suite of business management software tools including, for example, CRM, e-commerce, billing, accounting, manufacturing, warehouse, project management, and inventory management. The Community version is a libre software, licensed under the GNU LGPLv3. The Enterprise version has proprietary extra features and services. The source code for the framework and core ERP modules is curated by the Belgium-based Odoo S.A. Odoo is available for both on-premise and ready to use SaaS environment.</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr">
         <is>
           <t>Odoo</t>
@@ -5205,12 +5223,12 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/OTCetenliMitArarat.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Odoo_12e_homepage.png</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Accounting_software</t>
+          <t>http://dbpedia.org/resource/Customer_relationship_management</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5589,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Project_management</t>
+          <t>Project Management, collaboration and productivity software</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5798,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>A building management system (BMS), otherwise known as a building automation system (BAS), is a computer-based control system installed in buildings that controls and monitors the building's mechanical and electrical equipment such as ventilation, lighting, power systems, fire systems, and security systems. A BMS consists of software and hardware; the software program, usually configured in a hierarchical manner, can be proprietary, using such protocols as C-Bus, Profibus, and so on. Vendors are also producing a BMS that integrates the use of Internet protocols and open standards such as DeviceNet, SOAP, XML, BACnet, LonWorks, Modbus or KNX.</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -5795,15 +5817,13 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Der Begriff Gebäudeleittechnik (GLT) wird in zweierlei Weise verwendet: 
-* Im weiteren Sinne zur Bezeichnung der gesamten automatisierungstechnischen Instrumentarisierung mit einem Bezug zur Technischen Gebäudeausrüstung:Die Gebäudeleittechnik ist ein Bestandteil der Gebäudeautomation, welche in drei Ebenen unterteilt wird. Die Feldebene, die Automationsebene und die Managementebene. Die GLT befindet sich auf der obersten Ebene, der Managementebene. 
-* Im engeren, gebräuchlicheren Sinne der genutzten Software:Als Gebäudeleittechnik (GLT) wird die Software bezeichnet, mit der Gebäude überwacht und gesteuert werden. Die Software läuft in der Regel auf einem Server und wird vom Hersteller der Gebäudeautomatisierungstechnik / Direct-Digital-Control-Gebäudeautomation (DDC-GA) geliefert. Es gibt einige wenige herstellerunabhängige GLT-Systeme. Diese kommunizieren mit den DDCs in den Gebäuden über geeignete Schnittstellen wie OLE for Process Control (OPC) oder Building Automation and Control Networks (BACnet) mit ihren jeweiligen Vor- und Nachteilen. Darüber hinaus beherrschen einige dieser neutralen Systeme auch proprietäre Protokolle.</t>
+          <t>Als Gebäudeautomation (GA) oder Domotik wird im Bauwesen die Gesamtheit von Überwachungs-, Steuer-, Regel- und Optimierungseinrichtungen in Gebäuden bezeichnet. Als Teil der Versorgungstechnik ist die GA ein wichtiger Bestandteil des technischen Energiemanagements. Als Hauptziel wird häufig die gewerkeübergreifende, selbstständige (automatische) Durchführung von Funktionsabläufen, nach vorgegebenen Einstellwerten (Parametern) oder deren Bedienung bzw. Überwachung zu vereinfachen. Um dieses Ziel zu erreichen werden alle Sensoren, Aktoren, Bedienelemente, Verbraucher und andere technische Anlagen im Gebäude miteinander vernetzt. Abläufe können in Szenarien zusammengefasst werden. Kennzeichnendes Merkmal ist die dezentrale Anordnung der Automationsstationen (AS) sowie die durchgängige Vernetzung mittels eines Kommunikations-Netzwerks bzw. Bussystems.</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>La gestion technique de bâtiment (GTB) est un système informatique généralement installé dans des grands bâtiments ou dans des installations industrielles afin de superviser l’ensemble des équipements qui y sont installés. Le terme « Gestion technique de bâtiment » est une traduction littérale de l'anglo-américain « Building management system » (BMS). Le français de France bénéficie d'un terme beaucoup plus court, la domotique : « DOMOTIQUE n.f. […] est une traduction littérale de l'anglo-américain "Home Automation" Cette technique récente, jusque-là composée d’éléments disparates et indépendants, est appelée à des développements importants, qui impliquent l’installation de réseaux en basse et très basse tension, par câblage ou pré-câblage des constructions. GB: Building management system (BMS), intelligent building, smart building. »[pas clair]. La GTB évolue vers la gestion active du bâtiment, via l'immotique.</t>
+          <t>L'Immotique est un néologisme formé à partir du mot immeuble et du suffixe -tique, qui connote l'informatique et l'électronique voire l'automatique etc. Comme la domotique, ce domaine est issu de la réunion de l'électronique, de l'informatique et des télécommunications. Autant que possible et théoriquement, l'immotique est un service et une somme de processus qui devraient être rendu de manière transparente ou discrète, fiable et non-intrusive pour les usagers et visiteurs d'un bâtiment. Elle peut aussi avoir une vertu pédagogique et d'aide et conseil, par exemple en affichant et expliquant les anomalies de consommation d'énergie (ou de production dans les bâtiments équipés pour produire tout ou partie de leur énergie).</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -6182,12 +6202,12 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Camtasia_screenshot.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Camtasia_computer_icon.png</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Video_editing_software</t>
+          <t>http://dbpedia.org/resource/Screencast</t>
         </is>
       </c>
     </row>
@@ -6521,15 +6541,13 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Der Begriff Gebäudeleittechnik (GLT) wird in zweierlei Weise verwendet: 
-* Im weiteren Sinne zur Bezeichnung der gesamten automatisierungstechnischen Instrumentarisierung mit einem Bezug zur Technischen Gebäudeausrüstung:Die Gebäudeleittechnik ist ein Bestandteil der Gebäudeautomation, welche in drei Ebenen unterteilt wird. Die Feldebene, die Automationsebene und die Managementebene. Die GLT befindet sich auf der obersten Ebene, der Managementebene. 
-* Im engeren, gebräuchlicheren Sinne der genutzten Software:Als Gebäudeleittechnik (GLT) wird die Software bezeichnet, mit der Gebäude überwacht und gesteuert werden. Die Software läuft in der Regel auf einem Server und wird vom Hersteller der Gebäudeautomatisierungstechnik / Direct-Digital-Control-Gebäudeautomation (DDC-GA) geliefert. Es gibt einige wenige herstellerunabhängige GLT-Systeme. Diese kommunizieren mit den DDCs in den Gebäuden über geeignete Schnittstellen wie OLE for Process Control (OPC) oder Building Automation and Control Networks (BACnet) mit ihren jeweiligen Vor- und Nachteilen. Darüber hinaus beherrschen einige dieser neutralen Systeme auch proprietäre Protokolle.</t>
+          <t>Als Gebäudeautomation (GA) oder Domotik wird im Bauwesen die Gesamtheit von Überwachungs-, Steuer-, Regel- und Optimierungseinrichtungen in Gebäuden bezeichnet. Als Teil der Versorgungstechnik ist die GA ein wichtiger Bestandteil des technischen Energiemanagements. Als Hauptziel wird häufig die gewerkeübergreifende, selbstständige (automatische) Durchführung von Funktionsabläufen, nach vorgegebenen Einstellwerten (Parametern) oder deren Bedienung bzw. Überwachung zu vereinfachen. Um dieses Ziel zu erreichen werden alle Sensoren, Aktoren, Bedienelemente, Verbraucher und andere technische Anlagen im Gebäude miteinander vernetzt. Abläufe können in Szenarien zusammengefasst werden. Kennzeichnendes Merkmal ist die dezentrale Anordnung der Automationsstationen (AS) sowie die durchgängige Vernetzung mittels eines Kommunikations-Netzwerks bzw. Bussystems.</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>La gestion technique de bâtiment (GTB) est un système informatique généralement installé dans des grands bâtiments ou dans des installations industrielles afin de superviser l’ensemble des équipements qui y sont installés. Le terme « Gestion technique de bâtiment » est une traduction littérale de l'anglo-américain « Building management system » (BMS). Le français de France bénéficie d'un terme beaucoup plus court, la domotique : « DOMOTIQUE n.f. […] est une traduction littérale de l'anglo-américain "Home Automation" Cette technique récente, jusque-là composée d’éléments disparates et indépendants, est appelée à des développements importants, qui impliquent l’installation de réseaux en basse et très basse tension, par câblage ou pré-câblage des constructions. GB: Building management system (BMS), intelligent building, smart building. »[pas clair]. La GTB évolue vers la gestion active du bâtiment, via l'immotique.</t>
+          <t>L'Immotique est un néologisme formé à partir du mot immeuble et du suffixe -tique, qui connote l'informatique et l'électronique voire l'automatique etc. Comme la domotique, ce domaine est issu de la réunion de l'électronique, de l'informatique et des télécommunications. Autant que possible et théoriquement, l'immotique est un service et une somme de processus qui devraient être rendu de manière transparente ou discrète, fiable et non-intrusive pour les usagers et visiteurs d'un bâtiment. Elle peut aussi avoir une vertu pédagogique et d'aide et conseil, par exemple en affichant et expliquant les anomalies de consommation d'énergie (ou de production dans les bâtiments équipés pour produire tout ou partie de leur énergie).</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6653,7 +6671,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Robotic_process_automation</t>
+          <t>http://dbpedia.org/resource/App_development</t>
         </is>
       </c>
     </row>
@@ -6763,7 +6781,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Videotelephony</t>
+          <t>Videoconferencing, VoIP, and Instant messaging</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7100,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Accounting or accountancy is the measurement, processing, and communication of financial and non financial information about economic entities such as businesses and corporations. Accounting, which has been called the "language of business", measures the results of an organization's economic activities and conveys this information to a variety of users, including investors, creditors, management, and regulators. Practitioners of accounting are known as accountants. The terms "accounting" and "financial reporting" are often used as synonyms. Accounting can be divided into several fields including financial accounting, management accounting, external auditing, tax accounting and cost accounting. Accounting information systems are designed to support accounting functions and related activities. Financial accounting focuses on the reporting of an organization's financial information, including the preparation of financial statements, to the external users of the information, such as investors, regulators and suppliers; and management accounting focuses on the measurement, analysis and reporting of information for internal use by management. The recording of financial transactions, so that summaries of the financials may be presented in financial reports, is known as bookkeeping, of which double-entry bookkeeping is the most common system. Accounting has existed in various forms and levels of sophistication throughout human history. The double-entry accounting system in use today was developed in medieval Europe, particularly in Venice, and is usually attributed to the Italian mathematician and Franciscan friar Luca Pacioli. Today, accounting is facilitated by accounting organizations such as standard-setters, accounting firms and professional bodies. Financial statements are usually audited by accounting firms, and are prepared in accordance with generally accepted accounting principles (GAAP). GAAP is set by various standard-setting organizations such as the Financial Accounting Standards Board (FASB) in the United States and the Financial Reporting Council in the United Kingdom. As of 2012, "all major economies" have plans to converge towards or adopt the International Financial Reporting Standards (IFRS).</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
@@ -7112,7 +7134,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Hauptbuch_Hochstetter_vor_1828.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Pacioli.jpg</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -7356,7 +7378,7 @@
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Concur_logo.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/DeathofaGentleLady_cover.gif</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr"/>
@@ -7470,7 +7492,7 @@
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Sfsf_office.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/SAP_SuccessFactors_2019_logo.jpeg</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr"/>
@@ -7592,7 +7614,7 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Yao_Jie.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Identity-concept.svg</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -7912,7 +7934,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Time and attendance systems (TNA) are used to track and monitor when employees start and stop work. A time and attendance system enables an employer to monitor their employees working hours and late arrivals, early departures, time taken on breaks and absenteeism. It also helps to control labor costs by reducing over-payments, which are often caused by paying employees for time that are not working, and eliminates transcription error, interpretation error and intentional error. TNA systems can also be used to ensure compliance with labor regulations regarding proof of attendance.</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
@@ -8056,7 +8082,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Access_control_topologies_main_controller_a.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Intelligent_access_control_door_wiring.png</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr"/>
@@ -8250,7 +8276,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr"/>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>A payment system is any system used to settle financial transactions through the transfer of monetary value. This includes the institutions, instruments, people, rules, procedures, standards, and technologies that make its exchange possible. A common type of payment system is called an operational network that links bank accounts and provides for monetary exchange using bank deposits. Some payment systems also include credit mechanisms, which are essentially a different aspect of payment. Payment systems are used in lieu of tendering cash in domestic and international transactions. This consists of a major service provided by banks and other financial institutions. Traditional payment systems include negotiable instruments such as drafts (e.g., cheques) and documentary credits such as letters of credit. With the advent of computers and electronic communications, many alternative electronic payment systems have emerged. The term electronic payment refers to a payment made from one bank account to another using electronic methods and forgoing the direct intervention of bank employees. Narrowly defined electronic payment refers to e-commerce—a payment for buying and selling goods or services offered through the Internet, or broadly to any type of electronic funds transfer. Modern payment systems use cash-substitutes as compared to traditional payment systems. This includes debit cards, credit cards, electronic funds transfers, direct credits, direct debits, internet banking and e-commerce payment systems. Payment systems may be physical or electronic and each has its own procedures and protocols. Standardization has allowed some of these systems and networks to grow to a global scale, but there are still many country-specific and product-specific systems. Examples of payment systems that have become globally available are credit card and automated teller machine networks. Other specific forms of payment systems are also used to settle financial transactions for products in the equity markets, bond markets, currency markets, futures markets, derivatives markets, options markets. Additionally, forms exist to transfer funds between financial institutions. Domestically this is accomplished by using Automated clearing house and real-time gross settlement (RTGS) systems. Internationally this is accomplished using the SWIFT network.</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
@@ -8265,7 +8295,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Als Zahlungsverfahren werden im Zahlungsverkehr alle Formen und Prozesse der Übertragung von Eigentumsrechten an Zahlungsmitteln bezeichnet.</t>
+          <t>Zahlungsverkehr ist in der Wirtschaft die Gesamtheit aller Zahlungen, also Übertragungen von Zahlungsmitteln zwischen Wirtschaftssubjekten.</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr"/>
@@ -9130,7 +9160,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Employee offboarding describes the separation process when an employee leaves a company. The offboarding process might involve a phased transfer of knowledge from the departing employee to a new or existing employee; an exit interview; return of any company property; and various processes from the company's human resources, information technology, or legal functions.</t>
+        </is>
+      </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
@@ -9584,7 +9618,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Export_And_Import.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Hamburg.CTA.Altenwerder.BungaRaya.wmt.jpg</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr"/>
@@ -9668,7 +9702,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Operations on a collection of digital assets require the use of a computer application implementing Digital Asset Management (DAM) to ensure that the owner, and possibly their delegates, can perform operations on the data files.</t>
+        </is>
+      </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
@@ -9958,7 +9996,7 @@
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Shoemaker_Book_of_Trades.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Xbar_chart_for_a_paired_xbar_and_R_chart.svg</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr"/>
@@ -10190,7 +10228,11 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr"/>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>A software calculator is a calculator that has been implemented as a computer program, rather than as a physical hardware device. They are among the simpler interactive software tools, and, as such, they provide operations for the user to select one at a time. They can be used to perform any process that consists of a sequence of steps each of which applies one of these operations, and have no purpose other than these processes, because the operations are the sole, or at least the primary, features of the calculator, rather than being secondary features that support other functionality that is not normally known simply as calculation. As a calculator, rather than a computer, they usually have a small set of relatively simple operations, perform short processes that are not compute intensive and do not accept large amounts of input data or produce many results.</t>
+        </is>
+      </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
@@ -10348,7 +10390,7 @@
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/CRMTypesComponents2.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Generalization_process_using_trees.svg</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
@@ -10455,7 +10497,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Supply-Chain-Management (SCM) ist in Unternehmen der Anglizismus für „innerbetrieblich und entlang der Lieferkette auch zwischenbetrieblich die auf das Gesamtsystem ausgerichtete strategische Koordinierung zwischen den traditionellen Geschäftsfunktionen und den taktischen Entscheidungen zwischen diesen Geschäftsfunktionen mit dem Ziel der Verbesserung der langfristigen Leistungsfähigkeit der einzelnen Unternehmen und der Lieferkette als Ganzes“.</t>
+          <t>Mit Lieferkette (engl. supply chain [səˈplaɪ tʃeɪn]) wird das Netzwerk von Organisationen bezeichnet, die über vor- und nachgelagerte Verbindungen an den verschiedenen Prozessen und Tätigkeiten der Wertschöpfung in Form von Produkten und Dienstleistungen für den Endkunden beteiligt sind. Das Konzept der Lieferkette gehört zum Standardrepertoire der Wirtschaftswissenschaften. Insbesondere ist es Gegenstand des Supply-Chain-Managements (Lieferkettenmanagement). Abzugrenzen ist die Lieferkette von der Wertkette und der Transportkette. Häufig wird eine resiliente Lieferkette angestrebt.</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -10470,7 +10512,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/DM_Freiwasserschwimmen_2009_Lindau.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Supply_and_demand-stacked4.png</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -10596,7 +10638,7 @@
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Data_visualization_process_v1.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Total_Revenues_and_Outlays_as_Percent_GDP_2013.png</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
@@ -10712,7 +10754,7 @@
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automated_online_assistant.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Foodora_messenger.jpg</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
@@ -10808,7 +10850,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr"/>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>A learning management system (LMS) is a software application for the administration, documentation, tracking, reporting, automation and delivery of educational courses, training programs, or learning and development programs. The learning management system concept emerged directly from e-Learning. Although the first LMS appeared in 1924 in the higher education sector, the majority of the LMSs today focus on the corporate market. Learning management systems make up the largest segment of the learning system market. The first introduction of the LMS was in the late 1990s. Learning management systems were designed to identify training and learning gaps, utilizing analytical data and reporting. LMSs are focused on online learning delivery but support a range of uses, acting as a platform for online content, including courses, both asynchronous based and synchronous based. In the higher education space, an LMS may offer classroom management for instructor-led training or a flipped classroom. Modern LMSs include intelligent algorithms to make automated recommendations for courses based on a user's skill profile as well as extract metadata from learning materials in order to make such recommendations even more accurate.</t>
+        </is>
+      </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
@@ -10964,7 +11010,7 @@
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Shoemaker_Book_of_Trades.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Xbar_chart_for_a_paired_xbar_and_R_chart.svg</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr"/>
@@ -11048,7 +11094,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>OTRS (originally Open-Source Ticket Request System) is a service management suite. The suite contains an agent portal, admin dashboard and customer portal. In the agent portal, teams process tickets and requests from customers (internal or external). There are various ways in which this information, as well as customer and related data can be viewed. As the name implies, the admin dashboard allows system administrators to manage the system: Options are many, but include roles and groups, process automation, channel integration, and CMDB/database options. The third component, the customer portal, is much like a customizable webpage where information can be shared with customers and requests can be tracked on the customer side.</t>
+        </is>
+      </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
@@ -11082,7 +11132,7 @@
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo-no-tagline-CMYK.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C2.5123_acland.jpg</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr">
@@ -11198,7 +11248,7 @@
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automated_online_assistant.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Foodora_messenger.jpg</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
@@ -11286,7 +11336,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Operations management is an area of management concerned with designing and controlling the process of production and redesigning business operations in the production of goods or services. It involves the responsibility of ensuring that business operations are efficient in terms of using as few resources as needed and effective in meeting customer requirements. Operations management is primarily concerned with planning, organizing and supervising in the production, manufacturing or the provision of services. It is concerned with managing an entire production or service system which is the process that converts inputs (in the forms of raw materials, labor, consumers, and energy) into outputs (in the form of goods and/or services for consumers). Operations produce products, manage quality and create services. Operation management covers sectors like banking systems, hospitals, companies, working with suppliers, customers, and using technology. Operations is one of the major functions in an organization along with supply chains, marketing, finance and human resources. The operations function requires management of both the strategic and day-to-day production of goods and services. In managing manufacturing or service operations several types of decisions are made including operations strategy, product design, process design, quality management, capacity, facilities planning, production planning and inventory control. Each of these requires an ability to analyze the current situation and find better solutions to improve the effectiveness and efficiency of manufacturing or service operations.</t>
+        </is>
+      </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
@@ -11316,7 +11370,7 @@
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Shoemaker_Book_of_Trades.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Xbar_chart_for_a_paired_xbar_and_R_chart.svg</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr"/>
@@ -11442,7 +11496,7 @@
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Shoemaker_Book_of_Trades.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Xbar_chart_for_a_paired_xbar_and_R_chart.svg</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr"/>
@@ -11686,7 +11740,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>Supply-Chain-Management (SCM) ist in Unternehmen der Anglizismus für „innerbetrieblich und entlang der Lieferkette auch zwischenbetrieblich die auf das Gesamtsystem ausgerichtete strategische Koordinierung zwischen den traditionellen Geschäftsfunktionen und den taktischen Entscheidungen zwischen diesen Geschäftsfunktionen mit dem Ziel der Verbesserung der langfristigen Leistungsfähigkeit der einzelnen Unternehmen und der Lieferkette als Ganzes“.</t>
+          <t>Mit Lieferkette (engl. supply chain [səˈplaɪ tʃeɪn]) wird das Netzwerk von Organisationen bezeichnet, die über vor- und nachgelagerte Verbindungen an den verschiedenen Prozessen und Tätigkeiten der Wertschöpfung in Form von Produkten und Dienstleistungen für den Endkunden beteiligt sind. Das Konzept der Lieferkette gehört zum Standardrepertoire der Wirtschaftswissenschaften. Insbesondere ist es Gegenstand des Supply-Chain-Managements (Lieferkettenmanagement). Abzugrenzen ist die Lieferkette von der Wertkette und der Transportkette. Häufig wird eine resiliente Lieferkette angestrebt.</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -11701,7 +11755,7 @@
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/DM_Freiwasserschwimmen_2009_Lindau.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Supply_and_demand-stacked4.png</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
@@ -12071,7 +12125,7 @@
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/ILRschools6.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Carillon_of_PeterAndPaulCathedral_1.jpg</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
@@ -12331,7 +12385,7 @@
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Wheelock_mt2.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Couchpull.jpg</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr"/>
@@ -12437,7 +12491,7 @@
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Measuring_Tape_Inch+CM.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/CarpentersRule.png</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr"/>
@@ -12543,7 +12597,7 @@
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Measuring_Tape_Inch+CM.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/CarpentersRule.png</t>
         </is>
       </c>
       <c r="AB102" t="inlineStr"/>
@@ -12649,7 +12703,7 @@
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Measuring_Tape_Inch+CM.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/CarpentersRule.png</t>
         </is>
       </c>
       <c r="AB103" t="inlineStr"/>
@@ -12737,7 +12791,11 @@
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>An industrial robot is a robot system used for manufacturing. Industrial robots are automated, programmable and capable of movement on three or more axes. Typical applications of robots include welding, painting, assembly, disassembly, pick and place for printed circuit boards, packaging and labeling, palletizing, product inspection, and testing; all accomplished with high endurance, speed, and precision. They can assist in material handling. In the year 2020, an estimated 1.64 million industrial robots were in operation worldwide according to International Federation of Robotics (IFR).</t>
+        </is>
+      </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
@@ -12767,7 +12825,7 @@
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Offline_teaching_welding_001.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Automation_of_foundry_with_robot.jpg</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr">
@@ -13103,7 +13161,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>OTRS (originally Open-Source Ticket Request System) is a service management suite. The suite contains an agent portal, admin dashboard and customer portal. In the agent portal, teams process tickets and requests from customers (internal or external). There are various ways in which this information, as well as customer and related data can be viewed. As the name implies, the admin dashboard allows system administrators to manage the system: Options are many, but include roles and groups, process automation, channel integration, and CMDB/database options. The third component, the customer portal, is much like a customizable webpage where information can be shared with customers and requests can be tracked on the customer side.</t>
+        </is>
+      </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
@@ -13137,7 +13199,7 @@
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Logo-no-tagline-CMYK.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C2.5123_acland.jpg</t>
         </is>
       </c>
       <c r="AB107" t="inlineStr">
@@ -13251,7 +13313,7 @@
       <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Werkzeugdaten-Fuegebedingungen.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Tool-component-outline-FSJ-02.jpg</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr"/>
@@ -13449,7 +13511,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S110" t="inlineStr"/>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Adobe Audition is a digital audio workstation developed by Adobe Inc. featuring both a multitrack, non-destructive mix/edit environment and a destructive-approach waveform editing view.</t>
+        </is>
+      </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
@@ -13479,7 +13545,7 @@
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_Audition_CC_Screenshot.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Adobe_Audition_CC_icon_(2020).svg</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
@@ -13601,7 +13667,7 @@
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/BeaconMedaes_oxygen,_vacuum,_and_medical_air_medical_gas_supply_outlets_on_a_ceiling_at_Campbell_County_Memorial_Hospital_in_Gillette,_Wyoming.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Atlas_Copco_huvudkontor_jan_2014.jpg</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr"/>
@@ -13719,7 +13785,7 @@
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Export_And_Import.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Hamburg.CTA.Altenwerder.BungaRaya.wmt.jpg</t>
         </is>
       </c>
       <c r="AB112" t="inlineStr"/>
@@ -13925,7 +13991,11 @@
         </is>
       </c>
       <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Computer-aided manufacturing (CAM) also known as Computer-aided Modeling or Computer-aided Machining is the use of software to control machine tools and related ones in the manufacturing of work pieces. This is not the only definition for CAM, but it is the most common; CAM may also refer to the use of a computer to assist in all operations of a manufacturing plant, including planning, management, transportation and storage. Its primary purpose is to create a faster production process and components and tooling with more precise dimensions and material consistency, which in some cases, uses only the required amount of raw material (thus minimizing waste), while simultaneously reducing energy consumption.CAM is now a system used in schools and lower educational purposes.CAM is a subsequent computer-aided process after computer-aided design (CAD) and sometimes computer-aided engineering (CAE), as the model generated in CAD and verified in CAE can be input into CAM software, which then controls the machine tool. CAM is used in many schools alongside Computer-Aided Design (CAD) to create objects.</t>
+        </is>
+      </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
         <is>
@@ -14283,7 +14353,11 @@
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Computer-aided manufacturing (CAM) also known as Computer-aided Modeling or Computer-aided Machining is the use of software to control machine tools and related ones in the manufacturing of work pieces. This is not the only definition for CAM, but it is the most common; CAM may also refer to the use of a computer to assist in all operations of a manufacturing plant, including planning, management, transportation and storage. Its primary purpose is to create a faster production process and components and tooling with more precise dimensions and material consistency, which in some cases, uses only the required amount of raw material (thus minimizing waste), while simultaneously reducing energy consumption.CAM is now a system used in schools and lower educational purposes.CAM is a subsequent computer-aided process after computer-aided design (CAD) and sometimes computer-aided engineering (CAE), as the model generated in CAD and verified in CAE can be input into CAM software, which then controls the machine tool. CAM is used in many schools alongside Computer-Aided Design (CAD) to create objects.</t>
+        </is>
+      </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr">
         <is>
@@ -14397,7 +14471,11 @@
         </is>
       </c>
       <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Vericut (publicly capitalized VERICUT), is a software program used for simulating CNC machining. It is used to simulate tool path motion and the material removal process, detecting errors or areas of inefficiency in NC programs. It was developed by CGTech Inc. and first released in 1988.</t>
+        </is>
+      </c>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr">
         <is>
@@ -14522,7 +14600,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>Supply-Chain-Management (SCM) ist in Unternehmen der Anglizismus für „innerbetrieblich und entlang der Lieferkette auch zwischenbetrieblich die auf das Gesamtsystem ausgerichtete strategische Koordinierung zwischen den traditionellen Geschäftsfunktionen und den taktischen Entscheidungen zwischen diesen Geschäftsfunktionen mit dem Ziel der Verbesserung der langfristigen Leistungsfähigkeit der einzelnen Unternehmen und der Lieferkette als Ganzes“.</t>
+          <t>Mit Lieferkette (engl. supply chain [səˈplaɪ tʃeɪn]) wird das Netzwerk von Organisationen bezeichnet, die über vor- und nachgelagerte Verbindungen an den verschiedenen Prozessen und Tätigkeiten der Wertschöpfung in Form von Produkten und Dienstleistungen für den Endkunden beteiligt sind. Das Konzept der Lieferkette gehört zum Standardrepertoire der Wirtschaftswissenschaften. Insbesondere ist es Gegenstand des Supply-Chain-Managements (Lieferkettenmanagement). Abzugrenzen ist die Lieferkette von der Wertkette und der Transportkette. Häufig wird eine resiliente Lieferkette angestrebt.</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -14537,7 +14615,7 @@
       </c>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/DM_Freiwasserschwimmen_2009_Lindau.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Supply_and_demand-stacked4.png</t>
         </is>
       </c>
       <c r="AB119" t="inlineStr">
@@ -14629,7 +14707,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S120" t="inlineStr"/>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Field inventory management commonly known as inventory management is the function of understanding the stock mix of a company and the different demands on that stock. The demands are influenced by both external and internal factors and are balanced by the creation of purchase order requests to keep supplies at a reasonable or prescribed level. Inventory management is important for every other business enterprise.</t>
+        </is>
+      </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr">
         <is>
@@ -15049,7 +15131,7 @@
       </c>
       <c r="AA123" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Minitab_Screenshot.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Minitab_Logo.svg</t>
         </is>
       </c>
       <c r="AB123" t="inlineStr">
@@ -15141,7 +15223,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S124" t="inlineStr"/>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>An industrial process control in continuous production processes is a discipline that uses industrial control systems to achieve a production level of consistency, economy and safety which could not be achieved purely by human manual control. It is implemented widely in industries such as automotive, mining, dredging, oil refining, pulp and paper manufacturing, chemical processing and power generating plants. There is a wide range of size, type and complexity, but it enables a small number of operators to manage complex processes to a high degree of consistency. The development of large industrial process control systems was instrumental in enabling the design of large high volume and complex processes, which could not be otherwise economically or safely operated. The applications can range from controlling the temperature and level of a single process vessel, to a complete chemical processing plant with several thousand control loops.</t>
+        </is>
+      </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr">
         <is>
@@ -15171,7 +15257,7 @@
       </c>
       <c r="AA124" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Auxostat_schematic.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Functional_levels_of_a_Distributed_Control_System.svg</t>
         </is>
       </c>
       <c r="AB124" t="inlineStr"/>
@@ -15291,7 +15377,7 @@
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="AB125" t="inlineStr">
@@ -15985,7 +16071,11 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="S131" t="inlineStr"/>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>Computer-aided design (CAD) is the use of computers (or workstations) to aid in the creation, modification, analysis, or optimization of a design. CAD software is used to increase the productivity of the designer, improve the quality of design, improve communications through documentation, and to create a database for manufacturing. Designs made through CAD software are helpful in protecting products and inventions when used in patent applications. CAD output is often in the form of electronic files for print, machining, or other manufacturing operations. The term CADD (for computer aided design and drafting) is also used. Its use in designing electronic systems is known as electronic design automation (EDA). In mechanical design it is known as mechanical design automation (MDA) or computer-aided drafting (CAD), which includes the process of creating a technical drawing with the use of computer software. CAD software for mechanical design uses either vector-based graphics to depict the objects of traditional drafting, or may also produce raster graphics showing the overall appearance of designed objects. However, it involves more than just shapes. As in the manual drafting of technical and engineering drawings, the output of CAD must convey information, such as materials, processes, dimensions, and tolerances, according to application-specific conventions. CAD may be used to design curves and figures in two-dimensional (2D) space; or curves, surfaces, and solids in three-dimensional (3D) space. CAD is an important industrial art extensively used in many applications, including automotive, shipbuilding, and aerospace industries, industrial and architectural design, prosthetics, and many more. CAD is also widely used to produce computer animation for special effects in movies, advertising and technical manuals, often called DCC digital content creation. The modern ubiquity and power of computers means that even perfume bottles and shampoo dispensers are designed using techniques unheard of by engineers of the 1960s. Because of its enormous economic importance, CAD has been a major driving force for research in computational geometry, computer graphics (both hardware and software), and discrete differential geometry. The design of geometric models for object shapes, in particular, is occasionally called computer-aided geometric design (CAGD).</t>
+        </is>
+      </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr">
         <is>
@@ -16017,7 +16107,7 @@
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="AB131" t="inlineStr">
@@ -16109,7 +16199,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S132" t="inlineStr"/>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>Computer-aided design (CAD) is the use of computers (or workstations) to aid in the creation, modification, analysis, or optimization of a design. CAD software is used to increase the productivity of the designer, improve the quality of design, improve communications through documentation, and to create a database for manufacturing. Designs made through CAD software are helpful in protecting products and inventions when used in patent applications. CAD output is often in the form of electronic files for print, machining, or other manufacturing operations. The term CADD (for computer aided design and drafting) is also used. Its use in designing electronic systems is known as electronic design automation (EDA). In mechanical design it is known as mechanical design automation (MDA) or computer-aided drafting (CAD), which includes the process of creating a technical drawing with the use of computer software. CAD software for mechanical design uses either vector-based graphics to depict the objects of traditional drafting, or may also produce raster graphics showing the overall appearance of designed objects. However, it involves more than just shapes. As in the manual drafting of technical and engineering drawings, the output of CAD must convey information, such as materials, processes, dimensions, and tolerances, according to application-specific conventions. CAD may be used to design curves and figures in two-dimensional (2D) space; or curves, surfaces, and solids in three-dimensional (3D) space. CAD is an important industrial art extensively used in many applications, including automotive, shipbuilding, and aerospace industries, industrial and architectural design, prosthetics, and many more. CAD is also widely used to produce computer animation for special effects in movies, advertising and technical manuals, often called DCC digital content creation. The modern ubiquity and power of computers means that even perfume bottles and shampoo dispensers are designed using techniques unheard of by engineers of the 1960s. Because of its enormous economic importance, CAD has been a major driving force for research in computational geometry, computer graphics (both hardware and software), and discrete differential geometry. The design of geometric models for object shapes, in particular, is occasionally called computer-aided geometric design (CAGD).</t>
+        </is>
+      </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr">
         <is>
@@ -16141,7 +16235,7 @@
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="AB132" t="inlineStr">
@@ -16261,7 +16355,7 @@
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="AB133" t="inlineStr">
@@ -16389,7 +16483,7 @@
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr">
@@ -16513,7 +16607,7 @@
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr">
@@ -16597,7 +16691,11 @@
         </is>
       </c>
       <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>Building information modeling (BIM) is a process supported by various tools, technologies and contracts involving the generation and management of digital representations of physical and functional characteristics of places. Building information models (BIMs) are computer files (often but not always in proprietary formats and containing proprietary data) which can be extracted, exchanged or networked to support decision-making regarding a built asset. BIM software is used by individuals, businesses and government agencies who plan, design, construct, operate and maintain buildings and diverse physical infrastructures, such as water, refuse, electricity, gas, communication utilities, roads, railways, bridges, ports and tunnels. The concept of BIM has been in development since the 1970s, but it only became an agreed term in the early 2000s. Development of standards and adoption of BIM has progressed at different speeds in different countries; standards developed in the United Kingdom from 2007 onwards have formed the basis of international standard ISO 19650, launched in January 2019.</t>
+        </is>
+      </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr">
         <is>
@@ -16629,7 +16727,7 @@
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Scan-to-BIM_Mechanical_Room.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Architectural_BIM_3D_Modeling.jpg</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr">
@@ -16752,7 +16850,7 @@
       </c>
       <c r="AB137" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Computer-aided_design</t>
+          <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
         </is>
       </c>
     </row>
@@ -16865,7 +16963,7 @@
       </c>
       <c r="AA138" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/MATLAB_mesh_sinc3D.svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Matlab_Logo.png</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr">
@@ -17115,7 +17213,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>Un sistema informativo aziendale può essere immaginato come un insieme comprendente persone, funzioni, applicazioni, reti tecnologiche e procedure che interagendo tra di loro hanno come obiettivo finale quello di rendere disponibile ad un soggetto una serie di informazioni e dati nel momento e nel luogo desiderati. Un Sistema Informativo è in grado di fare ciò compiendo delle operazioni sui dati come ad esempio: raccogliere dati, elaborarli, scambiarli, catalogarli ed esporli. Indica quell'infrastruttura di una organizzazione aziendale deputata alla raccolta e gestione delle informazioni. Si tratta quindi di acquisire i dati, elaborarli e poi restituirli sotto forma di informazioni utili al soggetto interessato. L'obiettivo di un Sistema Informativo è quello di rappresentare un valido supporto durante le operazioni decisionali.</t>
+          <t>Un sistema informatico (o sistema di elaborazione dati è un sistema meccanografico, un computer o un insieme di più computer, apparati o sottosistemi elettronici (come server, database, mainframe, supercomputer, switch, router, modem, terminali, tra loro interconnessi in rete, in un'architettura di base di tipo client-server, e preposti a una o più funzionalità o a servizi di elaborazione a favore degli utenti; a volte più genericamente è detta infrastruttura IT di un'azienda ovvero il complesso delle risorse informatiche a livello hardware e software di un'azienda. Anche il più semplice dei computer potrebbe essere definito sistema informatico, perché il suo funzionamento richiede la presenza combinata di hardware e software e della memoria RAM e ROM; generalizzando il sistema è formato dalla interconnessione fra diversi computer e apparati che, insieme, formano un sistema più grande. Interconnettere computer può essere difficile a causa di incompatibilità presenti sia nell'hardware, che nel software installato.</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
@@ -17125,7 +17223,7 @@
       </c>
       <c r="AA140" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/IS-Relationships-Chart.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Four-Level-Pyramid-model.png</t>
         </is>
       </c>
       <c r="AB140" t="inlineStr"/>
@@ -17235,7 +17333,7 @@
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Measuring_Tape_Inch+CM.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/CarpentersRule.png</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr"/>
@@ -17315,7 +17413,11 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="S142" t="inlineStr"/>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>Computer-aided engineering (CAE) is the broad usage of computer software to aid in engineering analysis tasks. It includes finite element analysis (FEA), computational fluid dynamics (CFD), multibody dynamics (MBD), durability and optimization. It is included with computer-aided design (CAD) and computer-aided manufacturing (CAM) in the collective abbreviation "CAx".</t>
+        </is>
+      </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr">
         <is>
@@ -17809,12 +17911,12 @@
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Simcenter_Amesim.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Siemens_AG_logo.svg</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Graphical_user_interface</t>
+          <t>http://dbpedia.org/resource/Computer_Simulation</t>
         </is>
       </c>
     </row>
@@ -17907,7 +18009,7 @@
       <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Etap.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/SESShield-3D.png</t>
         </is>
       </c>
       <c r="AB147" t="inlineStr"/>
@@ -17991,7 +18093,11 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="S148" t="inlineStr"/>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>AutoCAD is a commercial computer-aided design (CAD) and drafting software application. Developed and marketed by Autodesk, AutoCAD was first released in December 1982 as a desktop app running on microcomputers with internal graphics controllers. Before AutoCAD was introduced, most commercial CAD programs ran on mainframe computers or minicomputers, with each CAD operator (user) working at a separate graphics terminal. AutoCAD is also available as mobile and web apps. AutoCAD is used in industry, by architects, project managers, engineers, graphic designers, city planners and other professionals. It was supported by 750 training centers worldwide in 1994.</t>
+        </is>
+      </c>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr">
         <is>
@@ -18025,7 +18131,7 @@
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/AutoCAD_2016_screenshot.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Man_using_AutoCAD_(1987).jpg</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr">
@@ -18147,7 +18253,7 @@
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C4D_Logo.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C4dwindow.png</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr">
@@ -18265,7 +18371,7 @@
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/historical_MCPrime1.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Ptc_mathcad_logo_standard_color.png</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr">
@@ -18494,7 +18600,7 @@
       </c>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
+          <t>Computer Aided Engineering (CAE) software</t>
         </is>
       </c>
     </row>
@@ -18573,7 +18679,11 @@
         </is>
       </c>
       <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr"/>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>A conveyor system is a common piece of mechanical handling equipment that moves materials from one location to another. Conveyors are especially useful in applications involving the transport of heavy or bulky materials. Conveyor systems allow quick and efficient transport for a wide variety of materials, which make them very popular in the material handling and packaging industries. They also have popular consumer applications, as they are often found in supermarkets and airports, constituting the final leg of item/ bag delivery to customers. Many kinds of conveying systems are available and are used according to the various needs of different industries. There are chain conveyors (floor and overhead) as well. Chain conveyors consist of enclosed tracks, I-Beam, towline, power &amp; free, and hand pushed trolleys.</t>
+        </is>
+      </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr">
         <is>
@@ -18705,7 +18815,7 @@
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Tower_bridge_steam_engine.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/PID_en.svg</t>
         </is>
       </c>
       <c r="AB154" t="inlineStr">
@@ -18831,12 +18941,12 @@
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/C-5_Galaxy_SketchUp_model.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Herculesc130.jpg</t>
         </is>
       </c>
       <c r="AB155" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/3D_computer_graphics</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -18951,7 +19061,7 @@
       </c>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="AB156" t="inlineStr">
@@ -19069,12 +19179,12 @@
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Fc_etzella.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Swstapler00.jpg</t>
         </is>
       </c>
       <c r="AB157" t="inlineStr">
         <is>
-          <t>CAD and CAE</t>
+          <t>http://dbpedia.org/resource/Computer-aided_engineering</t>
         </is>
       </c>
     </row>
@@ -19149,7 +19259,13 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S158" t="inlineStr"/>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>Automation Studio is a circuit design, simulation and project documentation software for fluid power systems and electrical projects conceived by Famic Technologies Inc.. It is used for CAD, maintenance, and training purposes. Mainly used by engineers, trainers, and service and maintenance personnel. Automation Studio can be applied in the design, training and troubleshooting of hydraulics, pneumatics, HMI, and electrical control systems. Two versions of the software exist: 
+* Automation Studio Professional 
+* Automation Studio Educational The educational version of Automation Studio is a lighter version used by engineering and technical schools to train future engineers and technicians. The software is designed for schools that teach technical subjects such as industrial technologies, mechatronics, electromechanical technologies, electrical &amp; electronics, automation, and maintenance. Modeling and simulation are used to illustrate theoretical aspects.</t>
+        </is>
+      </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr">
         <is>
@@ -19299,7 +19415,7 @@
       </c>
       <c r="AA159" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/AutoCAD_2016_screenshot.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Man_using_AutoCAD_(1987).jpg</t>
         </is>
       </c>
       <c r="AB159" t="inlineStr">
@@ -19375,7 +19491,11 @@
         </is>
       </c>
       <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>Computer-aided design (CAD) is the use of computers (or workstations) to aid in the creation, modification, analysis, or optimization of a design. CAD software is used to increase the productivity of the designer, improve the quality of design, improve communications through documentation, and to create a database for manufacturing. Designs made through CAD software are helpful in protecting products and inventions when used in patent applications. CAD output is often in the form of electronic files for print, machining, or other manufacturing operations. The term CADD (for computer aided design and drafting) is also used. Its use in designing electronic systems is known as electronic design automation (EDA). In mechanical design it is known as mechanical design automation (MDA) or computer-aided drafting (CAD), which includes the process of creating a technical drawing with the use of computer software. CAD software for mechanical design uses either vector-based graphics to depict the objects of traditional drafting, or may also produce raster graphics showing the overall appearance of designed objects. However, it involves more than just shapes. As in the manual drafting of technical and engineering drawings, the output of CAD must convey information, such as materials, processes, dimensions, and tolerances, according to application-specific conventions. CAD may be used to design curves and figures in two-dimensional (2D) space; or curves, surfaces, and solids in three-dimensional (3D) space. CAD is an important industrial art extensively used in many applications, including automotive, shipbuilding, and aerospace industries, industrial and architectural design, prosthetics, and many more. CAD is also widely used to produce computer animation for special effects in movies, advertising and technical manuals, often called DCC digital content creation. The modern ubiquity and power of computers means that even perfume bottles and shampoo dispensers are designed using techniques unheard of by engineers of the 1960s. Because of its enormous economic importance, CAD has been a major driving force for research in computational geometry, computer graphics (both hardware and software), and discrete differential geometry. The design of geometric models for object shapes, in particular, is occasionally called computer-aided geometric design (CAGD).</t>
+        </is>
+      </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr">
         <is>
@@ -19407,7 +19527,7 @@
       </c>
       <c r="AA160" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Cad_crank.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Schneckengetriebe.png</t>
         </is>
       </c>
       <c r="AB160" t="inlineStr">
@@ -19491,7 +19611,14 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="S161" t="inlineStr"/>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>Digital MockUp or DMU is a concept that allows the description of a product, usually in 3D, for its entire life cycle. Digital Mockup is enriched by all the activities that contribute to describing the product. The product design engineers, the manufacturing engineers, and the support engineers work together to create and manage the DMU. One of the objectives is to have an important knowledge of the future or the supported product to replace any physical prototypes with virtual ones, using 3D computer graphics techniques. As an extension it is also frequently referred to as Digital Prototyping or Virtual Prototyping. These two specific definitions refer to the production of a physical prototype, but they are part of the DMU concept. DMU allows engineers to design and configure complex products and validate their designs without ever needing to build a physical model. Among the techniques and technologies which make this possible are: 
+* the use of light-weight 3D models with multiple levels of detail using lightweight data structures such as JT XVL and PDF allow engineers to visualize, analyze, and interact with large amounts of product data in real-time on standard desktop computers. 
+* direct interface to between Digital Mockups and PDM systems. 
+* active digital mockup technology that unites the ability to visualize the assembly mockup with the ability to measure, analyze, simulate, design and redesign.</t>
+        </is>
+      </c>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr">
         <is>
@@ -19612,7 +19739,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S162" t="inlineStr"/>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>Simcenter Amesim is a commercial simulation software for the modeling and analysis of multi-domain systems. It is part of systems engineering domain and falls into the mechatronic engineering field. The software package is a suite of tools used to model, analyze and predict the performance of mechatronics systems. Models are described using nonlinear time-dependent analytical equations that represent the system’s hydraulic, pneumatic, thermal, electric or mechanical behavior. Compared to 3D CAE modeling this approach gives the capability to simulate the behavior of systems before detailed CAD geometry is available, hence it is used earlier in the system design cycle or V-Model. To create a simulation model for a system, a set of libraries is used, they contain pre-defined components for different physical domains. The icons in the system have to be connected and for this purpose each icon has ports, which have several inputs and outputs. Causality is enforced by linking the inputs of one icon to the outputs of another icon (and vice versa). Simcenter Amesim libraries are written in C language and also support Modelica which is a non-proprietary, object-oriented, equation based language to model complex physical systems containing, e.g., mechanical, electrical, electronic, hydraulic, thermal, control, electric power or process-oriented subcomponents. The software runs on Linux and on Windows platforms. Simcenter Amesim is a part of the Siemens PLM Software Simcenter portfolio. This combines 1D simulation, 3D CAE and physical testing with intelligent reporting and data analytics. This portfolio is intended for development of complex products that include smart systems, through implementing a Predictive Engineering Analytics approach.</t>
+        </is>
+      </c>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr">
         <is>
@@ -19634,12 +19765,12 @@
       </c>
       <c r="AA162" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Simcenter_Amesim.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Siemens_AG_logo.svg</t>
         </is>
       </c>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Graphical_user_interface</t>
+          <t>http://dbpedia.org/resource/Computer_Simulation</t>
         </is>
       </c>
     </row>
@@ -19966,7 +20097,7 @@
       </c>
       <c r="AA165" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Truss_Structure_Analysis,_Method_of_Sections_Left2.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Orange_logo.svg</t>
         </is>
       </c>
       <c r="AB165" t="inlineStr">
@@ -20571,7 +20702,7 @@
       </c>
       <c r="AA170" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Revit_2014_branding.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/arcadia_word.jpg</t>
         </is>
       </c>
       <c r="AB170" t="inlineStr">
@@ -20659,7 +20790,11 @@
         </is>
       </c>
       <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr"/>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Intellectual property (IP) is a category of property that includes intangible creations of the human intellect. There are many types of intellectual property, and some countries recognize more than others. The most well-known types are copyrights, patents, trademarks, and trade secrets. The modern concept of intellectual property developed in England in the 17th and 18th centuries. The term "intellectual property" began to be used in the 19th century, though it was not until the late 20th century that intellectual property became commonplace in the majority of the world's legal systems. The main purpose of intellectual property law is to encourage the creation of a wide variety of intellectual goods. To achieve this, the law gives people and businesses property rights to the information and intellectual goods they create, usually for a limited period of time. This gives economic incentive for their creation, because it allows people to benefit from the information and intellectual goods they create, and allows them to protect their ideas and prevent copying. These economic incentives are expected to stimulate innovation and contribute to the technological progress of countries, which depends on the extent of protection granted to innovators. The intangible nature of intellectual property presents difficulties when compared with traditional property like land or goods. Unlike traditional property, intellectual property is "indivisible", since an unlimited number of people can "consume" an intellectual good without it being depleted. Additionally, investments in intellectual goods suffer from problems of appropriation: a landowner can surround their land with a robust fence and hire armed guards to protect it, but a producer of information or literature can usually do very little to stop their first buyer from replicating it and selling it at a lower price. Balancing rights so that they are strong enough to encourage the creation of intellectual goods but not so strong that they prevent the goods' wide use is the primary focus of modern intellectual property law.</t>
+        </is>
+      </c>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr">
         <is>
@@ -20691,7 +20826,7 @@
       </c>
       <c r="AA171" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/GlamCamp_NY_Kippelboy_nina_Paley_(2).jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Tom_Bell's_graph_showing_extension_of_U.S._copyright_term_over_time.svg</t>
         </is>
       </c>
       <c r="AB171" t="inlineStr">
@@ -20787,7 +20922,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S172" t="inlineStr"/>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Building information modeling (BIM) is a process supported by various tools, technologies and contracts involving the generation and management of digital representations of physical and functional characteristics of places. Building information models (BIMs) are computer files (often but not always in proprietary formats and containing proprietary data) which can be extracted, exchanged or networked to support decision-making regarding a built asset. BIM software is used by individuals, businesses and government agencies who plan, design, construct, operate and maintain buildings and diverse physical infrastructures, such as water, refuse, electricity, gas, communication utilities, roads, railways, bridges, ports and tunnels. The concept of BIM has been in development since the 1970s, but it only became an agreed term in the early 2000s. Development of standards and adoption of BIM has progressed at different speeds in different countries; standards developed in the United Kingdom from 2007 onwards have formed the basis of international standard ISO 19650, launched in January 2019.</t>
+        </is>
+      </c>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr">
         <is>
@@ -20819,7 +20958,7 @@
       </c>
       <c r="AA172" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Scan-to-BIM_Mechanical_Room.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Architectural_BIM_3D_Modeling.jpg</t>
         </is>
       </c>
       <c r="AB172" t="inlineStr">
@@ -20950,7 +21089,7 @@
       </c>
       <c r="AA173" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Measuring_Tape_Inch+CM.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/CarpentersRule.png</t>
         </is>
       </c>
       <c r="AB173" t="inlineStr"/>
@@ -21042,7 +21181,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="S174" t="inlineStr"/>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Ansys, Inc. is an American company based in Canonsburg, Pennsylvania. It develops and markets CAD/CAM and multiphysics engineering simulation software for product design, testing and operation and offers its products and services to customers worldwide. Ansys was founded in 1970 by John Swanson who sold his interest in the company to venture capitalists in 1993. Ansys went public on NASDAQ in 1996. In the 2000s, the company acquired numerous other engineering design companies, obtaining additional technology for fluid dynamics, electronics design, and physics analysis. Ansys became a component of the NASDAQ-100 index on December 23, 2019.</t>
+        </is>
+      </c>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr">
         <is>
@@ -21072,7 +21215,7 @@
       </c>
       <c r="AA174" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Ansys_logo_(2019).svg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Ansys-hq.jpg</t>
         </is>
       </c>
       <c r="AB174" t="inlineStr"/>
@@ -21318,7 +21461,7 @@
       </c>
       <c r="AA176" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Scan-to-BIM_Mechanical_Room.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Architectural_BIM_3D_Modeling.jpg</t>
         </is>
       </c>
       <c r="AB176" t="inlineStr">
@@ -21436,7 +21579,7 @@
       </c>
       <c r="AA177" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Experience_curiosity1.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/K_(Eighth_Avenue_Local).jpg</t>
         </is>
       </c>
       <c r="AB177" t="inlineStr">
@@ -21688,7 +21831,7 @@
       </c>
       <c r="AA179" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Control-panel-plc.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/PLC_Control_Panel.png</t>
         </is>
       </c>
       <c r="AB179" t="inlineStr"/>
@@ -21768,7 +21911,11 @@
         </is>
       </c>
       <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr"/>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>SIMATIC WinCC is a supervisory control and data acquisition (SCADA) and human-machine interface (HMI) system from Siemens. SCADA systems are used to monitor and control physical processes involved in industry and infrastructure on a large scale and over long distances. SIMATIC WinCC can be used in combination with Siemens controllers. WinCC is written for the Microsoft Windows operating system. It uses Microsoft SQL Server for logging and comes with a VBScript and ANSI C application programming interface. In 2010, WinCC and PCS 7 were the first known SCADA systems to be specifically targeted by malware. The Stuxnet worm can spy on and even reprogram infected systems.</t>
+        </is>
+      </c>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr">
         <is>
@@ -21916,7 +22063,7 @@
       </c>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Håkon_Wium_Lie.jpg</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Opera_Software_logo.png</t>
         </is>
       </c>
       <c r="AB181" t="inlineStr"/>
@@ -22040,7 +22187,7 @@
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Computer-aided_manufacturing</t>
+          <t>http://dbpedia.org/resource/ECAD</t>
         </is>
       </c>
     </row>
@@ -22319,7 +22466,11 @@
         </is>
       </c>
       <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>Laboratory Virtual Instrument Engineering Workbench (LabVIEW) is a system-design platform and development environment for a visual programming language from National Instruments. The graphical language is named "G"; not to be confused with G-code. The G dataflow language was originally developed by Labview, LabVIEW is commonly used for data acquisition, instrument control, and industrial automation on a variety of operating systems (OSs), including Microsoft Windows as well as various versions of Unix, Linux, and macOS. The latest versions of LabVIEW are LabVIEW 2020 (released in May 2020) and LabVIEW NXG 5.1 (released in January 2021). NI released the free for non-commercial use LabVIEW and LabVIEW NXG Community editions on April 28th, 2020.</t>
+        </is>
+      </c>
       <c r="T185" t="inlineStr"/>
       <c r="U185" t="inlineStr">
         <is>
@@ -22349,12 +22500,12 @@
       </c>
       <c r="AA185" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Labview_code_example.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/LabVIEW_Logo.jpg</t>
         </is>
       </c>
       <c r="AB185" t="inlineStr">
         <is>
-          <t>http://dbpedia.org/resource/Test_automation</t>
+          <t>http://dbpedia.org/resource/Data_acquisition</t>
         </is>
       </c>
     </row>
@@ -22459,7 +22610,7 @@
       <c r="Z186" t="inlineStr"/>
       <c r="AA186" t="inlineStr">
         <is>
-          <t>http://commons.wikimedia.org/wiki/Special:FilePath/Etap.png</t>
+          <t>http://commons.wikimedia.org/wiki/Special:FilePath/SESShield-3D.png</t>
         </is>
       </c>
       <c r="AB186" t="inlineStr"/>
@@ -22535,28 +22686,12 @@
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="X187" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="inlineStr"/>
-      <c r="AA187" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="AB187" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
